--- a/Sanaz Bewerbungen.xlsx
+++ b/Sanaz Bewerbungen.xlsx
@@ -710,8 +710,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1265,10 +1265,10 @@
         <v>108</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
@@ -1316,7 +1316,6 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">

--- a/Sanaz Bewerbungen.xlsx
+++ b/Sanaz Bewerbungen.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\docs\cvSanaz\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="8970"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -424,17 +432,18 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Gustav-Throm-Str. </t>
     </r>
     <r>
       <rPr>
-        <rFont val="&quot;Source Sans Pro&quot;, -apple-system, BlinkMacSystemFont, &quot;Segoe UI&quot;, Roboto, &quot;Helvetica Neue&quot;, Arial, sans-serif"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
-        <sz val="12.0"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -461,48 +470,56 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="&quot;Source Sans Pro&quot;"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="&quot;Source Sans Pro&quot;"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -510,7 +527,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -520,77 +537,56 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -780,34 +776,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="96.25"/>
-    <col customWidth="1" min="2" max="2" width="30.0"/>
-    <col customWidth="1" min="3" max="3" width="13.0"/>
-    <col customWidth="1" min="4" max="4" width="11.38"/>
-    <col customWidth="1" min="5" max="5" width="40.63"/>
-    <col customWidth="1" min="7" max="7" width="78.63"/>
-    <col customWidth="1" min="8" max="8" width="87.0"/>
-    <col customWidth="1" min="9" max="9" width="10.13"/>
-    <col customWidth="1" min="11" max="11" width="10.63"/>
-    <col customWidth="1" min="12" max="12" width="8.88"/>
-    <col customWidth="1" min="13" max="13" width="22.25"/>
-    <col customWidth="1" min="14" max="14" width="22.75"/>
+    <col min="1" max="1" width="96.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="40.5703125" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" customWidth="1"/>
+    <col min="8" max="8" width="87" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,7 +871,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -916,7 +917,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -970,7 +971,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1018,7 +1019,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1068,7 +1069,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1109,7 +1110,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1160,7 +1161,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1210,7 +1211,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1256,7 +1257,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1306,7 +1307,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -1362,7 +1363,7 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
@@ -1403,7 +1404,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
@@ -1444,7 +1445,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1490,7 +1491,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
@@ -1542,7 +1543,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
@@ -1589,7 +1590,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>122</v>
       </c>
@@ -1635,7 +1636,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26">
       <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>130</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>41</v>
       </c>
       <c r="Q19" s="2">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>94</v>
@@ -1720,7 +1721,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
         <v>138</v>
       </c>
@@ -1766,7 +1767,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
@@ -1789,7 +1790,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
@@ -1812,7 +1813,7 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:26">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1835,7 +1836,7 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:26">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1858,7 +1859,7 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:26">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1881,7 +1882,7 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:26">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1904,7 +1905,7 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:26">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1927,7 +1928,7 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:26" ht="12.75">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1950,7 +1951,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:26" ht="12.75">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1973,7 +1974,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:26" ht="12.75">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1996,7 +1997,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:26" ht="12.75">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2019,7 +2020,7 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:26" ht="12.75">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -2042,7 +2043,7 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:26" ht="12.75">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2065,7 +2066,7 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:26" ht="12.75">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -2088,7 +2089,7 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:26" ht="12.75">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2111,7 +2112,7 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:26" ht="12.75">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2134,7 +2135,7 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:26" ht="12.75">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -2157,7 +2158,7 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:26" ht="12.75">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -2180,7 +2181,7 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:26" ht="12.75">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2203,7 +2204,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:26" ht="12.75">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2226,7 +2227,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:26" ht="12.75">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2249,7 +2250,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:26" ht="12.75">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2272,7 +2273,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:26" ht="12.75">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2295,7 +2296,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:26" ht="12.75">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2318,7 +2319,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2341,7 +2342,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2364,7 +2365,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:26" ht="12.75">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2387,7 +2388,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:26" ht="12.75">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2410,7 +2411,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:26" ht="12.75">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2433,7 +2434,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:26" ht="12.75">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2456,7 +2457,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:26" ht="12.75">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2479,7 +2480,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:26" ht="12.75">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2502,7 +2503,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:26" ht="12.75">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2525,7 +2526,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:26" ht="12.75">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2548,7 +2549,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:26" ht="12.75">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2571,7 +2572,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:26" ht="12.75">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2594,7 +2595,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:26" ht="12.75">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2617,7 +2618,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:26" ht="12.75">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2640,7 +2641,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:26" ht="12.75">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2663,7 +2664,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:26" ht="12.75">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2686,7 +2687,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:26" ht="12.75">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2709,7 +2710,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:26" ht="12.75">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2732,7 +2733,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:26" ht="12.75">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2755,7 +2756,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:26" ht="12.75">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2778,7 +2779,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:26" ht="12.75">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2801,7 +2802,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:26" ht="12.75">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2824,7 +2825,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:26" ht="12.75">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2847,7 +2848,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:26" ht="12.75">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2870,7 +2871,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:26" ht="12.75">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2893,7 +2894,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:26" ht="12.75">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2916,7 +2917,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:26" ht="12.75">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2939,7 +2940,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:26" ht="12.75">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2962,7 +2963,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:26" ht="12.75">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2985,7 +2986,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:26" ht="12.75">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3008,7 +3009,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:26" ht="12.75">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3031,7 +3032,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:26" ht="12.75">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3054,7 +3055,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:26" ht="12.75">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3077,7 +3078,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:26" ht="12.75">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3100,7 +3101,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:26" ht="12.75">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3123,7 +3124,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:26" ht="12.75">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3146,7 +3147,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:26" ht="12.75">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3169,7 +3170,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:26" ht="12.75">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3192,7 +3193,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:26" ht="12.75">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3215,7 +3216,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:26" ht="12.75">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3238,7 +3239,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:26" ht="12.75">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3261,7 +3262,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:26" ht="12.75">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3284,7 +3285,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:26" ht="12.75">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3307,7 +3308,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:26" ht="12.75">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3330,7 +3331,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:26" ht="12.75">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3353,7 +3354,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:26" ht="12.75">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3376,7 +3377,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:26" ht="12.75">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3399,7 +3400,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:26" ht="12.75">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3422,7 +3423,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:26" ht="12.75">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3445,7 +3446,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:26" ht="12.75">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3468,7 +3469,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:26" ht="12.75">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3491,7 +3492,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:26" ht="12.75">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3514,7 +3515,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:26" ht="12.75">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3537,7 +3538,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:26" ht="12.75">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3560,7 +3561,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:26" ht="12.75">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3583,7 +3584,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:26" ht="12.75">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3606,7 +3607,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:26" ht="12.75">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3629,7 +3630,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:26" ht="12.75">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3652,7 +3653,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:26" ht="12.75">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3675,7 +3676,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:26" ht="12.75">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3698,7 +3699,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:26" ht="12.75">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3721,7 +3722,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:26" ht="12.75">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3744,7 +3745,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:26" ht="12.75">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3767,7 +3768,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:26" ht="12.75">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3790,7 +3791,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:26" ht="12.75">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3813,7 +3814,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:26" ht="12.75">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3836,7 +3837,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:26" ht="12.75">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3859,7 +3860,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:26" ht="12.75">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3882,7 +3883,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:26" ht="12.75">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3905,7 +3906,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:26" ht="12.75">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3928,7 +3929,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:26" ht="12.75">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3951,7 +3952,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:26" ht="12.75">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3974,7 +3975,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:26" ht="12.75">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3997,7 +3998,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:26" ht="12.75">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4020,7 +4021,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:26" ht="12.75">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4043,7 +4044,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:26" ht="12.75">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4066,7 +4067,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:26" ht="12.75">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4089,7 +4090,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:26" ht="12.75">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4112,7 +4113,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:26" ht="12.75">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4135,7 +4136,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:26" ht="12.75">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4158,7 +4159,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:26" ht="12.75">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4181,7 +4182,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:26" ht="12.75">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4204,7 +4205,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:26" ht="12.75">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4227,7 +4228,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:26" ht="12.75">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4250,7 +4251,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:26" ht="12.75">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4273,7 +4274,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:26" ht="12.75">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4296,7 +4297,7 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:26" ht="12.75">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4319,7 +4320,7 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:26" ht="12.75">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4342,7 +4343,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:26" ht="12.75">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4365,7 +4366,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:26" ht="12.75">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4388,7 +4389,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:26" ht="12.75">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4411,7 +4412,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:26" ht="12.75">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4434,7 +4435,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:26" ht="12.75">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4457,7 +4458,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:26" ht="12.75">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4480,7 +4481,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:26" ht="12.75">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4503,7 +4504,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:26" ht="12.75">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4526,7 +4527,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:26" ht="12.75">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4549,7 +4550,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:26" ht="12.75">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4572,7 +4573,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:26" ht="12.75">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4595,7 +4596,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:26" ht="12.75">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4618,7 +4619,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:26" ht="12.75">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4641,7 +4642,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:26" ht="12.75">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4664,7 +4665,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:26" ht="12.75">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4687,7 +4688,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:26" ht="12.75">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4710,7 +4711,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:26" ht="12.75">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4733,7 +4734,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:26" ht="12.75">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4756,7 +4757,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:26" ht="12.75">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4779,7 +4780,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:26" ht="12.75">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4802,7 +4803,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:26" ht="12.75">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4825,7 +4826,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:26" ht="12.75">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4848,7 +4849,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:26" ht="12.75">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4871,7 +4872,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:26" ht="12.75">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4894,7 +4895,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:26" ht="12.75">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4917,7 +4918,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:26" ht="12.75">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4940,7 +4941,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:26" ht="12.75">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4963,7 +4964,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:26" ht="12.75">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4986,7 +4987,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:26" ht="12.75">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5009,7 +5010,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:26" ht="12.75">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5032,7 +5033,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:26" ht="12.75">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5055,7 +5056,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:26" ht="12.75">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5078,7 +5079,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:26" ht="12.75">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5101,7 +5102,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:26" ht="12.75">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5124,7 +5125,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:26" ht="12.75">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5147,7 +5148,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:26" ht="12.75">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5170,7 +5171,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:26" ht="12.75">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5193,7 +5194,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:26" ht="12.75">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5216,7 +5217,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:26" ht="12.75">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5239,7 +5240,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:26" ht="12.75">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5262,7 +5263,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:26" ht="12.75">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5285,7 +5286,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:26" ht="12.75">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5308,7 +5309,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:26" ht="12.75">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5331,7 +5332,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:26" ht="12.75">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5354,7 +5355,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:26" ht="12.75">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5377,7 +5378,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:26" ht="12.75">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5400,7 +5401,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:26" ht="12.75">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5423,7 +5424,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:26" ht="12.75">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5446,7 +5447,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:26" ht="12.75">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5469,7 +5470,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:26" ht="12.75">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5492,7 +5493,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:26" ht="12.75">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5515,7 +5516,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:26" ht="12.75">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5538,7 +5539,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:26" ht="12.75">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5561,7 +5562,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:26" ht="12.75">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5584,7 +5585,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:26" ht="12.75">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5607,7 +5608,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:26" ht="12.75">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5630,7 +5631,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:26" ht="12.75">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5653,7 +5654,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:26" ht="12.75">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5676,7 +5677,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:26" ht="12.75">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5699,7 +5700,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:26" ht="12.75">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5722,7 +5723,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:26" ht="12.75">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5745,7 +5746,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:26" ht="12.75">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5768,7 +5769,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:26" ht="12.75">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5791,7 +5792,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:26" ht="12.75">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5814,7 +5815,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:26" ht="12.75">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5837,7 +5838,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:26" ht="12.75">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5860,7 +5861,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:26" ht="12.75">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5883,7 +5884,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:26" ht="12.75">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5906,7 +5907,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:26" ht="12.75">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5929,7 +5930,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:26" ht="12.75">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5952,7 +5953,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:26" ht="12.75">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5975,7 +5976,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:26" ht="12.75">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5998,7 +5999,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:26" ht="12.75">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -6021,7 +6022,7 @@
       <c r="Y205" s="5"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:26" ht="12.75">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -6044,7 +6045,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:26" ht="12.75">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6067,7 +6068,7 @@
       <c r="Y207" s="5"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:26" ht="12.75">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6090,7 +6091,7 @@
       <c r="Y208" s="5"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:26" ht="12.75">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6113,7 +6114,7 @@
       <c r="Y209" s="5"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:26" ht="12.75">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6136,7 +6137,7 @@
       <c r="Y210" s="5"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:26" ht="12.75">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6159,7 +6160,7 @@
       <c r="Y211" s="5"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:26" ht="12.75">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6182,7 +6183,7 @@
       <c r="Y212" s="5"/>
       <c r="Z212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:26" ht="12.75">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6205,7 +6206,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:26" ht="12.75">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6228,7 +6229,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:26" ht="12.75">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6251,7 +6252,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:26" ht="12.75">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6274,7 +6275,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:26" ht="12.75">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6297,7 +6298,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:26" ht="12.75">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6320,7 +6321,7 @@
       <c r="Y218" s="5"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:26" ht="12.75">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6343,7 +6344,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:26" ht="12.75">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6366,7 +6367,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:26" ht="12.75">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6389,7 +6390,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:26" ht="12.75">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6412,7 +6413,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:26" ht="12.75">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6435,7 +6436,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:26" ht="12.75">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6458,7 +6459,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:26" ht="12.75">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6481,7 +6482,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:26" ht="12.75">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6504,7 +6505,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:26" ht="12.75">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6527,7 +6528,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:26" ht="12.75">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6550,7 +6551,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:26" ht="12.75">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6573,7 +6574,7 @@
       <c r="Y229" s="5"/>
       <c r="Z229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:26" ht="12.75">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6596,7 +6597,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:26" ht="12.75">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6619,7 +6620,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:26" ht="12.75">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6642,7 +6643,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:26" ht="12.75">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6665,7 +6666,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:26" ht="12.75">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6688,7 +6689,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:26" ht="12.75">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -6711,7 +6712,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:26" ht="12.75">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -6734,7 +6735,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:26" ht="12.75">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -6757,7 +6758,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:26" ht="12.75">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -6780,7 +6781,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:26" ht="12.75">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -6803,7 +6804,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:26" ht="12.75">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -6826,7 +6827,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:26" ht="12.75">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -6849,7 +6850,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:26" ht="12.75">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -6872,7 +6873,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:26" ht="12.75">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -6895,7 +6896,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:26" ht="12.75">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -6918,7 +6919,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:26" ht="12.75">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -6941,7 +6942,7 @@
       <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:26" ht="12.75">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -6964,7 +6965,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:26" ht="12.75">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -6987,7 +6988,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:26" ht="12.75">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -7010,7 +7011,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:26" ht="12.75">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -7033,7 +7034,7 @@
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:26" ht="12.75">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -7056,7 +7057,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:26" ht="12.75">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7079,7 +7080,7 @@
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:26" ht="12.75">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7102,7 +7103,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:26" ht="12.75">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7125,7 +7126,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:26" ht="12.75">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7148,7 +7149,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:26" ht="12.75">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7171,7 +7172,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:26" ht="12.75">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7194,7 +7195,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:26" ht="12.75">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7217,7 +7218,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:26" ht="12.75">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7240,7 +7241,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:26" ht="12.75">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7263,7 +7264,7 @@
       <c r="Y259" s="5"/>
       <c r="Z259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:26" ht="12.75">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -7286,7 +7287,7 @@
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:26" ht="12.75">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7309,7 +7310,7 @@
       <c r="Y261" s="5"/>
       <c r="Z261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:26" ht="12.75">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7332,7 +7333,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:26" ht="12.75">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7355,7 +7356,7 @@
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:26" ht="12.75">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7378,7 +7379,7 @@
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:26" ht="12.75">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7401,7 +7402,7 @@
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:26" ht="12.75">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7424,7 +7425,7 @@
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:26" ht="12.75">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7447,7 +7448,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:26" ht="12.75">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7470,7 +7471,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:26" ht="12.75">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7493,7 +7494,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:26" ht="12.75">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7516,7 +7517,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:26" ht="12.75">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7539,7 +7540,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:26" ht="12.75">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7562,7 +7563,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:26" ht="12.75">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7585,7 +7586,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:26" ht="12.75">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7608,7 +7609,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:26" ht="12.75">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7631,7 +7632,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:26" ht="12.75">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -7654,7 +7655,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:26" ht="12.75">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -7677,7 +7678,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:26" ht="12.75">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -7700,7 +7701,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:26" ht="12.75">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -7723,7 +7724,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:26" ht="12.75">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -7746,7 +7747,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:26" ht="12.75">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -7769,7 +7770,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:26" ht="12.75">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -7792,7 +7793,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:26" ht="12.75">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -7815,7 +7816,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:26" ht="12.75">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -7838,7 +7839,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:26" ht="12.75">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -7861,7 +7862,7 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:26" ht="12.75">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -7884,7 +7885,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:26" ht="12.75">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -7907,7 +7908,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:26" ht="12.75">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -7930,7 +7931,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:26" ht="12.75">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -7953,7 +7954,7 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:26" ht="12.75">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -7976,7 +7977,7 @@
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:26" ht="12.75">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -7999,7 +8000,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:26" ht="12.75">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -8022,7 +8023,7 @@
       <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:26" ht="12.75">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8045,7 +8046,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:26" ht="12.75">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8068,7 +8069,7 @@
       <c r="Y294" s="5"/>
       <c r="Z294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:26" ht="12.75">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8091,7 +8092,7 @@
       <c r="Y295" s="5"/>
       <c r="Z295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:26" ht="12.75">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8114,7 +8115,7 @@
       <c r="Y296" s="5"/>
       <c r="Z296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:26" ht="12.75">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8137,7 +8138,7 @@
       <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:26" ht="12.75">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -8160,7 +8161,7 @@
       <c r="Y298" s="5"/>
       <c r="Z298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:26" ht="12.75">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -8183,7 +8184,7 @@
       <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:26" ht="12.75">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -8206,7 +8207,7 @@
       <c r="Y300" s="5"/>
       <c r="Z300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:26" ht="12.75">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -8229,7 +8230,7 @@
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:26" ht="12.75">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -8252,7 +8253,7 @@
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:26" ht="12.75">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -8275,7 +8276,7 @@
       <c r="Y303" s="5"/>
       <c r="Z303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:26" ht="12.75">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -8298,7 +8299,7 @@
       <c r="Y304" s="5"/>
       <c r="Z304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:26" ht="12.75">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8321,7 +8322,7 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:26" ht="12.75">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -8344,7 +8345,7 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:26" ht="12.75">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -8367,7 +8368,7 @@
       <c r="Y307" s="5"/>
       <c r="Z307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:26" ht="12.75">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -8390,7 +8391,7 @@
       <c r="Y308" s="5"/>
       <c r="Z308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:26" ht="12.75">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -8413,7 +8414,7 @@
       <c r="Y309" s="5"/>
       <c r="Z309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:26" ht="12.75">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -8436,7 +8437,7 @@
       <c r="Y310" s="5"/>
       <c r="Z310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:26" ht="12.75">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8459,7 +8460,7 @@
       <c r="Y311" s="5"/>
       <c r="Z311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:26" ht="12.75">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -8482,7 +8483,7 @@
       <c r="Y312" s="5"/>
       <c r="Z312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:26" ht="12.75">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -8505,7 +8506,7 @@
       <c r="Y313" s="5"/>
       <c r="Z313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:26" ht="12.75">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -8528,7 +8529,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:26" ht="12.75">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8551,7 +8552,7 @@
       <c r="Y315" s="5"/>
       <c r="Z315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:26" ht="12.75">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -8574,7 +8575,7 @@
       <c r="Y316" s="5"/>
       <c r="Z316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:26" ht="12.75">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -8597,7 +8598,7 @@
       <c r="Y317" s="5"/>
       <c r="Z317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:26" ht="12.75">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -8620,7 +8621,7 @@
       <c r="Y318" s="5"/>
       <c r="Z318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:26" ht="12.75">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -8643,7 +8644,7 @@
       <c r="Y319" s="5"/>
       <c r="Z319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:26" ht="12.75">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -8666,7 +8667,7 @@
       <c r="Y320" s="5"/>
       <c r="Z320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:26" ht="12.75">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -8689,7 +8690,7 @@
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:26" ht="12.75">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -8712,7 +8713,7 @@
       <c r="Y322" s="5"/>
       <c r="Z322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:26" ht="12.75">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -8735,7 +8736,7 @@
       <c r="Y323" s="5"/>
       <c r="Z323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:26" ht="12.75">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -8758,7 +8759,7 @@
       <c r="Y324" s="5"/>
       <c r="Z324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:26" ht="12.75">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -8781,7 +8782,7 @@
       <c r="Y325" s="5"/>
       <c r="Z325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:26" ht="12.75">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -8804,7 +8805,7 @@
       <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:26" ht="12.75">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -8827,7 +8828,7 @@
       <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:26" ht="12.75">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -8850,7 +8851,7 @@
       <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:26" ht="12.75">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -8873,7 +8874,7 @@
       <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:26" ht="12.75">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -8896,7 +8897,7 @@
       <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:26" ht="12.75">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -8919,7 +8920,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:26" ht="12.75">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -8942,7 +8943,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:26" ht="12.75">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -8965,7 +8966,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:26" ht="12.75">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -8988,7 +8989,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:26" ht="12.75">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -9011,7 +9012,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:26" ht="12.75">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -9034,7 +9035,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:26" ht="12.75">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -9057,7 +9058,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:26" ht="12.75">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -9080,7 +9081,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:26" ht="12.75">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -9103,7 +9104,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:26" ht="12.75">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -9126,7 +9127,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:26" ht="12.75">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -9149,7 +9150,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:26" ht="12.75">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -9172,7 +9173,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:26" ht="12.75">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9195,7 +9196,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:26" ht="12.75">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -9218,7 +9219,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:26" ht="12.75">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -9241,7 +9242,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:26" ht="12.75">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -9264,7 +9265,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:26" ht="12.75">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -9287,7 +9288,7 @@
       <c r="Y347" s="5"/>
       <c r="Z347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:26" ht="12.75">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -9310,7 +9311,7 @@
       <c r="Y348" s="5"/>
       <c r="Z348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:26" ht="12.75">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9333,7 +9334,7 @@
       <c r="Y349" s="5"/>
       <c r="Z349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:26" ht="12.75">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -9356,7 +9357,7 @@
       <c r="Y350" s="5"/>
       <c r="Z350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:26" ht="12.75">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9379,7 +9380,7 @@
       <c r="Y351" s="5"/>
       <c r="Z351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:26" ht="12.75">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -9402,7 +9403,7 @@
       <c r="Y352" s="5"/>
       <c r="Z352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:26" ht="12.75">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -9425,7 +9426,7 @@
       <c r="Y353" s="5"/>
       <c r="Z353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:26" ht="12.75">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9448,7 +9449,7 @@
       <c r="Y354" s="5"/>
       <c r="Z354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:26" ht="12.75">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -9471,7 +9472,7 @@
       <c r="Y355" s="5"/>
       <c r="Z355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:26" ht="12.75">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -9494,7 +9495,7 @@
       <c r="Y356" s="5"/>
       <c r="Z356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:26" ht="12.75">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -9517,7 +9518,7 @@
       <c r="Y357" s="5"/>
       <c r="Z357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:26" ht="12.75">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -9540,7 +9541,7 @@
       <c r="Y358" s="5"/>
       <c r="Z358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:26" ht="12.75">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -9563,7 +9564,7 @@
       <c r="Y359" s="5"/>
       <c r="Z359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:26" ht="12.75">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -9586,7 +9587,7 @@
       <c r="Y360" s="5"/>
       <c r="Z360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:26" ht="12.75">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -9609,7 +9610,7 @@
       <c r="Y361" s="5"/>
       <c r="Z361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:26" ht="12.75">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -9632,7 +9633,7 @@
       <c r="Y362" s="5"/>
       <c r="Z362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:26" ht="12.75">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -9655,7 +9656,7 @@
       <c r="Y363" s="5"/>
       <c r="Z363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:26" ht="12.75">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -9678,7 +9679,7 @@
       <c r="Y364" s="5"/>
       <c r="Z364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:26" ht="12.75">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -9701,7 +9702,7 @@
       <c r="Y365" s="5"/>
       <c r="Z365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:26" ht="12.75">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -9724,7 +9725,7 @@
       <c r="Y366" s="5"/>
       <c r="Z366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:26" ht="12.75">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -9747,7 +9748,7 @@
       <c r="Y367" s="5"/>
       <c r="Z367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:26" ht="12.75">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -9770,7 +9771,7 @@
       <c r="Y368" s="5"/>
       <c r="Z368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:26" ht="12.75">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -9793,7 +9794,7 @@
       <c r="Y369" s="5"/>
       <c r="Z369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:26" ht="12.75">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -9816,7 +9817,7 @@
       <c r="Y370" s="5"/>
       <c r="Z370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:26" ht="12.75">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -9839,7 +9840,7 @@
       <c r="Y371" s="5"/>
       <c r="Z371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:26" ht="12.75">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -9862,7 +9863,7 @@
       <c r="Y372" s="5"/>
       <c r="Z372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:26" ht="12.75">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -9885,7 +9886,7 @@
       <c r="Y373" s="5"/>
       <c r="Z373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:26" ht="12.75">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -9908,7 +9909,7 @@
       <c r="Y374" s="5"/>
       <c r="Z374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:26" ht="12.75">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -9931,7 +9932,7 @@
       <c r="Y375" s="5"/>
       <c r="Z375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:26" ht="12.75">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -9954,7 +9955,7 @@
       <c r="Y376" s="5"/>
       <c r="Z376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:26" ht="12.75">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -9977,7 +9978,7 @@
       <c r="Y377" s="5"/>
       <c r="Z377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:26" ht="12.75">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -10000,7 +10001,7 @@
       <c r="Y378" s="5"/>
       <c r="Z378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:26" ht="12.75">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10023,7 +10024,7 @@
       <c r="Y379" s="5"/>
       <c r="Z379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:26" ht="12.75">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -10046,7 +10047,7 @@
       <c r="Y380" s="5"/>
       <c r="Z380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:26" ht="12.75">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -10069,7 +10070,7 @@
       <c r="Y381" s="5"/>
       <c r="Z381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:26" ht="12.75">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -10092,7 +10093,7 @@
       <c r="Y382" s="5"/>
       <c r="Z382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:26" ht="12.75">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -10115,7 +10116,7 @@
       <c r="Y383" s="5"/>
       <c r="Z383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:26" ht="12.75">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -10138,7 +10139,7 @@
       <c r="Y384" s="5"/>
       <c r="Z384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:26" ht="12.75">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -10161,7 +10162,7 @@
       <c r="Y385" s="5"/>
       <c r="Z385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:26" ht="12.75">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -10184,7 +10185,7 @@
       <c r="Y386" s="5"/>
       <c r="Z386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:26" ht="12.75">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -10207,7 +10208,7 @@
       <c r="Y387" s="5"/>
       <c r="Z387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:26" ht="12.75">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -10230,7 +10231,7 @@
       <c r="Y388" s="5"/>
       <c r="Z388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:26" ht="12.75">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -10253,7 +10254,7 @@
       <c r="Y389" s="5"/>
       <c r="Z389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:26" ht="12.75">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -10276,7 +10277,7 @@
       <c r="Y390" s="5"/>
       <c r="Z390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:26" ht="12.75">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -10299,7 +10300,7 @@
       <c r="Y391" s="5"/>
       <c r="Z391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:26" ht="12.75">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -10322,7 +10323,7 @@
       <c r="Y392" s="5"/>
       <c r="Z392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:26" ht="12.75">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -10345,7 +10346,7 @@
       <c r="Y393" s="5"/>
       <c r="Z393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:26" ht="12.75">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -10368,7 +10369,7 @@
       <c r="Y394" s="5"/>
       <c r="Z394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:26" ht="12.75">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -10391,7 +10392,7 @@
       <c r="Y395" s="5"/>
       <c r="Z395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:26" ht="12.75">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -10414,7 +10415,7 @@
       <c r="Y396" s="5"/>
       <c r="Z396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:26" ht="12.75">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10437,7 +10438,7 @@
       <c r="Y397" s="5"/>
       <c r="Z397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:26" ht="12.75">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -10460,7 +10461,7 @@
       <c r="Y398" s="5"/>
       <c r="Z398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:26" ht="12.75">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -10483,7 +10484,7 @@
       <c r="Y399" s="5"/>
       <c r="Z399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:26" ht="12.75">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -10506,7 +10507,7 @@
       <c r="Y400" s="5"/>
       <c r="Z400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:26" ht="12.75">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -10529,7 +10530,7 @@
       <c r="Y401" s="5"/>
       <c r="Z401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:26" ht="12.75">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -10552,7 +10553,7 @@
       <c r="Y402" s="5"/>
       <c r="Z402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:26" ht="12.75">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -10575,7 +10576,7 @@
       <c r="Y403" s="5"/>
       <c r="Z403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:26" ht="12.75">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -10598,7 +10599,7 @@
       <c r="Y404" s="5"/>
       <c r="Z404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:26" ht="12.75">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -10621,7 +10622,7 @@
       <c r="Y405" s="5"/>
       <c r="Z405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:26" ht="12.75">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -10644,7 +10645,7 @@
       <c r="Y406" s="5"/>
       <c r="Z406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:26" ht="12.75">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -10667,7 +10668,7 @@
       <c r="Y407" s="5"/>
       <c r="Z407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:26" ht="12.75">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -10690,7 +10691,7 @@
       <c r="Y408" s="5"/>
       <c r="Z408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:26" ht="12.75">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -10713,7 +10714,7 @@
       <c r="Y409" s="5"/>
       <c r="Z409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:26" ht="12.75">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -10736,7 +10737,7 @@
       <c r="Y410" s="5"/>
       <c r="Z410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:26" ht="12.75">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -10759,7 +10760,7 @@
       <c r="Y411" s="5"/>
       <c r="Z411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:26" ht="12.75">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -10782,7 +10783,7 @@
       <c r="Y412" s="5"/>
       <c r="Z412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:26" ht="12.75">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -10805,7 +10806,7 @@
       <c r="Y413" s="5"/>
       <c r="Z413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:26" ht="12.75">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -10828,7 +10829,7 @@
       <c r="Y414" s="5"/>
       <c r="Z414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:26" ht="12.75">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -10851,7 +10852,7 @@
       <c r="Y415" s="5"/>
       <c r="Z415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:26" ht="12.75">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -10874,7 +10875,7 @@
       <c r="Y416" s="5"/>
       <c r="Z416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:26" ht="12.75">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -10897,7 +10898,7 @@
       <c r="Y417" s="5"/>
       <c r="Z417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:26" ht="12.75">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -10920,7 +10921,7 @@
       <c r="Y418" s="5"/>
       <c r="Z418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:26" ht="12.75">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -10943,7 +10944,7 @@
       <c r="Y419" s="5"/>
       <c r="Z419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:26" ht="12.75">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -10966,7 +10967,7 @@
       <c r="Y420" s="5"/>
       <c r="Z420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:26" ht="12.75">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -10989,7 +10990,7 @@
       <c r="Y421" s="5"/>
       <c r="Z421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:26" ht="12.75">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -11012,7 +11013,7 @@
       <c r="Y422" s="5"/>
       <c r="Z422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:26" ht="12.75">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -11035,7 +11036,7 @@
       <c r="Y423" s="5"/>
       <c r="Z423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:26" ht="12.75">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -11058,7 +11059,7 @@
       <c r="Y424" s="5"/>
       <c r="Z424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:26" ht="12.75">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -11081,7 +11082,7 @@
       <c r="Y425" s="5"/>
       <c r="Z425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:26" ht="12.75">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -11104,7 +11105,7 @@
       <c r="Y426" s="5"/>
       <c r="Z426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:26" ht="12.75">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -11127,7 +11128,7 @@
       <c r="Y427" s="5"/>
       <c r="Z427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:26" ht="12.75">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -11150,7 +11151,7 @@
       <c r="Y428" s="5"/>
       <c r="Z428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:26" ht="12.75">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -11173,7 +11174,7 @@
       <c r="Y429" s="5"/>
       <c r="Z429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:26" ht="12.75">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -11196,7 +11197,7 @@
       <c r="Y430" s="5"/>
       <c r="Z430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:26" ht="12.75">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -11219,7 +11220,7 @@
       <c r="Y431" s="5"/>
       <c r="Z431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:26" ht="12.75">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -11242,7 +11243,7 @@
       <c r="Y432" s="5"/>
       <c r="Z432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:26" ht="12.75">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -11265,7 +11266,7 @@
       <c r="Y433" s="5"/>
       <c r="Z433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:26" ht="12.75">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -11288,7 +11289,7 @@
       <c r="Y434" s="5"/>
       <c r="Z434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:26" ht="12.75">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -11311,7 +11312,7 @@
       <c r="Y435" s="5"/>
       <c r="Z435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:26" ht="12.75">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -11334,7 +11335,7 @@
       <c r="Y436" s="5"/>
       <c r="Z436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:26" ht="12.75">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -11357,7 +11358,7 @@
       <c r="Y437" s="5"/>
       <c r="Z437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:26" ht="12.75">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -11380,7 +11381,7 @@
       <c r="Y438" s="5"/>
       <c r="Z438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:26" ht="12.75">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -11403,7 +11404,7 @@
       <c r="Y439" s="5"/>
       <c r="Z439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:26" ht="12.75">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -11426,7 +11427,7 @@
       <c r="Y440" s="5"/>
       <c r="Z440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:26" ht="12.75">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -11449,7 +11450,7 @@
       <c r="Y441" s="5"/>
       <c r="Z441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:26" ht="12.75">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -11472,7 +11473,7 @@
       <c r="Y442" s="5"/>
       <c r="Z442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:26" ht="12.75">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -11495,7 +11496,7 @@
       <c r="Y443" s="5"/>
       <c r="Z443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:26" ht="12.75">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -11518,7 +11519,7 @@
       <c r="Y444" s="5"/>
       <c r="Z444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:26" ht="12.75">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -11541,7 +11542,7 @@
       <c r="Y445" s="5"/>
       <c r="Z445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:26" ht="12.75">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -11564,7 +11565,7 @@
       <c r="Y446" s="5"/>
       <c r="Z446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:26" ht="12.75">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -11587,7 +11588,7 @@
       <c r="Y447" s="5"/>
       <c r="Z447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:26" ht="12.75">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -11610,7 +11611,7 @@
       <c r="Y448" s="5"/>
       <c r="Z448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:26" ht="12.75">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -11633,7 +11634,7 @@
       <c r="Y449" s="5"/>
       <c r="Z449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:26" ht="12.75">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -11656,7 +11657,7 @@
       <c r="Y450" s="5"/>
       <c r="Z450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:26" ht="12.75">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -11679,7 +11680,7 @@
       <c r="Y451" s="5"/>
       <c r="Z451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:26" ht="12.75">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -11702,7 +11703,7 @@
       <c r="Y452" s="5"/>
       <c r="Z452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:26" ht="12.75">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -11725,7 +11726,7 @@
       <c r="Y453" s="5"/>
       <c r="Z453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:26" ht="12.75">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -11748,7 +11749,7 @@
       <c r="Y454" s="5"/>
       <c r="Z454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:26" ht="12.75">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -11771,7 +11772,7 @@
       <c r="Y455" s="5"/>
       <c r="Z455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:26" ht="12.75">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -11794,7 +11795,7 @@
       <c r="Y456" s="5"/>
       <c r="Z456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:26" ht="12.75">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -11817,7 +11818,7 @@
       <c r="Y457" s="5"/>
       <c r="Z457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:26" ht="12.75">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -11840,7 +11841,7 @@
       <c r="Y458" s="5"/>
       <c r="Z458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:26" ht="12.75">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -11863,7 +11864,7 @@
       <c r="Y459" s="5"/>
       <c r="Z459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:26" ht="12.75">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -11886,7 +11887,7 @@
       <c r="Y460" s="5"/>
       <c r="Z460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:26" ht="12.75">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -11909,7 +11910,7 @@
       <c r="Y461" s="5"/>
       <c r="Z461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:26" ht="12.75">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -11932,7 +11933,7 @@
       <c r="Y462" s="5"/>
       <c r="Z462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:26" ht="12.75">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -11955,7 +11956,7 @@
       <c r="Y463" s="5"/>
       <c r="Z463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:26" ht="12.75">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -11978,7 +11979,7 @@
       <c r="Y464" s="5"/>
       <c r="Z464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:26" ht="12.75">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -12001,7 +12002,7 @@
       <c r="Y465" s="5"/>
       <c r="Z465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:26" ht="12.75">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -12024,7 +12025,7 @@
       <c r="Y466" s="5"/>
       <c r="Z466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:26" ht="12.75">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -12047,7 +12048,7 @@
       <c r="Y467" s="5"/>
       <c r="Z467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:26" ht="12.75">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -12070,7 +12071,7 @@
       <c r="Y468" s="5"/>
       <c r="Z468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:26" ht="12.75">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -12093,7 +12094,7 @@
       <c r="Y469" s="5"/>
       <c r="Z469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:26" ht="12.75">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -12116,7 +12117,7 @@
       <c r="Y470" s="5"/>
       <c r="Z470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:26" ht="12.75">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -12139,7 +12140,7 @@
       <c r="Y471" s="5"/>
       <c r="Z471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:26" ht="12.75">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -12162,7 +12163,7 @@
       <c r="Y472" s="5"/>
       <c r="Z472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:26" ht="12.75">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -12185,7 +12186,7 @@
       <c r="Y473" s="5"/>
       <c r="Z473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:26" ht="12.75">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -12208,7 +12209,7 @@
       <c r="Y474" s="5"/>
       <c r="Z474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:26" ht="12.75">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -12231,7 +12232,7 @@
       <c r="Y475" s="5"/>
       <c r="Z475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:26" ht="12.75">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -12254,7 +12255,7 @@
       <c r="Y476" s="5"/>
       <c r="Z476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:26" ht="12.75">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -12277,7 +12278,7 @@
       <c r="Y477" s="5"/>
       <c r="Z477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:26" ht="12.75">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -12300,7 +12301,7 @@
       <c r="Y478" s="5"/>
       <c r="Z478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:26" ht="12.75">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -12323,7 +12324,7 @@
       <c r="Y479" s="5"/>
       <c r="Z479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:26" ht="12.75">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -12346,7 +12347,7 @@
       <c r="Y480" s="5"/>
       <c r="Z480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:26" ht="12.75">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -12369,7 +12370,7 @@
       <c r="Y481" s="5"/>
       <c r="Z481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:26" ht="12.75">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -12392,7 +12393,7 @@
       <c r="Y482" s="5"/>
       <c r="Z482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:26" ht="12.75">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -12415,7 +12416,7 @@
       <c r="Y483" s="5"/>
       <c r="Z483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:26" ht="12.75">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -12438,7 +12439,7 @@
       <c r="Y484" s="5"/>
       <c r="Z484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:26" ht="12.75">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -12461,7 +12462,7 @@
       <c r="Y485" s="5"/>
       <c r="Z485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:26" ht="12.75">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -12484,7 +12485,7 @@
       <c r="Y486" s="5"/>
       <c r="Z486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:26" ht="12.75">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -12507,7 +12508,7 @@
       <c r="Y487" s="5"/>
       <c r="Z487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:26" ht="12.75">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -12530,7 +12531,7 @@
       <c r="Y488" s="5"/>
       <c r="Z488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:26" ht="12.75">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -12553,7 +12554,7 @@
       <c r="Y489" s="5"/>
       <c r="Z489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:26" ht="12.75">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -12576,7 +12577,7 @@
       <c r="Y490" s="5"/>
       <c r="Z490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:26" ht="12.75">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -12599,7 +12600,7 @@
       <c r="Y491" s="5"/>
       <c r="Z491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:26" ht="12.75">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -12622,7 +12623,7 @@
       <c r="Y492" s="5"/>
       <c r="Z492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:26" ht="12.75">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -12645,7 +12646,7 @@
       <c r="Y493" s="5"/>
       <c r="Z493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:26" ht="12.75">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -12668,7 +12669,7 @@
       <c r="Y494" s="5"/>
       <c r="Z494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:26" ht="12.75">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -12691,7 +12692,7 @@
       <c r="Y495" s="5"/>
       <c r="Z495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:26" ht="12.75">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -12714,7 +12715,7 @@
       <c r="Y496" s="5"/>
       <c r="Z496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:26" ht="12.75">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -12737,7 +12738,7 @@
       <c r="Y497" s="5"/>
       <c r="Z497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:26" ht="12.75">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -12760,7 +12761,7 @@
       <c r="Y498" s="5"/>
       <c r="Z498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:26" ht="12.75">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -12783,7 +12784,7 @@
       <c r="Y499" s="5"/>
       <c r="Z499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:26" ht="12.75">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -12806,7 +12807,7 @@
       <c r="Y500" s="5"/>
       <c r="Z500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:26" ht="12.75">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -12829,7 +12830,7 @@
       <c r="Y501" s="5"/>
       <c r="Z501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:26" ht="12.75">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -12852,7 +12853,7 @@
       <c r="Y502" s="5"/>
       <c r="Z502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:26" ht="12.75">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -12875,7 +12876,7 @@
       <c r="Y503" s="5"/>
       <c r="Z503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:26" ht="12.75">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -12898,7 +12899,7 @@
       <c r="Y504" s="5"/>
       <c r="Z504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:26" ht="12.75">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -12921,7 +12922,7 @@
       <c r="Y505" s="5"/>
       <c r="Z505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:26" ht="12.75">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -12944,7 +12945,7 @@
       <c r="Y506" s="5"/>
       <c r="Z506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:26" ht="12.75">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -12967,7 +12968,7 @@
       <c r="Y507" s="5"/>
       <c r="Z507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:26" ht="12.75">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -12990,7 +12991,7 @@
       <c r="Y508" s="5"/>
       <c r="Z508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:26" ht="12.75">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -13013,7 +13014,7 @@
       <c r="Y509" s="5"/>
       <c r="Z509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:26" ht="12.75">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -13036,7 +13037,7 @@
       <c r="Y510" s="5"/>
       <c r="Z510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:26" ht="12.75">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -13059,7 +13060,7 @@
       <c r="Y511" s="5"/>
       <c r="Z511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:26" ht="12.75">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -13082,7 +13083,7 @@
       <c r="Y512" s="5"/>
       <c r="Z512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:26" ht="12.75">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -13105,7 +13106,7 @@
       <c r="Y513" s="5"/>
       <c r="Z513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:26" ht="12.75">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -13128,7 +13129,7 @@
       <c r="Y514" s="5"/>
       <c r="Z514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:26" ht="12.75">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -13151,7 +13152,7 @@
       <c r="Y515" s="5"/>
       <c r="Z515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:26" ht="12.75">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -13174,7 +13175,7 @@
       <c r="Y516" s="5"/>
       <c r="Z516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:26" ht="12.75">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -13197,7 +13198,7 @@
       <c r="Y517" s="5"/>
       <c r="Z517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:26" ht="12.75">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -13220,7 +13221,7 @@
       <c r="Y518" s="5"/>
       <c r="Z518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:26" ht="12.75">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -13243,7 +13244,7 @@
       <c r="Y519" s="5"/>
       <c r="Z519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:26" ht="12.75">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -13266,7 +13267,7 @@
       <c r="Y520" s="5"/>
       <c r="Z520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:26" ht="12.75">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -13289,7 +13290,7 @@
       <c r="Y521" s="5"/>
       <c r="Z521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:26" ht="12.75">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -13312,7 +13313,7 @@
       <c r="Y522" s="5"/>
       <c r="Z522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:26" ht="12.75">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -13335,7 +13336,7 @@
       <c r="Y523" s="5"/>
       <c r="Z523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:26" ht="12.75">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -13358,7 +13359,7 @@
       <c r="Y524" s="5"/>
       <c r="Z524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:26" ht="12.75">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -13381,7 +13382,7 @@
       <c r="Y525" s="5"/>
       <c r="Z525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:26" ht="12.75">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -13404,7 +13405,7 @@
       <c r="Y526" s="5"/>
       <c r="Z526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:26" ht="12.75">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -13427,7 +13428,7 @@
       <c r="Y527" s="5"/>
       <c r="Z527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:26" ht="12.75">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -13450,7 +13451,7 @@
       <c r="Y528" s="5"/>
       <c r="Z528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:26" ht="12.75">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -13473,7 +13474,7 @@
       <c r="Y529" s="5"/>
       <c r="Z529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:26" ht="12.75">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -13496,7 +13497,7 @@
       <c r="Y530" s="5"/>
       <c r="Z530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:26" ht="12.75">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -13519,7 +13520,7 @@
       <c r="Y531" s="5"/>
       <c r="Z531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:26" ht="12.75">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -13542,7 +13543,7 @@
       <c r="Y532" s="5"/>
       <c r="Z532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:26" ht="12.75">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -13565,7 +13566,7 @@
       <c r="Y533" s="5"/>
       <c r="Z533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:26" ht="12.75">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -13588,7 +13589,7 @@
       <c r="Y534" s="5"/>
       <c r="Z534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:26" ht="12.75">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -13611,7 +13612,7 @@
       <c r="Y535" s="5"/>
       <c r="Z535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:26" ht="12.75">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -13634,7 +13635,7 @@
       <c r="Y536" s="5"/>
       <c r="Z536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:26" ht="12.75">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -13657,7 +13658,7 @@
       <c r="Y537" s="5"/>
       <c r="Z537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:26" ht="12.75">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -13680,7 +13681,7 @@
       <c r="Y538" s="5"/>
       <c r="Z538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:26" ht="12.75">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -13703,7 +13704,7 @@
       <c r="Y539" s="5"/>
       <c r="Z539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:26" ht="12.75">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -13726,7 +13727,7 @@
       <c r="Y540" s="5"/>
       <c r="Z540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:26" ht="12.75">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -13749,7 +13750,7 @@
       <c r="Y541" s="5"/>
       <c r="Z541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:26" ht="12.75">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -13772,7 +13773,7 @@
       <c r="Y542" s="5"/>
       <c r="Z542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:26" ht="12.75">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -13795,7 +13796,7 @@
       <c r="Y543" s="5"/>
       <c r="Z543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:26" ht="12.75">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -13818,7 +13819,7 @@
       <c r="Y544" s="5"/>
       <c r="Z544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:26" ht="12.75">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -13841,7 +13842,7 @@
       <c r="Y545" s="5"/>
       <c r="Z545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:26" ht="12.75">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -13864,7 +13865,7 @@
       <c r="Y546" s="5"/>
       <c r="Z546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:26" ht="12.75">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -13887,7 +13888,7 @@
       <c r="Y547" s="5"/>
       <c r="Z547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:26" ht="12.75">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -13910,7 +13911,7 @@
       <c r="Y548" s="5"/>
       <c r="Z548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:26" ht="12.75">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -13933,7 +13934,7 @@
       <c r="Y549" s="5"/>
       <c r="Z549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:26" ht="12.75">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -13956,7 +13957,7 @@
       <c r="Y550" s="5"/>
       <c r="Z550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:26" ht="12.75">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -13979,7 +13980,7 @@
       <c r="Y551" s="5"/>
       <c r="Z551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:26" ht="12.75">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -14002,7 +14003,7 @@
       <c r="Y552" s="5"/>
       <c r="Z552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:26" ht="12.75">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -14025,7 +14026,7 @@
       <c r="Y553" s="5"/>
       <c r="Z553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:26" ht="12.75">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -14048,7 +14049,7 @@
       <c r="Y554" s="5"/>
       <c r="Z554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:26" ht="12.75">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -14071,7 +14072,7 @@
       <c r="Y555" s="5"/>
       <c r="Z555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:26" ht="12.75">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -14094,7 +14095,7 @@
       <c r="Y556" s="5"/>
       <c r="Z556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:26" ht="12.75">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -14117,7 +14118,7 @@
       <c r="Y557" s="5"/>
       <c r="Z557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:26" ht="12.75">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -14140,7 +14141,7 @@
       <c r="Y558" s="5"/>
       <c r="Z558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:26" ht="12.75">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -14163,7 +14164,7 @@
       <c r="Y559" s="5"/>
       <c r="Z559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:26" ht="12.75">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -14186,7 +14187,7 @@
       <c r="Y560" s="5"/>
       <c r="Z560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:26" ht="12.75">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -14209,7 +14210,7 @@
       <c r="Y561" s="5"/>
       <c r="Z561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:26" ht="12.75">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -14232,7 +14233,7 @@
       <c r="Y562" s="5"/>
       <c r="Z562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:26" ht="12.75">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -14255,7 +14256,7 @@
       <c r="Y563" s="5"/>
       <c r="Z563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:26" ht="12.75">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -14278,7 +14279,7 @@
       <c r="Y564" s="5"/>
       <c r="Z564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:26" ht="12.75">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -14301,7 +14302,7 @@
       <c r="Y565" s="5"/>
       <c r="Z565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:26" ht="12.75">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -14324,7 +14325,7 @@
       <c r="Y566" s="5"/>
       <c r="Z566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:26" ht="12.75">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -14347,7 +14348,7 @@
       <c r="Y567" s="5"/>
       <c r="Z567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:26" ht="12.75">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -14370,7 +14371,7 @@
       <c r="Y568" s="5"/>
       <c r="Z568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:26" ht="12.75">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -14393,7 +14394,7 @@
       <c r="Y569" s="5"/>
       <c r="Z569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:26" ht="12.75">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -14416,7 +14417,7 @@
       <c r="Y570" s="5"/>
       <c r="Z570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:26" ht="12.75">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -14439,7 +14440,7 @@
       <c r="Y571" s="5"/>
       <c r="Z571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:26" ht="12.75">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -14462,7 +14463,7 @@
       <c r="Y572" s="5"/>
       <c r="Z572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:26" ht="12.75">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -14485,7 +14486,7 @@
       <c r="Y573" s="5"/>
       <c r="Z573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:26" ht="12.75">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -14508,7 +14509,7 @@
       <c r="Y574" s="5"/>
       <c r="Z574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:26" ht="12.75">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -14531,7 +14532,7 @@
       <c r="Y575" s="5"/>
       <c r="Z575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:26" ht="12.75">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -14554,7 +14555,7 @@
       <c r="Y576" s="5"/>
       <c r="Z576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:26" ht="12.75">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -14577,7 +14578,7 @@
       <c r="Y577" s="5"/>
       <c r="Z577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:26" ht="12.75">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -14600,7 +14601,7 @@
       <c r="Y578" s="5"/>
       <c r="Z578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:26" ht="12.75">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -14623,7 +14624,7 @@
       <c r="Y579" s="5"/>
       <c r="Z579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:26" ht="12.75">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -14646,7 +14647,7 @@
       <c r="Y580" s="5"/>
       <c r="Z580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:26" ht="12.75">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -14669,7 +14670,7 @@
       <c r="Y581" s="5"/>
       <c r="Z581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:26" ht="12.75">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -14692,7 +14693,7 @@
       <c r="Y582" s="5"/>
       <c r="Z582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:26" ht="12.75">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -14715,7 +14716,7 @@
       <c r="Y583" s="5"/>
       <c r="Z583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:26" ht="12.75">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -14738,7 +14739,7 @@
       <c r="Y584" s="5"/>
       <c r="Z584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:26" ht="12.75">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -14761,7 +14762,7 @@
       <c r="Y585" s="5"/>
       <c r="Z585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:26" ht="12.75">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -14784,7 +14785,7 @@
       <c r="Y586" s="5"/>
       <c r="Z586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:26" ht="12.75">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -14807,7 +14808,7 @@
       <c r="Y587" s="5"/>
       <c r="Z587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:26" ht="12.75">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -14830,7 +14831,7 @@
       <c r="Y588" s="5"/>
       <c r="Z588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:26" ht="12.75">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -14853,7 +14854,7 @@
       <c r="Y589" s="5"/>
       <c r="Z589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:26" ht="12.75">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -14876,7 +14877,7 @@
       <c r="Y590" s="5"/>
       <c r="Z590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:26" ht="12.75">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -14899,7 +14900,7 @@
       <c r="Y591" s="5"/>
       <c r="Z591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:26" ht="12.75">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -14922,7 +14923,7 @@
       <c r="Y592" s="5"/>
       <c r="Z592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:26" ht="12.75">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -14945,7 +14946,7 @@
       <c r="Y593" s="5"/>
       <c r="Z593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:26" ht="12.75">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -14968,7 +14969,7 @@
       <c r="Y594" s="5"/>
       <c r="Z594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:26" ht="12.75">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -14991,7 +14992,7 @@
       <c r="Y595" s="5"/>
       <c r="Z595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:26" ht="12.75">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -15014,7 +15015,7 @@
       <c r="Y596" s="5"/>
       <c r="Z596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:26" ht="12.75">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -15037,7 +15038,7 @@
       <c r="Y597" s="5"/>
       <c r="Z597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:26" ht="12.75">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -15060,7 +15061,7 @@
       <c r="Y598" s="5"/>
       <c r="Z598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:26" ht="12.75">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -15083,7 +15084,7 @@
       <c r="Y599" s="5"/>
       <c r="Z599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:26" ht="12.75">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -15106,7 +15107,7 @@
       <c r="Y600" s="5"/>
       <c r="Z600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:26" ht="12.75">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -15129,7 +15130,7 @@
       <c r="Y601" s="5"/>
       <c r="Z601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:26" ht="12.75">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -15152,7 +15153,7 @@
       <c r="Y602" s="5"/>
       <c r="Z602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:26" ht="12.75">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -15175,7 +15176,7 @@
       <c r="Y603" s="5"/>
       <c r="Z603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:26" ht="12.75">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -15198,7 +15199,7 @@
       <c r="Y604" s="5"/>
       <c r="Z604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:26" ht="12.75">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -15221,7 +15222,7 @@
       <c r="Y605" s="5"/>
       <c r="Z605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:26" ht="12.75">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -15244,7 +15245,7 @@
       <c r="Y606" s="5"/>
       <c r="Z606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:26" ht="12.75">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -15267,7 +15268,7 @@
       <c r="Y607" s="5"/>
       <c r="Z607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:26" ht="12.75">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -15290,7 +15291,7 @@
       <c r="Y608" s="5"/>
       <c r="Z608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:26" ht="12.75">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -15313,7 +15314,7 @@
       <c r="Y609" s="5"/>
       <c r="Z609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:26" ht="12.75">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -15336,7 +15337,7 @@
       <c r="Y610" s="5"/>
       <c r="Z610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:26" ht="12.75">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -15359,7 +15360,7 @@
       <c r="Y611" s="5"/>
       <c r="Z611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:26" ht="12.75">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -15382,7 +15383,7 @@
       <c r="Y612" s="5"/>
       <c r="Z612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:26" ht="12.75">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -15405,7 +15406,7 @@
       <c r="Y613" s="5"/>
       <c r="Z613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:26" ht="12.75">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -15428,7 +15429,7 @@
       <c r="Y614" s="5"/>
       <c r="Z614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:26" ht="12.75">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -15451,7 +15452,7 @@
       <c r="Y615" s="5"/>
       <c r="Z615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:26" ht="12.75">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -15474,7 +15475,7 @@
       <c r="Y616" s="5"/>
       <c r="Z616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:26" ht="12.75">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -15497,7 +15498,7 @@
       <c r="Y617" s="5"/>
       <c r="Z617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:26" ht="12.75">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -15520,7 +15521,7 @@
       <c r="Y618" s="5"/>
       <c r="Z618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:26" ht="12.75">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -15543,7 +15544,7 @@
       <c r="Y619" s="5"/>
       <c r="Z619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:26" ht="12.75">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -15566,7 +15567,7 @@
       <c r="Y620" s="5"/>
       <c r="Z620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:26" ht="12.75">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -15589,7 +15590,7 @@
       <c r="Y621" s="5"/>
       <c r="Z621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:26" ht="12.75">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -15612,7 +15613,7 @@
       <c r="Y622" s="5"/>
       <c r="Z622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:26" ht="12.75">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -15635,7 +15636,7 @@
       <c r="Y623" s="5"/>
       <c r="Z623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:26" ht="12.75">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -15658,7 +15659,7 @@
       <c r="Y624" s="5"/>
       <c r="Z624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:26" ht="12.75">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -15681,7 +15682,7 @@
       <c r="Y625" s="5"/>
       <c r="Z625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:26" ht="12.75">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -15704,7 +15705,7 @@
       <c r="Y626" s="5"/>
       <c r="Z626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:26" ht="12.75">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -15727,7 +15728,7 @@
       <c r="Y627" s="5"/>
       <c r="Z627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:26" ht="12.75">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -15750,7 +15751,7 @@
       <c r="Y628" s="5"/>
       <c r="Z628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:26" ht="12.75">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -15773,7 +15774,7 @@
       <c r="Y629" s="5"/>
       <c r="Z629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:26" ht="12.75">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -15796,7 +15797,7 @@
       <c r="Y630" s="5"/>
       <c r="Z630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:26" ht="12.75">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -15819,7 +15820,7 @@
       <c r="Y631" s="5"/>
       <c r="Z631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:26" ht="12.75">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -15842,7 +15843,7 @@
       <c r="Y632" s="5"/>
       <c r="Z632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:26" ht="12.75">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -15865,7 +15866,7 @@
       <c r="Y633" s="5"/>
       <c r="Z633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:26" ht="12.75">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -15888,7 +15889,7 @@
       <c r="Y634" s="5"/>
       <c r="Z634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:26" ht="12.75">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -15911,7 +15912,7 @@
       <c r="Y635" s="5"/>
       <c r="Z635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:26" ht="12.75">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -15934,7 +15935,7 @@
       <c r="Y636" s="5"/>
       <c r="Z636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:26" ht="12.75">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -15957,7 +15958,7 @@
       <c r="Y637" s="5"/>
       <c r="Z637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:26" ht="12.75">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -15980,7 +15981,7 @@
       <c r="Y638" s="5"/>
       <c r="Z638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:26" ht="12.75">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -16003,7 +16004,7 @@
       <c r="Y639" s="5"/>
       <c r="Z639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:26" ht="12.75">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -16026,7 +16027,7 @@
       <c r="Y640" s="5"/>
       <c r="Z640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:26" ht="12.75">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -16049,7 +16050,7 @@
       <c r="Y641" s="5"/>
       <c r="Z641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:26" ht="12.75">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -16072,7 +16073,7 @@
       <c r="Y642" s="5"/>
       <c r="Z642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:26" ht="12.75">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -16095,7 +16096,7 @@
       <c r="Y643" s="5"/>
       <c r="Z643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:26" ht="12.75">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -16118,7 +16119,7 @@
       <c r="Y644" s="5"/>
       <c r="Z644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:26" ht="12.75">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -16141,7 +16142,7 @@
       <c r="Y645" s="5"/>
       <c r="Z645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:26" ht="12.75">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -16164,7 +16165,7 @@
       <c r="Y646" s="5"/>
       <c r="Z646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:26" ht="12.75">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -16187,7 +16188,7 @@
       <c r="Y647" s="5"/>
       <c r="Z647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:26" ht="12.75">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -16210,7 +16211,7 @@
       <c r="Y648" s="5"/>
       <c r="Z648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:26" ht="12.75">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -16233,7 +16234,7 @@
       <c r="Y649" s="5"/>
       <c r="Z649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:26" ht="12.75">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -16256,7 +16257,7 @@
       <c r="Y650" s="5"/>
       <c r="Z650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:26" ht="12.75">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -16279,7 +16280,7 @@
       <c r="Y651" s="5"/>
       <c r="Z651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:26" ht="12.75">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -16302,7 +16303,7 @@
       <c r="Y652" s="5"/>
       <c r="Z652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:26" ht="12.75">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -16325,7 +16326,7 @@
       <c r="Y653" s="5"/>
       <c r="Z653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:26" ht="12.75">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -16348,7 +16349,7 @@
       <c r="Y654" s="5"/>
       <c r="Z654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:26" ht="12.75">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -16371,7 +16372,7 @@
       <c r="Y655" s="5"/>
       <c r="Z655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:26" ht="12.75">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -16394,7 +16395,7 @@
       <c r="Y656" s="5"/>
       <c r="Z656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:26" ht="12.75">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -16417,7 +16418,7 @@
       <c r="Y657" s="5"/>
       <c r="Z657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:26" ht="12.75">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -16440,7 +16441,7 @@
       <c r="Y658" s="5"/>
       <c r="Z658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:26" ht="12.75">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -16463,7 +16464,7 @@
       <c r="Y659" s="5"/>
       <c r="Z659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:26" ht="12.75">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -16486,7 +16487,7 @@
       <c r="Y660" s="5"/>
       <c r="Z660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:26" ht="12.75">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -16509,7 +16510,7 @@
       <c r="Y661" s="5"/>
       <c r="Z661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:26" ht="12.75">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -16532,7 +16533,7 @@
       <c r="Y662" s="5"/>
       <c r="Z662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:26" ht="12.75">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -16555,7 +16556,7 @@
       <c r="Y663" s="5"/>
       <c r="Z663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:26" ht="12.75">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -16578,7 +16579,7 @@
       <c r="Y664" s="5"/>
       <c r="Z664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:26" ht="12.75">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -16601,7 +16602,7 @@
       <c r="Y665" s="5"/>
       <c r="Z665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:26" ht="12.75">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -16624,7 +16625,7 @@
       <c r="Y666" s="5"/>
       <c r="Z666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:26" ht="12.75">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -16647,7 +16648,7 @@
       <c r="Y667" s="5"/>
       <c r="Z667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:26" ht="12.75">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -16670,7 +16671,7 @@
       <c r="Y668" s="5"/>
       <c r="Z668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:26" ht="12.75">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -16693,7 +16694,7 @@
       <c r="Y669" s="5"/>
       <c r="Z669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:26" ht="12.75">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -16716,7 +16717,7 @@
       <c r="Y670" s="5"/>
       <c r="Z670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:26" ht="12.75">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -16739,7 +16740,7 @@
       <c r="Y671" s="5"/>
       <c r="Z671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:26" ht="12.75">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -16762,7 +16763,7 @@
       <c r="Y672" s="5"/>
       <c r="Z672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:26" ht="12.75">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -16785,7 +16786,7 @@
       <c r="Y673" s="5"/>
       <c r="Z673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:26" ht="12.75">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -16808,7 +16809,7 @@
       <c r="Y674" s="5"/>
       <c r="Z674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:26" ht="12.75">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -16831,7 +16832,7 @@
       <c r="Y675" s="5"/>
       <c r="Z675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:26" ht="12.75">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -16854,7 +16855,7 @@
       <c r="Y676" s="5"/>
       <c r="Z676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:26" ht="12.75">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -16877,7 +16878,7 @@
       <c r="Y677" s="5"/>
       <c r="Z677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:26" ht="12.75">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -16900,7 +16901,7 @@
       <c r="Y678" s="5"/>
       <c r="Z678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:26" ht="12.75">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -16923,7 +16924,7 @@
       <c r="Y679" s="5"/>
       <c r="Z679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:26" ht="12.75">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -16946,7 +16947,7 @@
       <c r="Y680" s="5"/>
       <c r="Z680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:26" ht="12.75">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -16969,7 +16970,7 @@
       <c r="Y681" s="5"/>
       <c r="Z681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:26" ht="12.75">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -16992,7 +16993,7 @@
       <c r="Y682" s="5"/>
       <c r="Z682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:26" ht="12.75">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -17015,7 +17016,7 @@
       <c r="Y683" s="5"/>
       <c r="Z683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:26" ht="12.75">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -17038,7 +17039,7 @@
       <c r="Y684" s="5"/>
       <c r="Z684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:26" ht="12.75">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -17061,7 +17062,7 @@
       <c r="Y685" s="5"/>
       <c r="Z685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:26" ht="12.75">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -17084,7 +17085,7 @@
       <c r="Y686" s="5"/>
       <c r="Z686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:26" ht="12.75">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -17107,7 +17108,7 @@
       <c r="Y687" s="5"/>
       <c r="Z687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:26" ht="12.75">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -17130,7 +17131,7 @@
       <c r="Y688" s="5"/>
       <c r="Z688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:26" ht="12.75">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -17153,7 +17154,7 @@
       <c r="Y689" s="5"/>
       <c r="Z689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:26" ht="12.75">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -17176,7 +17177,7 @@
       <c r="Y690" s="5"/>
       <c r="Z690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:26" ht="12.75">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -17199,7 +17200,7 @@
       <c r="Y691" s="5"/>
       <c r="Z691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:26" ht="12.75">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -17222,7 +17223,7 @@
       <c r="Y692" s="5"/>
       <c r="Z692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:26" ht="12.75">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -17245,7 +17246,7 @@
       <c r="Y693" s="5"/>
       <c r="Z693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:26" ht="12.75">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -17268,7 +17269,7 @@
       <c r="Y694" s="5"/>
       <c r="Z694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:26" ht="12.75">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -17291,7 +17292,7 @@
       <c r="Y695" s="5"/>
       <c r="Z695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:26" ht="12.75">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -17314,7 +17315,7 @@
       <c r="Y696" s="5"/>
       <c r="Z696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:26" ht="12.75">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -17337,7 +17338,7 @@
       <c r="Y697" s="5"/>
       <c r="Z697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:26" ht="12.75">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -17360,7 +17361,7 @@
       <c r="Y698" s="5"/>
       <c r="Z698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:26" ht="12.75">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -17383,7 +17384,7 @@
       <c r="Y699" s="5"/>
       <c r="Z699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:26" ht="12.75">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -17406,7 +17407,7 @@
       <c r="Y700" s="5"/>
       <c r="Z700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:26" ht="12.75">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -17429,7 +17430,7 @@
       <c r="Y701" s="5"/>
       <c r="Z701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:26" ht="12.75">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -17452,7 +17453,7 @@
       <c r="Y702" s="5"/>
       <c r="Z702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:26" ht="12.75">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -17475,7 +17476,7 @@
       <c r="Y703" s="5"/>
       <c r="Z703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:26" ht="12.75">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -17498,7 +17499,7 @@
       <c r="Y704" s="5"/>
       <c r="Z704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:26" ht="12.75">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -17521,7 +17522,7 @@
       <c r="Y705" s="5"/>
       <c r="Z705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:26" ht="12.75">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -17544,7 +17545,7 @@
       <c r="Y706" s="5"/>
       <c r="Z706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:26" ht="12.75">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -17567,7 +17568,7 @@
       <c r="Y707" s="5"/>
       <c r="Z707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:26" ht="12.75">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -17590,7 +17591,7 @@
       <c r="Y708" s="5"/>
       <c r="Z708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:26" ht="12.75">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -17613,7 +17614,7 @@
       <c r="Y709" s="5"/>
       <c r="Z709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:26" ht="12.75">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -17636,7 +17637,7 @@
       <c r="Y710" s="5"/>
       <c r="Z710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:26" ht="12.75">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -17659,7 +17660,7 @@
       <c r="Y711" s="5"/>
       <c r="Z711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:26" ht="12.75">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -17682,7 +17683,7 @@
       <c r="Y712" s="5"/>
       <c r="Z712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:26" ht="12.75">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -17705,7 +17706,7 @@
       <c r="Y713" s="5"/>
       <c r="Z713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:26" ht="12.75">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -17728,7 +17729,7 @@
       <c r="Y714" s="5"/>
       <c r="Z714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:26" ht="12.75">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -17751,7 +17752,7 @@
       <c r="Y715" s="5"/>
       <c r="Z715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:26" ht="12.75">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -17774,7 +17775,7 @@
       <c r="Y716" s="5"/>
       <c r="Z716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:26" ht="12.75">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -17797,7 +17798,7 @@
       <c r="Y717" s="5"/>
       <c r="Z717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:26" ht="12.75">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -17820,7 +17821,7 @@
       <c r="Y718" s="5"/>
       <c r="Z718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:26" ht="12.75">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -17843,7 +17844,7 @@
       <c r="Y719" s="5"/>
       <c r="Z719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:26" ht="12.75">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -17866,7 +17867,7 @@
       <c r="Y720" s="5"/>
       <c r="Z720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:26" ht="12.75">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -17889,7 +17890,7 @@
       <c r="Y721" s="5"/>
       <c r="Z721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:26" ht="12.75">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -17912,7 +17913,7 @@
       <c r="Y722" s="5"/>
       <c r="Z722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:26" ht="12.75">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -17935,7 +17936,7 @@
       <c r="Y723" s="5"/>
       <c r="Z723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:26" ht="12.75">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -17958,7 +17959,7 @@
       <c r="Y724" s="5"/>
       <c r="Z724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:26" ht="12.75">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -17981,7 +17982,7 @@
       <c r="Y725" s="5"/>
       <c r="Z725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:26" ht="12.75">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -18004,7 +18005,7 @@
       <c r="Y726" s="5"/>
       <c r="Z726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:26" ht="12.75">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -18027,7 +18028,7 @@
       <c r="Y727" s="5"/>
       <c r="Z727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:26" ht="12.75">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -18050,7 +18051,7 @@
       <c r="Y728" s="5"/>
       <c r="Z728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:26" ht="12.75">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -18073,7 +18074,7 @@
       <c r="Y729" s="5"/>
       <c r="Z729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:26" ht="12.75">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -18096,7 +18097,7 @@
       <c r="Y730" s="5"/>
       <c r="Z730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:26" ht="12.75">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -18119,7 +18120,7 @@
       <c r="Y731" s="5"/>
       <c r="Z731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:26" ht="12.75">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -18142,7 +18143,7 @@
       <c r="Y732" s="5"/>
       <c r="Z732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:26" ht="12.75">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -18165,7 +18166,7 @@
       <c r="Y733" s="5"/>
       <c r="Z733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:26" ht="12.75">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -18188,7 +18189,7 @@
       <c r="Y734" s="5"/>
       <c r="Z734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:26" ht="12.75">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -18211,7 +18212,7 @@
       <c r="Y735" s="5"/>
       <c r="Z735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:26" ht="12.75">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -18234,7 +18235,7 @@
       <c r="Y736" s="5"/>
       <c r="Z736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:26" ht="12.75">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -18257,7 +18258,7 @@
       <c r="Y737" s="5"/>
       <c r="Z737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:26" ht="12.75">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -18280,7 +18281,7 @@
       <c r="Y738" s="5"/>
       <c r="Z738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:26" ht="12.75">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -18303,7 +18304,7 @@
       <c r="Y739" s="5"/>
       <c r="Z739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:26" ht="12.75">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -18326,7 +18327,7 @@
       <c r="Y740" s="5"/>
       <c r="Z740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:26" ht="12.75">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -18349,7 +18350,7 @@
       <c r="Y741" s="5"/>
       <c r="Z741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:26" ht="12.75">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -18372,7 +18373,7 @@
       <c r="Y742" s="5"/>
       <c r="Z742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:26" ht="12.75">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -18395,7 +18396,7 @@
       <c r="Y743" s="5"/>
       <c r="Z743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:26" ht="12.75">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -18418,7 +18419,7 @@
       <c r="Y744" s="5"/>
       <c r="Z744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:26" ht="12.75">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -18441,7 +18442,7 @@
       <c r="Y745" s="5"/>
       <c r="Z745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:26" ht="12.75">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -18464,7 +18465,7 @@
       <c r="Y746" s="5"/>
       <c r="Z746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:26" ht="12.75">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -18487,7 +18488,7 @@
       <c r="Y747" s="5"/>
       <c r="Z747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:26" ht="12.75">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -18510,7 +18511,7 @@
       <c r="Y748" s="5"/>
       <c r="Z748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:26" ht="12.75">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -18533,7 +18534,7 @@
       <c r="Y749" s="5"/>
       <c r="Z749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:26" ht="12.75">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -18556,7 +18557,7 @@
       <c r="Y750" s="5"/>
       <c r="Z750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:26" ht="12.75">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -18579,7 +18580,7 @@
       <c r="Y751" s="5"/>
       <c r="Z751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:26" ht="12.75">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -18602,7 +18603,7 @@
       <c r="Y752" s="5"/>
       <c r="Z752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:26" ht="12.75">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -18625,7 +18626,7 @@
       <c r="Y753" s="5"/>
       <c r="Z753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:26" ht="12.75">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -18648,7 +18649,7 @@
       <c r="Y754" s="5"/>
       <c r="Z754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:26" ht="12.75">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -18671,7 +18672,7 @@
       <c r="Y755" s="5"/>
       <c r="Z755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:26" ht="12.75">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -18694,7 +18695,7 @@
       <c r="Y756" s="5"/>
       <c r="Z756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:26" ht="12.75">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -18717,7 +18718,7 @@
       <c r="Y757" s="5"/>
       <c r="Z757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:26" ht="12.75">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -18740,7 +18741,7 @@
       <c r="Y758" s="5"/>
       <c r="Z758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:26" ht="12.75">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -18763,7 +18764,7 @@
       <c r="Y759" s="5"/>
       <c r="Z759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:26" ht="12.75">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -18786,7 +18787,7 @@
       <c r="Y760" s="5"/>
       <c r="Z760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:26" ht="12.75">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -18809,7 +18810,7 @@
       <c r="Y761" s="5"/>
       <c r="Z761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:26" ht="12.75">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -18832,7 +18833,7 @@
       <c r="Y762" s="5"/>
       <c r="Z762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:26" ht="12.75">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -18855,7 +18856,7 @@
       <c r="Y763" s="5"/>
       <c r="Z763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:26" ht="12.75">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -18878,7 +18879,7 @@
       <c r="Y764" s="5"/>
       <c r="Z764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:26" ht="12.75">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -18901,7 +18902,7 @@
       <c r="Y765" s="5"/>
       <c r="Z765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:26" ht="12.75">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -18924,7 +18925,7 @@
       <c r="Y766" s="5"/>
       <c r="Z766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:26" ht="12.75">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -18947,7 +18948,7 @@
       <c r="Y767" s="5"/>
       <c r="Z767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:26" ht="12.75">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -18970,7 +18971,7 @@
       <c r="Y768" s="5"/>
       <c r="Z768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:26" ht="12.75">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -18993,7 +18994,7 @@
       <c r="Y769" s="5"/>
       <c r="Z769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:26" ht="12.75">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -19016,7 +19017,7 @@
       <c r="Y770" s="5"/>
       <c r="Z770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:26" ht="12.75">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -19039,7 +19040,7 @@
       <c r="Y771" s="5"/>
       <c r="Z771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:26" ht="12.75">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -19062,7 +19063,7 @@
       <c r="Y772" s="5"/>
       <c r="Z772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:26" ht="12.75">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -19085,7 +19086,7 @@
       <c r="Y773" s="5"/>
       <c r="Z773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:26" ht="12.75">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -19108,7 +19109,7 @@
       <c r="Y774" s="5"/>
       <c r="Z774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:26" ht="12.75">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -19131,7 +19132,7 @@
       <c r="Y775" s="5"/>
       <c r="Z775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:26" ht="12.75">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -19154,7 +19155,7 @@
       <c r="Y776" s="5"/>
       <c r="Z776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:26" ht="12.75">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -19177,7 +19178,7 @@
       <c r="Y777" s="5"/>
       <c r="Z777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:26" ht="12.75">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -19200,7 +19201,7 @@
       <c r="Y778" s="5"/>
       <c r="Z778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:26" ht="12.75">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -19223,7 +19224,7 @@
       <c r="Y779" s="5"/>
       <c r="Z779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:26" ht="12.75">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -19246,7 +19247,7 @@
       <c r="Y780" s="5"/>
       <c r="Z780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:26" ht="12.75">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -19269,7 +19270,7 @@
       <c r="Y781" s="5"/>
       <c r="Z781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:26" ht="12.75">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -19292,7 +19293,7 @@
       <c r="Y782" s="5"/>
       <c r="Z782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:26" ht="12.75">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -19315,7 +19316,7 @@
       <c r="Y783" s="5"/>
       <c r="Z783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:26" ht="12.75">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -19338,7 +19339,7 @@
       <c r="Y784" s="5"/>
       <c r="Z784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:26" ht="12.75">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -19361,7 +19362,7 @@
       <c r="Y785" s="5"/>
       <c r="Z785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:26" ht="12.75">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -19384,7 +19385,7 @@
       <c r="Y786" s="5"/>
       <c r="Z786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:26" ht="12.75">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -19407,7 +19408,7 @@
       <c r="Y787" s="5"/>
       <c r="Z787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:26" ht="12.75">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -19430,7 +19431,7 @@
       <c r="Y788" s="5"/>
       <c r="Z788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:26" ht="12.75">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -19453,7 +19454,7 @@
       <c r="Y789" s="5"/>
       <c r="Z789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:26" ht="12.75">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -19476,7 +19477,7 @@
       <c r="Y790" s="5"/>
       <c r="Z790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:26" ht="12.75">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -19499,7 +19500,7 @@
       <c r="Y791" s="5"/>
       <c r="Z791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:26" ht="12.75">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -19522,7 +19523,7 @@
       <c r="Y792" s="5"/>
       <c r="Z792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:26" ht="12.75">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -19545,7 +19546,7 @@
       <c r="Y793" s="5"/>
       <c r="Z793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:26" ht="12.75">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -19568,7 +19569,7 @@
       <c r="Y794" s="5"/>
       <c r="Z794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:26" ht="12.75">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -19591,7 +19592,7 @@
       <c r="Y795" s="5"/>
       <c r="Z795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:26" ht="12.75">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -19614,7 +19615,7 @@
       <c r="Y796" s="5"/>
       <c r="Z796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:26" ht="12.75">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -19637,7 +19638,7 @@
       <c r="Y797" s="5"/>
       <c r="Z797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:26" ht="12.75">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -19660,7 +19661,7 @@
       <c r="Y798" s="5"/>
       <c r="Z798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:26" ht="12.75">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -19683,7 +19684,7 @@
       <c r="Y799" s="5"/>
       <c r="Z799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:26" ht="12.75">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -19706,7 +19707,7 @@
       <c r="Y800" s="5"/>
       <c r="Z800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:26" ht="12.75">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -19729,7 +19730,7 @@
       <c r="Y801" s="5"/>
       <c r="Z801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:26" ht="12.75">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -19752,7 +19753,7 @@
       <c r="Y802" s="5"/>
       <c r="Z802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:26" ht="12.75">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -19775,7 +19776,7 @@
       <c r="Y803" s="5"/>
       <c r="Z803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:26" ht="12.75">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -19798,7 +19799,7 @@
       <c r="Y804" s="5"/>
       <c r="Z804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:26" ht="12.75">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -19821,7 +19822,7 @@
       <c r="Y805" s="5"/>
       <c r="Z805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:26" ht="12.75">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -19844,7 +19845,7 @@
       <c r="Y806" s="5"/>
       <c r="Z806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:26" ht="12.75">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -19867,7 +19868,7 @@
       <c r="Y807" s="5"/>
       <c r="Z807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:26" ht="12.75">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -19890,7 +19891,7 @@
       <c r="Y808" s="5"/>
       <c r="Z808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:26" ht="12.75">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -19913,7 +19914,7 @@
       <c r="Y809" s="5"/>
       <c r="Z809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:26" ht="12.75">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -19936,7 +19937,7 @@
       <c r="Y810" s="5"/>
       <c r="Z810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:26" ht="12.75">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -19959,7 +19960,7 @@
       <c r="Y811" s="5"/>
       <c r="Z811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:26" ht="12.75">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -19982,7 +19983,7 @@
       <c r="Y812" s="5"/>
       <c r="Z812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:26" ht="12.75">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -20005,7 +20006,7 @@
       <c r="Y813" s="5"/>
       <c r="Z813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:26" ht="12.75">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -20028,7 +20029,7 @@
       <c r="Y814" s="5"/>
       <c r="Z814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:26" ht="12.75">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -20051,7 +20052,7 @@
       <c r="Y815" s="5"/>
       <c r="Z815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:26" ht="12.75">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -20074,7 +20075,7 @@
       <c r="Y816" s="5"/>
       <c r="Z816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:26" ht="12.75">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -20097,7 +20098,7 @@
       <c r="Y817" s="5"/>
       <c r="Z817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:26" ht="12.75">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -20120,7 +20121,7 @@
       <c r="Y818" s="5"/>
       <c r="Z818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:26" ht="12.75">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -20143,7 +20144,7 @@
       <c r="Y819" s="5"/>
       <c r="Z819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:26" ht="12.75">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -20166,7 +20167,7 @@
       <c r="Y820" s="5"/>
       <c r="Z820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:26" ht="12.75">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -20189,7 +20190,7 @@
       <c r="Y821" s="5"/>
       <c r="Z821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:26" ht="12.75">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -20212,7 +20213,7 @@
       <c r="Y822" s="5"/>
       <c r="Z822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:26" ht="12.75">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -20235,7 +20236,7 @@
       <c r="Y823" s="5"/>
       <c r="Z823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:26" ht="12.75">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -20258,7 +20259,7 @@
       <c r="Y824" s="5"/>
       <c r="Z824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:26" ht="12.75">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -20281,7 +20282,7 @@
       <c r="Y825" s="5"/>
       <c r="Z825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:26" ht="12.75">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -20304,7 +20305,7 @@
       <c r="Y826" s="5"/>
       <c r="Z826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:26" ht="12.75">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -20327,7 +20328,7 @@
       <c r="Y827" s="5"/>
       <c r="Z827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:26" ht="12.75">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -20350,7 +20351,7 @@
       <c r="Y828" s="5"/>
       <c r="Z828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:26" ht="12.75">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -20373,7 +20374,7 @@
       <c r="Y829" s="5"/>
       <c r="Z829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:26" ht="12.75">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -20396,7 +20397,7 @@
       <c r="Y830" s="5"/>
       <c r="Z830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:26" ht="12.75">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -20419,7 +20420,7 @@
       <c r="Y831" s="5"/>
       <c r="Z831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:26" ht="12.75">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -20442,7 +20443,7 @@
       <c r="Y832" s="5"/>
       <c r="Z832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:26" ht="12.75">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -20465,7 +20466,7 @@
       <c r="Y833" s="5"/>
       <c r="Z833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:26" ht="12.75">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -20488,7 +20489,7 @@
       <c r="Y834" s="5"/>
       <c r="Z834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:26" ht="12.75">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -20511,7 +20512,7 @@
       <c r="Y835" s="5"/>
       <c r="Z835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:26" ht="12.75">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -20534,7 +20535,7 @@
       <c r="Y836" s="5"/>
       <c r="Z836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:26" ht="12.75">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -20557,7 +20558,7 @@
       <c r="Y837" s="5"/>
       <c r="Z837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:26" ht="12.75">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -20580,7 +20581,7 @@
       <c r="Y838" s="5"/>
       <c r="Z838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:26" ht="12.75">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -20603,7 +20604,7 @@
       <c r="Y839" s="5"/>
       <c r="Z839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:26" ht="12.75">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -20626,7 +20627,7 @@
       <c r="Y840" s="5"/>
       <c r="Z840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:26" ht="12.75">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -20649,7 +20650,7 @@
       <c r="Y841" s="5"/>
       <c r="Z841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:26" ht="12.75">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -20672,7 +20673,7 @@
       <c r="Y842" s="5"/>
       <c r="Z842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:26" ht="12.75">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -20695,7 +20696,7 @@
       <c r="Y843" s="5"/>
       <c r="Z843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:26" ht="12.75">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -20718,7 +20719,7 @@
       <c r="Y844" s="5"/>
       <c r="Z844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:26" ht="12.75">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -20741,7 +20742,7 @@
       <c r="Y845" s="5"/>
       <c r="Z845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:26" ht="12.75">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -20764,7 +20765,7 @@
       <c r="Y846" s="5"/>
       <c r="Z846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:26" ht="12.75">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -20787,7 +20788,7 @@
       <c r="Y847" s="5"/>
       <c r="Z847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:26" ht="12.75">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -20810,7 +20811,7 @@
       <c r="Y848" s="5"/>
       <c r="Z848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:26" ht="12.75">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -20833,7 +20834,7 @@
       <c r="Y849" s="5"/>
       <c r="Z849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:26" ht="12.75">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -20856,7 +20857,7 @@
       <c r="Y850" s="5"/>
       <c r="Z850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:26" ht="12.75">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -20879,7 +20880,7 @@
       <c r="Y851" s="5"/>
       <c r="Z851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:26" ht="12.75">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -20902,7 +20903,7 @@
       <c r="Y852" s="5"/>
       <c r="Z852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:26" ht="12.75">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -20925,7 +20926,7 @@
       <c r="Y853" s="5"/>
       <c r="Z853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:26" ht="12.75">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -20948,7 +20949,7 @@
       <c r="Y854" s="5"/>
       <c r="Z854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:26" ht="12.75">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -20971,7 +20972,7 @@
       <c r="Y855" s="5"/>
       <c r="Z855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:26" ht="12.75">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -20994,7 +20995,7 @@
       <c r="Y856" s="5"/>
       <c r="Z856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:26" ht="12.75">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -21017,7 +21018,7 @@
       <c r="Y857" s="5"/>
       <c r="Z857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:26" ht="12.75">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -21040,7 +21041,7 @@
       <c r="Y858" s="5"/>
       <c r="Z858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:26" ht="12.75">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -21063,7 +21064,7 @@
       <c r="Y859" s="5"/>
       <c r="Z859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:26" ht="12.75">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -21086,7 +21087,7 @@
       <c r="Y860" s="5"/>
       <c r="Z860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:26" ht="12.75">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -21109,7 +21110,7 @@
       <c r="Y861" s="5"/>
       <c r="Z861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:26" ht="12.75">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -21132,7 +21133,7 @@
       <c r="Y862" s="5"/>
       <c r="Z862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:26" ht="12.75">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -21155,7 +21156,7 @@
       <c r="Y863" s="5"/>
       <c r="Z863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:26" ht="12.75">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -21178,7 +21179,7 @@
       <c r="Y864" s="5"/>
       <c r="Z864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:26" ht="12.75">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -21201,7 +21202,7 @@
       <c r="Y865" s="5"/>
       <c r="Z865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:26" ht="12.75">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -21224,7 +21225,7 @@
       <c r="Y866" s="5"/>
       <c r="Z866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:26" ht="12.75">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -21247,7 +21248,7 @@
       <c r="Y867" s="5"/>
       <c r="Z867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:26" ht="12.75">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -21270,7 +21271,7 @@
       <c r="Y868" s="5"/>
       <c r="Z868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:26" ht="12.75">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -21293,7 +21294,7 @@
       <c r="Y869" s="5"/>
       <c r="Z869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:26" ht="12.75">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -21316,7 +21317,7 @@
       <c r="Y870" s="5"/>
       <c r="Z870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:26" ht="12.75">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -21339,7 +21340,7 @@
       <c r="Y871" s="5"/>
       <c r="Z871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:26" ht="12.75">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -21362,7 +21363,7 @@
       <c r="Y872" s="5"/>
       <c r="Z872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:26" ht="12.75">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -21385,7 +21386,7 @@
       <c r="Y873" s="5"/>
       <c r="Z873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:26" ht="12.75">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -21408,7 +21409,7 @@
       <c r="Y874" s="5"/>
       <c r="Z874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:26" ht="12.75">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -21431,7 +21432,7 @@
       <c r="Y875" s="5"/>
       <c r="Z875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:26" ht="12.75">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -21454,7 +21455,7 @@
       <c r="Y876" s="5"/>
       <c r="Z876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:26" ht="12.75">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -21477,7 +21478,7 @@
       <c r="Y877" s="5"/>
       <c r="Z877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:26" ht="12.75">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -21500,7 +21501,7 @@
       <c r="Y878" s="5"/>
       <c r="Z878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:26" ht="12.75">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -21523,7 +21524,7 @@
       <c r="Y879" s="5"/>
       <c r="Z879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:26" ht="12.75">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -21546,7 +21547,7 @@
       <c r="Y880" s="5"/>
       <c r="Z880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:26" ht="12.75">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -21569,7 +21570,7 @@
       <c r="Y881" s="5"/>
       <c r="Z881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:26" ht="12.75">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -21592,7 +21593,7 @@
       <c r="Y882" s="5"/>
       <c r="Z882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:26" ht="12.75">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -21615,7 +21616,7 @@
       <c r="Y883" s="5"/>
       <c r="Z883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:26" ht="12.75">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -21638,7 +21639,7 @@
       <c r="Y884" s="5"/>
       <c r="Z884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:26" ht="12.75">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -21661,7 +21662,7 @@
       <c r="Y885" s="5"/>
       <c r="Z885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:26" ht="12.75">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -21684,7 +21685,7 @@
       <c r="Y886" s="5"/>
       <c r="Z886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:26" ht="12.75">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -21707,7 +21708,7 @@
       <c r="Y887" s="5"/>
       <c r="Z887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:26" ht="12.75">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -21730,7 +21731,7 @@
       <c r="Y888" s="5"/>
       <c r="Z888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:26" ht="12.75">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -21753,7 +21754,7 @@
       <c r="Y889" s="5"/>
       <c r="Z889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:26" ht="12.75">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -21776,7 +21777,7 @@
       <c r="Y890" s="5"/>
       <c r="Z890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:26" ht="12.75">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -21799,7 +21800,7 @@
       <c r="Y891" s="5"/>
       <c r="Z891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:26" ht="12.75">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -21822,7 +21823,7 @@
       <c r="Y892" s="5"/>
       <c r="Z892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:26" ht="12.75">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -21845,7 +21846,7 @@
       <c r="Y893" s="5"/>
       <c r="Z893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:26" ht="12.75">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -21868,7 +21869,7 @@
       <c r="Y894" s="5"/>
       <c r="Z894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:26" ht="12.75">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -21891,7 +21892,7 @@
       <c r="Y895" s="5"/>
       <c r="Z895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:26" ht="12.75">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -21914,7 +21915,7 @@
       <c r="Y896" s="5"/>
       <c r="Z896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:26" ht="12.75">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -21937,7 +21938,7 @@
       <c r="Y897" s="5"/>
       <c r="Z897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:26" ht="12.75">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -21960,7 +21961,7 @@
       <c r="Y898" s="5"/>
       <c r="Z898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:26" ht="12.75">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -21983,7 +21984,7 @@
       <c r="Y899" s="5"/>
       <c r="Z899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:26" ht="12.75">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -22006,7 +22007,7 @@
       <c r="Y900" s="5"/>
       <c r="Z900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:26" ht="12.75">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -22029,7 +22030,7 @@
       <c r="Y901" s="5"/>
       <c r="Z901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:26" ht="12.75">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -22052,7 +22053,7 @@
       <c r="Y902" s="5"/>
       <c r="Z902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:26" ht="12.75">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -22075,7 +22076,7 @@
       <c r="Y903" s="5"/>
       <c r="Z903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:26" ht="12.75">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -22098,7 +22099,7 @@
       <c r="Y904" s="5"/>
       <c r="Z904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:26" ht="12.75">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -22121,7 +22122,7 @@
       <c r="Y905" s="5"/>
       <c r="Z905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:26" ht="12.75">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -22144,7 +22145,7 @@
       <c r="Y906" s="5"/>
       <c r="Z906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:26" ht="12.75">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -22167,7 +22168,7 @@
       <c r="Y907" s="5"/>
       <c r="Z907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:26" ht="12.75">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -22190,7 +22191,7 @@
       <c r="Y908" s="5"/>
       <c r="Z908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:26" ht="12.75">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -22213,7 +22214,7 @@
       <c r="Y909" s="5"/>
       <c r="Z909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:26" ht="12.75">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -22236,7 +22237,7 @@
       <c r="Y910" s="5"/>
       <c r="Z910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:26" ht="12.75">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -22259,7 +22260,7 @@
       <c r="Y911" s="5"/>
       <c r="Z911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:26" ht="12.75">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -22282,7 +22283,7 @@
       <c r="Y912" s="5"/>
       <c r="Z912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:26" ht="12.75">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -22305,7 +22306,7 @@
       <c r="Y913" s="5"/>
       <c r="Z913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:26" ht="12.75">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -22328,7 +22329,7 @@
       <c r="Y914" s="5"/>
       <c r="Z914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:26" ht="12.75">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -22351,7 +22352,7 @@
       <c r="Y915" s="5"/>
       <c r="Z915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:26" ht="12.75">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -22374,7 +22375,7 @@
       <c r="Y916" s="5"/>
       <c r="Z916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:26" ht="12.75">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -22397,7 +22398,7 @@
       <c r="Y917" s="5"/>
       <c r="Z917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:26" ht="12.75">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -22420,7 +22421,7 @@
       <c r="Y918" s="5"/>
       <c r="Z918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:26" ht="12.75">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -22443,7 +22444,7 @@
       <c r="Y919" s="5"/>
       <c r="Z919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:26" ht="12.75">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -22466,7 +22467,7 @@
       <c r="Y920" s="5"/>
       <c r="Z920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:26" ht="12.75">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -22489,7 +22490,7 @@
       <c r="Y921" s="5"/>
       <c r="Z921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:26" ht="12.75">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -22512,7 +22513,7 @@
       <c r="Y922" s="5"/>
       <c r="Z922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:26" ht="12.75">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -22535,7 +22536,7 @@
       <c r="Y923" s="5"/>
       <c r="Z923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:26" ht="12.75">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -22558,7 +22559,7 @@
       <c r="Y924" s="5"/>
       <c r="Z924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:26" ht="12.75">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -22581,7 +22582,7 @@
       <c r="Y925" s="5"/>
       <c r="Z925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:26" ht="12.75">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -22604,7 +22605,7 @@
       <c r="Y926" s="5"/>
       <c r="Z926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:26" ht="12.75">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -22627,7 +22628,7 @@
       <c r="Y927" s="5"/>
       <c r="Z927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:26" ht="12.75">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -22650,7 +22651,7 @@
       <c r="Y928" s="5"/>
       <c r="Z928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:26" ht="12.75">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -22673,7 +22674,7 @@
       <c r="Y929" s="5"/>
       <c r="Z929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:26" ht="12.75">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -22696,7 +22697,7 @@
       <c r="Y930" s="5"/>
       <c r="Z930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:26" ht="12.75">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -22719,7 +22720,7 @@
       <c r="Y931" s="5"/>
       <c r="Z931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:26" ht="12.75">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -22742,7 +22743,7 @@
       <c r="Y932" s="5"/>
       <c r="Z932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:26" ht="12.75">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -22765,7 +22766,7 @@
       <c r="Y933" s="5"/>
       <c r="Z933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:26" ht="12.75">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -22788,7 +22789,7 @@
       <c r="Y934" s="5"/>
       <c r="Z934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:26" ht="12.75">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -22811,7 +22812,7 @@
       <c r="Y935" s="5"/>
       <c r="Z935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:26" ht="12.75">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -22834,7 +22835,7 @@
       <c r="Y936" s="5"/>
       <c r="Z936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:26" ht="12.75">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -22857,7 +22858,7 @@
       <c r="Y937" s="5"/>
       <c r="Z937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:26" ht="12.75">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -22880,7 +22881,7 @@
       <c r="Y938" s="5"/>
       <c r="Z938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:26" ht="12.75">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -22903,7 +22904,7 @@
       <c r="Y939" s="5"/>
       <c r="Z939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:26" ht="12.75">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -22926,7 +22927,7 @@
       <c r="Y940" s="5"/>
       <c r="Z940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:26" ht="12.75">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -22949,7 +22950,7 @@
       <c r="Y941" s="5"/>
       <c r="Z941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:26" ht="12.75">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -22972,7 +22973,7 @@
       <c r="Y942" s="5"/>
       <c r="Z942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:26" ht="12.75">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -22995,7 +22996,7 @@
       <c r="Y943" s="5"/>
       <c r="Z943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:26" ht="12.75">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -23018,7 +23019,7 @@
       <c r="Y944" s="5"/>
       <c r="Z944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:26" ht="12.75">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -23041,7 +23042,7 @@
       <c r="Y945" s="5"/>
       <c r="Z945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:26" ht="12.75">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -23064,7 +23065,7 @@
       <c r="Y946" s="5"/>
       <c r="Z946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:26" ht="12.75">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -23087,7 +23088,7 @@
       <c r="Y947" s="5"/>
       <c r="Z947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:26" ht="12.75">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -23110,7 +23111,7 @@
       <c r="Y948" s="5"/>
       <c r="Z948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:26" ht="12.75">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -23133,7 +23134,7 @@
       <c r="Y949" s="5"/>
       <c r="Z949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:26" ht="12.75">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -23156,7 +23157,7 @@
       <c r="Y950" s="5"/>
       <c r="Z950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:26" ht="12.75">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -23179,7 +23180,7 @@
       <c r="Y951" s="5"/>
       <c r="Z951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:26" ht="12.75">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -23202,7 +23203,7 @@
       <c r="Y952" s="5"/>
       <c r="Z952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:26" ht="12.75">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -23225,7 +23226,7 @@
       <c r="Y953" s="5"/>
       <c r="Z953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:26" ht="12.75">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -23248,7 +23249,7 @@
       <c r="Y954" s="5"/>
       <c r="Z954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:26" ht="12.75">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -23271,7 +23272,7 @@
       <c r="Y955" s="5"/>
       <c r="Z955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:26" ht="12.75">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -23294,7 +23295,7 @@
       <c r="Y956" s="5"/>
       <c r="Z956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:26" ht="12.75">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -23317,7 +23318,7 @@
       <c r="Y957" s="5"/>
       <c r="Z957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:26" ht="12.75">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -23340,7 +23341,7 @@
       <c r="Y958" s="5"/>
       <c r="Z958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:26" ht="12.75">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -23363,7 +23364,7 @@
       <c r="Y959" s="5"/>
       <c r="Z959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:26" ht="12.75">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -23386,7 +23387,7 @@
       <c r="Y960" s="5"/>
       <c r="Z960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:26" ht="12.75">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -23409,7 +23410,7 @@
       <c r="Y961" s="5"/>
       <c r="Z961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:26" ht="12.75">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -23432,7 +23433,7 @@
       <c r="Y962" s="5"/>
       <c r="Z962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:26" ht="12.75">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -23455,7 +23456,7 @@
       <c r="Y963" s="5"/>
       <c r="Z963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:26" ht="12.75">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -23478,7 +23479,7 @@
       <c r="Y964" s="5"/>
       <c r="Z964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:26" ht="12.75">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -23501,7 +23502,7 @@
       <c r="Y965" s="5"/>
       <c r="Z965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:26" ht="12.75">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -23524,7 +23525,7 @@
       <c r="Y966" s="5"/>
       <c r="Z966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:26" ht="12.75">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -23547,7 +23548,7 @@
       <c r="Y967" s="5"/>
       <c r="Z967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:26" ht="12.75">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -23570,7 +23571,7 @@
       <c r="Y968" s="5"/>
       <c r="Z968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:26" ht="12.75">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -23593,7 +23594,7 @@
       <c r="Y969" s="5"/>
       <c r="Z969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:26" ht="12.75">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -23616,7 +23617,7 @@
       <c r="Y970" s="5"/>
       <c r="Z970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:26" ht="12.75">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -23639,7 +23640,7 @@
       <c r="Y971" s="5"/>
       <c r="Z971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:26" ht="12.75">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -23662,7 +23663,7 @@
       <c r="Y972" s="5"/>
       <c r="Z972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:26" ht="12.75">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -23685,7 +23686,7 @@
       <c r="Y973" s="5"/>
       <c r="Z973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:26" ht="12.75">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -23708,7 +23709,7 @@
       <c r="Y974" s="5"/>
       <c r="Z974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:26" ht="12.75">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -23731,7 +23732,7 @@
       <c r="Y975" s="5"/>
       <c r="Z975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:26" ht="12.75">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -23754,7 +23755,7 @@
       <c r="Y976" s="5"/>
       <c r="Z976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:26" ht="12.75">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -23777,7 +23778,7 @@
       <c r="Y977" s="5"/>
       <c r="Z977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:26" ht="12.75">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -23800,7 +23801,7 @@
       <c r="Y978" s="5"/>
       <c r="Z978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:26" ht="12.75">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -23823,7 +23824,7 @@
       <c r="Y979" s="5"/>
       <c r="Z979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:26" ht="12.75">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -23846,7 +23847,7 @@
       <c r="Y980" s="5"/>
       <c r="Z980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:26" ht="12.75">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -23869,7 +23870,7 @@
       <c r="Y981" s="5"/>
       <c r="Z981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:26" ht="12.75">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -23892,7 +23893,7 @@
       <c r="Y982" s="5"/>
       <c r="Z982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:26" ht="12.75">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -23915,7 +23916,7 @@
       <c r="Y983" s="5"/>
       <c r="Z983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:26" ht="12.75">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -23938,7 +23939,7 @@
       <c r="Y984" s="5"/>
       <c r="Z984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:26" ht="12.75">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -23961,7 +23962,7 @@
       <c r="Y985" s="5"/>
       <c r="Z985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:26" ht="12.75">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -23984,7 +23985,7 @@
       <c r="Y986" s="5"/>
       <c r="Z986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:26" ht="12.75">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -24007,7 +24008,7 @@
       <c r="Y987" s="5"/>
       <c r="Z987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:26" ht="12.75">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -24030,7 +24031,7 @@
       <c r="Y988" s="5"/>
       <c r="Z988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:26" ht="12.75">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -24053,7 +24054,7 @@
       <c r="Y989" s="5"/>
       <c r="Z989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:26" ht="12.75">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -24076,7 +24077,7 @@
       <c r="Y990" s="5"/>
       <c r="Z990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:26" ht="12.75">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -24099,7 +24100,7 @@
       <c r="Y991" s="5"/>
       <c r="Z991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:26" ht="12.75">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -24122,7 +24123,7 @@
       <c r="Y992" s="5"/>
       <c r="Z992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:26" ht="12.75">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -24145,7 +24146,7 @@
       <c r="Y993" s="5"/>
       <c r="Z993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:26" ht="12.75">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -24168,7 +24169,7 @@
       <c r="Y994" s="5"/>
       <c r="Z994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:26" ht="12.75">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -24191,7 +24192,7 @@
       <c r="Y995" s="5"/>
       <c r="Z995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:26" ht="12.75">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -24214,7 +24215,7 @@
       <c r="Y996" s="5"/>
       <c r="Z996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:26" ht="12.75">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -24237,7 +24238,7 @@
       <c r="Y997" s="5"/>
       <c r="Z997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:26" ht="12.75">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -24260,7 +24261,7 @@
       <c r="Y998" s="5"/>
       <c r="Z998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:26" ht="12.75">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -24283,7 +24284,7 @@
       <c r="Y999" s="5"/>
       <c r="Z999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:26" ht="12.75">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
@@ -24308,9 +24309,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B16"/>
-    <hyperlink r:id="rId2" ref="A19"/>
+    <hyperlink ref="B16" r:id="rId1"/>
+    <hyperlink ref="A19" r:id="rId2"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sanaz Bewerbungen.xlsx
+++ b/Sanaz Bewerbungen.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\docs\cvSanaz\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="8970"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="177">
   <si>
     <t>stelle Original</t>
   </si>
@@ -417,33 +409,25 @@
     <t>PharmaMedia Dr. Müller GmbH</t>
   </si>
   <si>
-    <t>09.07.2022</t>
-  </si>
-  <si>
     <t>Gustav-Throm-Str. 1 69181 Leimen</t>
   </si>
   <si>
-    <t>Naturwissenschaftler für siw Leitung der Qualitätssicherung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturwissenschaftler - Leitung Qualitätssicherung (m/w/d)
-</t>
+    <t>Naturwissenschaftlerin für die Leitung der Qualitätssicherung</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <rFont val="Calibri"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <sz val="11.0"/>
       </rPr>
       <t xml:space="preserve">Gustav-Throm-Str. </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <rFont val="&quot;Source Sans Pro&quot;, -apple-system, BlinkMacSystemFont, &quot;Segoe UI&quot;, Roboto, &quot;Helvetica Neue&quot;, Arial, sans-serif"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
+        <sz val="12.0"/>
       </rPr>
       <t>1</t>
     </r>
@@ -466,60 +450,189 @@
   <si>
     <t xml:space="preserve">Thomas </t>
   </si>
+  <si>
+    <t>Biologist, Biotechnologist as Quality Manager - GCP, GLP (m/f/d)</t>
+  </si>
+  <si>
+    <t>ProtaGene GmbH</t>
+  </si>
+  <si>
+    <t>Biologin als Quality Manager - GCP, GLP</t>
+  </si>
+  <si>
+    <t>Att. Dr</t>
+  </si>
+  <si>
+    <t>Weingarten</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Im Neuenheimer Feld 582</t>
+  </si>
+  <si>
+    <t>69120 Heidelberg</t>
+  </si>
+  <si>
+    <t>Naturwissenschaftler als Proposal Manager (f/m/d)</t>
+  </si>
+  <si>
+    <t>FGK Clinical Research GmbH</t>
+  </si>
+  <si>
+    <t>Naturwissenschaftlerin als Proposal Manager</t>
+  </si>
+  <si>
+    <t>München</t>
+  </si>
+  <si>
+    <t>Chemiker, Biologe, Pharmazeut (m/w/d) Projektverantwortliche:r Prozessanalytiker:in</t>
+  </si>
+  <si>
+    <t>Chemikerin als Projektverantwortliche Prozessanalytikerin</t>
+  </si>
+  <si>
+    <t>Qualitätsmanager (m/w/d) Audits und Inspektionen Pharma</t>
+  </si>
+  <si>
+    <t>Qualitätsmanager für Audits und Inspektionen Pharma</t>
+  </si>
+  <si>
+    <t>Baden-Baden</t>
+  </si>
+  <si>
+    <t>Manager:in Site Compliance (m/w/d)</t>
+  </si>
+  <si>
+    <t>Managerin für Site Compliance</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>staatlich geprüfte/n Lebensmittelchemiker/in (m/w/d) Stellennummer: Kennziffer 0827/FR/4142</t>
+  </si>
+  <si>
+    <t>Ministerium für Ernährung, Ländlichen Raum und
+Verbraucherschutz</t>
+  </si>
+  <si>
+    <t>staatlich geprüfte Lebensmittelchemikerin</t>
+  </si>
+  <si>
+    <t>staatlich geprüfte/n Lebensmittelchemiker/in (m/w/d) - Stellennummer: Kennziffer 0827/FR/4142</t>
+  </si>
+  <si>
+    <t>Wegner</t>
+  </si>
+  <si>
+    <t>Biologe, Biochemiker, Biotechnologe als Projektmanager Life Science - Molekularbiologische Analytik, Datenanalyse (m/w/d)</t>
+  </si>
+  <si>
+    <t>ProtaGene CGT GmbH</t>
+  </si>
+  <si>
+    <t>Biochemikerin als Projektmanager Life Science für Molekularbiologische Analytik und Datenanalyse</t>
+  </si>
+  <si>
+    <t>Chemiker, Biologe, Biochemiker als Sales Manager - Produktmanagement Chemie (m/w/d)</t>
+  </si>
+  <si>
+    <t>abcr GmbH</t>
+  </si>
+  <si>
+    <t>04.08.2022</t>
+  </si>
+  <si>
+    <t>Biochemikerin als Sales Manager - Produktmanagement Chemie</t>
+  </si>
+  <si>
+    <t>Lalic</t>
+  </si>
+  <si>
+    <t>Vesna</t>
+  </si>
+  <si>
+    <t>Schlehert 10</t>
+  </si>
+  <si>
+    <t>76187 Karlsruhe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="14">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Source Sans Pro&quot;"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="&quot;Source Sans Pro&quot;"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Source Sans Pro&quot;"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Source Sans Pro"/>
     </font>
   </fonts>
   <fills count="3">
@@ -527,7 +640,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -537,56 +650,95 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="23">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -776,39 +928,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="96.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="78.5703125" customWidth="1"/>
-    <col min="8" max="8" width="87" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="96.25"/>
+    <col customWidth="1" min="2" max="2" width="34.0"/>
+    <col customWidth="1" min="3" max="3" width="13.0"/>
+    <col customWidth="1" min="4" max="4" width="9.88"/>
+    <col customWidth="1" min="5" max="5" width="59.88"/>
+    <col customWidth="1" min="7" max="7" width="71.5"/>
+    <col customWidth="1" min="8" max="8" width="70.38"/>
+    <col customWidth="1" min="9" max="9" width="10.13"/>
+    <col customWidth="1" min="11" max="11" width="10.63"/>
+    <col customWidth="1" min="12" max="12" width="8.88"/>
+    <col customWidth="1" min="13" max="13" width="22.25"/>
+    <col customWidth="1" min="14" max="14" width="22.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +1018,7 @@
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -917,7 +1064,7 @@
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -971,7 +1118,7 @@
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1019,7 +1166,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1069,7 +1216,7 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>51</v>
       </c>
@@ -1079,7 +1226,9 @@
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" s="1" t="s">
         <v>53</v>
       </c>
@@ -1110,7 +1259,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>55</v>
       </c>
@@ -1161,7 +1310,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1211,7 +1360,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1257,7 +1406,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1267,7 +1416,9 @@
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
@@ -1307,7 +1458,7 @@
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>87</v>
       </c>
@@ -1363,16 +1514,14 @@
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1" t="s">
         <v>97</v>
@@ -1404,16 +1553,14 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+    <row r="13">
       <c r="A13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1" t="s">
         <v>97</v>
@@ -1445,16 +1592,14 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1" t="s">
         <v>104</v>
@@ -1491,7 +1636,7 @@
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+    <row r="15">
       <c r="A15" s="1" t="s">
         <v>107</v>
       </c>
@@ -1543,7 +1688,7 @@
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>115</v>
       </c>
@@ -1590,7 +1735,7 @@
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+    <row r="17">
       <c r="A17" s="11" t="s">
         <v>122</v>
       </c>
@@ -1636,7 +1781,7 @@
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18">
       <c r="A18" s="3" t="s">
         <v>125</v>
       </c>
@@ -1674,41 +1819,39 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+    <row r="19">
       <c r="A19" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="2">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>94</v>
@@ -1721,35 +1864,33 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+    <row r="20">
       <c r="A20" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>31</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -1767,19 +1908,45 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="C21" s="8"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="G21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
+      <c r="P21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="T21" s="5"/>
@@ -1790,17 +1957,27 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="N22" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
@@ -1813,19 +1990,44 @@
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
     </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="G23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
+      <c r="P23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="T23" s="5"/>
@@ -1836,19 +2038,31 @@
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="8"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="G24" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="N24" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
+      <c r="P24" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="T24" s="5"/>
@@ -1859,19 +2073,31 @@
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+    <row r="25">
+      <c r="A25" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="G25" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>158</v>
+      </c>
       <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
+      <c r="P25" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="T25" s="5"/>
@@ -1882,19 +2108,40 @@
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="G26" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
+      <c r="P26" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="T26" s="5"/>
@@ -1905,19 +2152,42 @@
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
     </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="G27" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>148</v>
+      </c>
       <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
+      <c r="P27" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="T27" s="5"/>
@@ -1928,21 +2198,49 @@
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
     </row>
-    <row r="28" spans="1:26" ht="12.75">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+    <row r="28">
+      <c r="A28" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
+      <c r="G28" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N28" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -1951,7 +2249,7 @@
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
     </row>
-    <row r="29" spans="1:26" ht="12.75">
+    <row r="29">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1974,7 +2272,7 @@
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
     </row>
-    <row r="30" spans="1:26" ht="12.75">
+    <row r="30">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1997,7 +2295,7 @@
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
     </row>
-    <row r="31" spans="1:26" ht="12.75">
+    <row r="31">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -2020,14 +2318,13 @@
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
     </row>
-    <row r="32" spans="1:26" ht="12.75">
+    <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -2043,14 +2340,13 @@
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="1:26" ht="12.75">
+    <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -2066,14 +2362,13 @@
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="1:26" ht="12.75">
+    <row r="34">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -2089,14 +2384,13 @@
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="1:26" ht="12.75">
+    <row r="35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -2112,14 +2406,13 @@
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="1:26" ht="12.75">
+    <row r="36">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -2135,14 +2428,13 @@
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="1:26" ht="12.75">
+    <row r="37">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -2158,14 +2450,13 @@
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="1:26" ht="12.75">
+    <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -2181,14 +2472,13 @@
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="1:26" ht="12.75">
+    <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -2204,7 +2494,7 @@
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="1:26" ht="12.75">
+    <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -2227,7 +2517,7 @@
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
     </row>
-    <row r="41" spans="1:26" ht="12.75">
+    <row r="41">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -2250,7 +2540,7 @@
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
     </row>
-    <row r="42" spans="1:26" ht="12.75">
+    <row r="42">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -2273,7 +2563,7 @@
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
     </row>
-    <row r="43" spans="1:26" ht="12.75">
+    <row r="43">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2296,7 +2586,7 @@
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
     </row>
-    <row r="44" spans="1:26" ht="12.75">
+    <row r="44">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2319,7 +2609,7 @@
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
     </row>
-    <row r="45" spans="1:26" ht="12.75">
+    <row r="45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -2342,7 +2632,7 @@
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
     </row>
-    <row r="46" spans="1:26" ht="12.75">
+    <row r="46">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -2365,7 +2655,7 @@
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
     </row>
-    <row r="47" spans="1:26" ht="12.75">
+    <row r="47">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2388,7 +2678,7 @@
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
     </row>
-    <row r="48" spans="1:26" ht="12.75">
+    <row r="48">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -2411,7 +2701,7 @@
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
     </row>
-    <row r="49" spans="1:26" ht="12.75">
+    <row r="49">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2434,7 +2724,7 @@
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
     </row>
-    <row r="50" spans="1:26" ht="12.75">
+    <row r="50">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2457,7 +2747,7 @@
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
     </row>
-    <row r="51" spans="1:26" ht="12.75">
+    <row r="51">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2480,7 +2770,7 @@
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
     </row>
-    <row r="52" spans="1:26" ht="12.75">
+    <row r="52">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2503,7 +2793,7 @@
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
     </row>
-    <row r="53" spans="1:26" ht="12.75">
+    <row r="53">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -2526,7 +2816,7 @@
       <c r="Y53" s="5"/>
       <c r="Z53" s="5"/>
     </row>
-    <row r="54" spans="1:26" ht="12.75">
+    <row r="54">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -2549,7 +2839,7 @@
       <c r="Y54" s="5"/>
       <c r="Z54" s="5"/>
     </row>
-    <row r="55" spans="1:26" ht="12.75">
+    <row r="55">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -2572,7 +2862,7 @@
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
     </row>
-    <row r="56" spans="1:26" ht="12.75">
+    <row r="56">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2595,7 +2885,7 @@
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
     </row>
-    <row r="57" spans="1:26" ht="12.75">
+    <row r="57">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2618,7 +2908,7 @@
       <c r="Y57" s="5"/>
       <c r="Z57" s="5"/>
     </row>
-    <row r="58" spans="1:26" ht="12.75">
+    <row r="58">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -2641,7 +2931,7 @@
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
     </row>
-    <row r="59" spans="1:26" ht="12.75">
+    <row r="59">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -2664,7 +2954,7 @@
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
     </row>
-    <row r="60" spans="1:26" ht="12.75">
+    <row r="60">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -2687,7 +2977,7 @@
       <c r="Y60" s="5"/>
       <c r="Z60" s="5"/>
     </row>
-    <row r="61" spans="1:26" ht="12.75">
+    <row r="61">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -2710,7 +3000,7 @@
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
     </row>
-    <row r="62" spans="1:26" ht="12.75">
+    <row r="62">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -2733,7 +3023,7 @@
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
     </row>
-    <row r="63" spans="1:26" ht="12.75">
+    <row r="63">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -2756,7 +3046,7 @@
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
     </row>
-    <row r="64" spans="1:26" ht="12.75">
+    <row r="64">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -2779,7 +3069,7 @@
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
     </row>
-    <row r="65" spans="1:26" ht="12.75">
+    <row r="65">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -2802,7 +3092,7 @@
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
     </row>
-    <row r="66" spans="1:26" ht="12.75">
+    <row r="66">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -2825,7 +3115,7 @@
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
     </row>
-    <row r="67" spans="1:26" ht="12.75">
+    <row r="67">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -2848,7 +3138,7 @@
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
     </row>
-    <row r="68" spans="1:26" ht="12.75">
+    <row r="68">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -2871,7 +3161,7 @@
       <c r="Y68" s="5"/>
       <c r="Z68" s="5"/>
     </row>
-    <row r="69" spans="1:26" ht="12.75">
+    <row r="69">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -2894,7 +3184,7 @@
       <c r="Y69" s="5"/>
       <c r="Z69" s="5"/>
     </row>
-    <row r="70" spans="1:26" ht="12.75">
+    <row r="70">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2917,7 +3207,7 @@
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
     </row>
-    <row r="71" spans="1:26" ht="12.75">
+    <row r="71">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -2940,7 +3230,7 @@
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
     </row>
-    <row r="72" spans="1:26" ht="12.75">
+    <row r="72">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -2963,7 +3253,7 @@
       <c r="Y72" s="5"/>
       <c r="Z72" s="5"/>
     </row>
-    <row r="73" spans="1:26" ht="12.75">
+    <row r="73">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -2986,7 +3276,7 @@
       <c r="Y73" s="5"/>
       <c r="Z73" s="5"/>
     </row>
-    <row r="74" spans="1:26" ht="12.75">
+    <row r="74">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -3009,7 +3299,7 @@
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
     </row>
-    <row r="75" spans="1:26" ht="12.75">
+    <row r="75">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -3032,7 +3322,7 @@
       <c r="Y75" s="5"/>
       <c r="Z75" s="5"/>
     </row>
-    <row r="76" spans="1:26" ht="12.75">
+    <row r="76">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -3055,7 +3345,7 @@
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
     </row>
-    <row r="77" spans="1:26" ht="12.75">
+    <row r="77">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -3078,7 +3368,7 @@
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
     </row>
-    <row r="78" spans="1:26" ht="12.75">
+    <row r="78">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -3101,7 +3391,7 @@
       <c r="Y78" s="5"/>
       <c r="Z78" s="5"/>
     </row>
-    <row r="79" spans="1:26" ht="12.75">
+    <row r="79">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -3124,7 +3414,7 @@
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
     </row>
-    <row r="80" spans="1:26" ht="12.75">
+    <row r="80">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -3147,7 +3437,7 @@
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
     </row>
-    <row r="81" spans="1:26" ht="12.75">
+    <row r="81">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -3170,7 +3460,7 @@
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
     </row>
-    <row r="82" spans="1:26" ht="12.75">
+    <row r="82">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -3193,7 +3483,7 @@
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
     </row>
-    <row r="83" spans="1:26" ht="12.75">
+    <row r="83">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -3216,7 +3506,7 @@
       <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
     </row>
-    <row r="84" spans="1:26" ht="12.75">
+    <row r="84">
       <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -3239,7 +3529,7 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
     </row>
-    <row r="85" spans="1:26" ht="12.75">
+    <row r="85">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -3262,7 +3552,7 @@
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
     </row>
-    <row r="86" spans="1:26" ht="12.75">
+    <row r="86">
       <c r="A86" s="5"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -3285,7 +3575,7 @@
       <c r="Y86" s="5"/>
       <c r="Z86" s="5"/>
     </row>
-    <row r="87" spans="1:26" ht="12.75">
+    <row r="87">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -3308,7 +3598,7 @@
       <c r="Y87" s="5"/>
       <c r="Z87" s="5"/>
     </row>
-    <row r="88" spans="1:26" ht="12.75">
+    <row r="88">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -3331,7 +3621,7 @@
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
     </row>
-    <row r="89" spans="1:26" ht="12.75">
+    <row r="89">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -3354,7 +3644,7 @@
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
     </row>
-    <row r="90" spans="1:26" ht="12.75">
+    <row r="90">
       <c r="A90" s="5"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -3377,7 +3667,7 @@
       <c r="Y90" s="5"/>
       <c r="Z90" s="5"/>
     </row>
-    <row r="91" spans="1:26" ht="12.75">
+    <row r="91">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -3400,7 +3690,7 @@
       <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
-    <row r="92" spans="1:26" ht="12.75">
+    <row r="92">
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -3423,7 +3713,7 @@
       <c r="Y92" s="5"/>
       <c r="Z92" s="5"/>
     </row>
-    <row r="93" spans="1:26" ht="12.75">
+    <row r="93">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3446,7 +3736,7 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
     </row>
-    <row r="94" spans="1:26" ht="12.75">
+    <row r="94">
       <c r="A94" s="5"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3469,7 +3759,7 @@
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
     </row>
-    <row r="95" spans="1:26" ht="12.75">
+    <row r="95">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3492,7 +3782,7 @@
       <c r="Y95" s="5"/>
       <c r="Z95" s="5"/>
     </row>
-    <row r="96" spans="1:26" ht="12.75">
+    <row r="96">
       <c r="A96" s="5"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -3515,7 +3805,7 @@
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
     </row>
-    <row r="97" spans="1:26" ht="12.75">
+    <row r="97">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -3538,7 +3828,7 @@
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
     </row>
-    <row r="98" spans="1:26" ht="12.75">
+    <row r="98">
       <c r="A98" s="5"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -3561,7 +3851,7 @@
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
     </row>
-    <row r="99" spans="1:26" ht="12.75">
+    <row r="99">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -3584,7 +3874,7 @@
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
     </row>
-    <row r="100" spans="1:26" ht="12.75">
+    <row r="100">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -3607,7 +3897,7 @@
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
     </row>
-    <row r="101" spans="1:26" ht="12.75">
+    <row r="101">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -3630,7 +3920,7 @@
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
     </row>
-    <row r="102" spans="1:26" ht="12.75">
+    <row r="102">
       <c r="A102" s="5"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -3653,7 +3943,7 @@
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
     </row>
-    <row r="103" spans="1:26" ht="12.75">
+    <row r="103">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -3676,7 +3966,7 @@
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
     </row>
-    <row r="104" spans="1:26" ht="12.75">
+    <row r="104">
       <c r="A104" s="5"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -3699,7 +3989,7 @@
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
     </row>
-    <row r="105" spans="1:26" ht="12.75">
+    <row r="105">
       <c r="A105" s="5"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -3722,7 +4012,7 @@
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
     </row>
-    <row r="106" spans="1:26" ht="12.75">
+    <row r="106">
       <c r="A106" s="5"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3745,7 +4035,7 @@
       <c r="Y106" s="5"/>
       <c r="Z106" s="5"/>
     </row>
-    <row r="107" spans="1:26" ht="12.75">
+    <row r="107">
       <c r="A107" s="5"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -3768,7 +4058,7 @@
       <c r="Y107" s="5"/>
       <c r="Z107" s="5"/>
     </row>
-    <row r="108" spans="1:26" ht="12.75">
+    <row r="108">
       <c r="A108" s="5"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -3791,7 +4081,7 @@
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
     </row>
-    <row r="109" spans="1:26" ht="12.75">
+    <row r="109">
       <c r="A109" s="5"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -3814,7 +4104,7 @@
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
     </row>
-    <row r="110" spans="1:26" ht="12.75">
+    <row r="110">
       <c r="A110" s="5"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -3837,7 +4127,7 @@
       <c r="Y110" s="5"/>
       <c r="Z110" s="5"/>
     </row>
-    <row r="111" spans="1:26" ht="12.75">
+    <row r="111">
       <c r="A111" s="5"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -3860,7 +4150,7 @@
       <c r="Y111" s="5"/>
       <c r="Z111" s="5"/>
     </row>
-    <row r="112" spans="1:26" ht="12.75">
+    <row r="112">
       <c r="A112" s="5"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -3883,7 +4173,7 @@
       <c r="Y112" s="5"/>
       <c r="Z112" s="5"/>
     </row>
-    <row r="113" spans="1:26" ht="12.75">
+    <row r="113">
       <c r="A113" s="5"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -3906,7 +4196,7 @@
       <c r="Y113" s="5"/>
       <c r="Z113" s="5"/>
     </row>
-    <row r="114" spans="1:26" ht="12.75">
+    <row r="114">
       <c r="A114" s="5"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -3929,7 +4219,7 @@
       <c r="Y114" s="5"/>
       <c r="Z114" s="5"/>
     </row>
-    <row r="115" spans="1:26" ht="12.75">
+    <row r="115">
       <c r="A115" s="5"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -3952,7 +4242,7 @@
       <c r="Y115" s="5"/>
       <c r="Z115" s="5"/>
     </row>
-    <row r="116" spans="1:26" ht="12.75">
+    <row r="116">
       <c r="A116" s="5"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -3975,7 +4265,7 @@
       <c r="Y116" s="5"/>
       <c r="Z116" s="5"/>
     </row>
-    <row r="117" spans="1:26" ht="12.75">
+    <row r="117">
       <c r="A117" s="5"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -3998,7 +4288,7 @@
       <c r="Y117" s="5"/>
       <c r="Z117" s="5"/>
     </row>
-    <row r="118" spans="1:26" ht="12.75">
+    <row r="118">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -4021,7 +4311,7 @@
       <c r="Y118" s="5"/>
       <c r="Z118" s="5"/>
     </row>
-    <row r="119" spans="1:26" ht="12.75">
+    <row r="119">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -4044,7 +4334,7 @@
       <c r="Y119" s="5"/>
       <c r="Z119" s="5"/>
     </row>
-    <row r="120" spans="1:26" ht="12.75">
+    <row r="120">
       <c r="A120" s="5"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -4067,7 +4357,7 @@
       <c r="Y120" s="5"/>
       <c r="Z120" s="5"/>
     </row>
-    <row r="121" spans="1:26" ht="12.75">
+    <row r="121">
       <c r="A121" s="5"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -4090,7 +4380,7 @@
       <c r="Y121" s="5"/>
       <c r="Z121" s="5"/>
     </row>
-    <row r="122" spans="1:26" ht="12.75">
+    <row r="122">
       <c r="A122" s="5"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -4113,7 +4403,7 @@
       <c r="Y122" s="5"/>
       <c r="Z122" s="5"/>
     </row>
-    <row r="123" spans="1:26" ht="12.75">
+    <row r="123">
       <c r="A123" s="5"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -4136,7 +4426,7 @@
       <c r="Y123" s="5"/>
       <c r="Z123" s="5"/>
     </row>
-    <row r="124" spans="1:26" ht="12.75">
+    <row r="124">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -4159,7 +4449,7 @@
       <c r="Y124" s="5"/>
       <c r="Z124" s="5"/>
     </row>
-    <row r="125" spans="1:26" ht="12.75">
+    <row r="125">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4182,7 +4472,7 @@
       <c r="Y125" s="5"/>
       <c r="Z125" s="5"/>
     </row>
-    <row r="126" spans="1:26" ht="12.75">
+    <row r="126">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4205,7 +4495,7 @@
       <c r="Y126" s="5"/>
       <c r="Z126" s="5"/>
     </row>
-    <row r="127" spans="1:26" ht="12.75">
+    <row r="127">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4228,7 +4518,7 @@
       <c r="Y127" s="5"/>
       <c r="Z127" s="5"/>
     </row>
-    <row r="128" spans="1:26" ht="12.75">
+    <row r="128">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4251,7 +4541,7 @@
       <c r="Y128" s="5"/>
       <c r="Z128" s="5"/>
     </row>
-    <row r="129" spans="1:26" ht="12.75">
+    <row r="129">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -4274,7 +4564,7 @@
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
     </row>
-    <row r="130" spans="1:26" ht="12.75">
+    <row r="130">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -4297,7 +4587,7 @@
       <c r="Y130" s="5"/>
       <c r="Z130" s="5"/>
     </row>
-    <row r="131" spans="1:26" ht="12.75">
+    <row r="131">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -4320,7 +4610,7 @@
       <c r="Y131" s="5"/>
       <c r="Z131" s="5"/>
     </row>
-    <row r="132" spans="1:26" ht="12.75">
+    <row r="132">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -4343,7 +4633,7 @@
       <c r="Y132" s="5"/>
       <c r="Z132" s="5"/>
     </row>
-    <row r="133" spans="1:26" ht="12.75">
+    <row r="133">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -4366,7 +4656,7 @@
       <c r="Y133" s="5"/>
       <c r="Z133" s="5"/>
     </row>
-    <row r="134" spans="1:26" ht="12.75">
+    <row r="134">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -4389,7 +4679,7 @@
       <c r="Y134" s="5"/>
       <c r="Z134" s="5"/>
     </row>
-    <row r="135" spans="1:26" ht="12.75">
+    <row r="135">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -4412,7 +4702,7 @@
       <c r="Y135" s="5"/>
       <c r="Z135" s="5"/>
     </row>
-    <row r="136" spans="1:26" ht="12.75">
+    <row r="136">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4435,7 +4725,7 @@
       <c r="Y136" s="5"/>
       <c r="Z136" s="5"/>
     </row>
-    <row r="137" spans="1:26" ht="12.75">
+    <row r="137">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -4458,7 +4748,7 @@
       <c r="Y137" s="5"/>
       <c r="Z137" s="5"/>
     </row>
-    <row r="138" spans="1:26" ht="12.75">
+    <row r="138">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -4481,7 +4771,7 @@
       <c r="Y138" s="5"/>
       <c r="Z138" s="5"/>
     </row>
-    <row r="139" spans="1:26" ht="12.75">
+    <row r="139">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -4504,7 +4794,7 @@
       <c r="Y139" s="5"/>
       <c r="Z139" s="5"/>
     </row>
-    <row r="140" spans="1:26" ht="12.75">
+    <row r="140">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -4527,7 +4817,7 @@
       <c r="Y140" s="5"/>
       <c r="Z140" s="5"/>
     </row>
-    <row r="141" spans="1:26" ht="12.75">
+    <row r="141">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -4550,7 +4840,7 @@
       <c r="Y141" s="5"/>
       <c r="Z141" s="5"/>
     </row>
-    <row r="142" spans="1:26" ht="12.75">
+    <row r="142">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -4573,7 +4863,7 @@
       <c r="Y142" s="5"/>
       <c r="Z142" s="5"/>
     </row>
-    <row r="143" spans="1:26" ht="12.75">
+    <row r="143">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -4596,7 +4886,7 @@
       <c r="Y143" s="5"/>
       <c r="Z143" s="5"/>
     </row>
-    <row r="144" spans="1:26" ht="12.75">
+    <row r="144">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -4619,7 +4909,7 @@
       <c r="Y144" s="5"/>
       <c r="Z144" s="5"/>
     </row>
-    <row r="145" spans="1:26" ht="12.75">
+    <row r="145">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4642,7 +4932,7 @@
       <c r="Y145" s="5"/>
       <c r="Z145" s="5"/>
     </row>
-    <row r="146" spans="1:26" ht="12.75">
+    <row r="146">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4665,7 +4955,7 @@
       <c r="Y146" s="5"/>
       <c r="Z146" s="5"/>
     </row>
-    <row r="147" spans="1:26" ht="12.75">
+    <row r="147">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -4688,7 +4978,7 @@
       <c r="Y147" s="5"/>
       <c r="Z147" s="5"/>
     </row>
-    <row r="148" spans="1:26" ht="12.75">
+    <row r="148">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -4711,7 +5001,7 @@
       <c r="Y148" s="5"/>
       <c r="Z148" s="5"/>
     </row>
-    <row r="149" spans="1:26" ht="12.75">
+    <row r="149">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -4734,7 +5024,7 @@
       <c r="Y149" s="5"/>
       <c r="Z149" s="5"/>
     </row>
-    <row r="150" spans="1:26" ht="12.75">
+    <row r="150">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -4757,7 +5047,7 @@
       <c r="Y150" s="5"/>
       <c r="Z150" s="5"/>
     </row>
-    <row r="151" spans="1:26" ht="12.75">
+    <row r="151">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4780,7 +5070,7 @@
       <c r="Y151" s="5"/>
       <c r="Z151" s="5"/>
     </row>
-    <row r="152" spans="1:26" ht="12.75">
+    <row r="152">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -4803,7 +5093,7 @@
       <c r="Y152" s="5"/>
       <c r="Z152" s="5"/>
     </row>
-    <row r="153" spans="1:26" ht="12.75">
+    <row r="153">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -4826,7 +5116,7 @@
       <c r="Y153" s="5"/>
       <c r="Z153" s="5"/>
     </row>
-    <row r="154" spans="1:26" ht="12.75">
+    <row r="154">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -4849,7 +5139,7 @@
       <c r="Y154" s="5"/>
       <c r="Z154" s="5"/>
     </row>
-    <row r="155" spans="1:26" ht="12.75">
+    <row r="155">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -4872,7 +5162,7 @@
       <c r="Y155" s="5"/>
       <c r="Z155" s="5"/>
     </row>
-    <row r="156" spans="1:26" ht="12.75">
+    <row r="156">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -4895,7 +5185,7 @@
       <c r="Y156" s="5"/>
       <c r="Z156" s="5"/>
     </row>
-    <row r="157" spans="1:26" ht="12.75">
+    <row r="157">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -4918,7 +5208,7 @@
       <c r="Y157" s="5"/>
       <c r="Z157" s="5"/>
     </row>
-    <row r="158" spans="1:26" ht="12.75">
+    <row r="158">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -4941,7 +5231,7 @@
       <c r="Y158" s="5"/>
       <c r="Z158" s="5"/>
     </row>
-    <row r="159" spans="1:26" ht="12.75">
+    <row r="159">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -4964,7 +5254,7 @@
       <c r="Y159" s="5"/>
       <c r="Z159" s="5"/>
     </row>
-    <row r="160" spans="1:26" ht="12.75">
+    <row r="160">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -4987,7 +5277,7 @@
       <c r="Y160" s="5"/>
       <c r="Z160" s="5"/>
     </row>
-    <row r="161" spans="1:26" ht="12.75">
+    <row r="161">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -5010,7 +5300,7 @@
       <c r="Y161" s="5"/>
       <c r="Z161" s="5"/>
     </row>
-    <row r="162" spans="1:26" ht="12.75">
+    <row r="162">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -5033,7 +5323,7 @@
       <c r="Y162" s="5"/>
       <c r="Z162" s="5"/>
     </row>
-    <row r="163" spans="1:26" ht="12.75">
+    <row r="163">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -5056,7 +5346,7 @@
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
     </row>
-    <row r="164" spans="1:26" ht="12.75">
+    <row r="164">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -5079,7 +5369,7 @@
       <c r="Y164" s="5"/>
       <c r="Z164" s="5"/>
     </row>
-    <row r="165" spans="1:26" ht="12.75">
+    <row r="165">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -5102,7 +5392,7 @@
       <c r="Y165" s="5"/>
       <c r="Z165" s="5"/>
     </row>
-    <row r="166" spans="1:26" ht="12.75">
+    <row r="166">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -5125,7 +5415,7 @@
       <c r="Y166" s="5"/>
       <c r="Z166" s="5"/>
     </row>
-    <row r="167" spans="1:26" ht="12.75">
+    <row r="167">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -5148,7 +5438,7 @@
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
     </row>
-    <row r="168" spans="1:26" ht="12.75">
+    <row r="168">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -5171,7 +5461,7 @@
       <c r="Y168" s="5"/>
       <c r="Z168" s="5"/>
     </row>
-    <row r="169" spans="1:26" ht="12.75">
+    <row r="169">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -5194,7 +5484,7 @@
       <c r="Y169" s="5"/>
       <c r="Z169" s="5"/>
     </row>
-    <row r="170" spans="1:26" ht="12.75">
+    <row r="170">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -5217,7 +5507,7 @@
       <c r="Y170" s="5"/>
       <c r="Z170" s="5"/>
     </row>
-    <row r="171" spans="1:26" ht="12.75">
+    <row r="171">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -5240,7 +5530,7 @@
       <c r="Y171" s="5"/>
       <c r="Z171" s="5"/>
     </row>
-    <row r="172" spans="1:26" ht="12.75">
+    <row r="172">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -5263,7 +5553,7 @@
       <c r="Y172" s="5"/>
       <c r="Z172" s="5"/>
     </row>
-    <row r="173" spans="1:26" ht="12.75">
+    <row r="173">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -5286,7 +5576,7 @@
       <c r="Y173" s="5"/>
       <c r="Z173" s="5"/>
     </row>
-    <row r="174" spans="1:26" ht="12.75">
+    <row r="174">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -5309,7 +5599,7 @@
       <c r="Y174" s="5"/>
       <c r="Z174" s="5"/>
     </row>
-    <row r="175" spans="1:26" ht="12.75">
+    <row r="175">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -5332,7 +5622,7 @@
       <c r="Y175" s="5"/>
       <c r="Z175" s="5"/>
     </row>
-    <row r="176" spans="1:26" ht="12.75">
+    <row r="176">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -5355,7 +5645,7 @@
       <c r="Y176" s="5"/>
       <c r="Z176" s="5"/>
     </row>
-    <row r="177" spans="1:26" ht="12.75">
+    <row r="177">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -5378,7 +5668,7 @@
       <c r="Y177" s="5"/>
       <c r="Z177" s="5"/>
     </row>
-    <row r="178" spans="1:26" ht="12.75">
+    <row r="178">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -5401,7 +5691,7 @@
       <c r="Y178" s="5"/>
       <c r="Z178" s="5"/>
     </row>
-    <row r="179" spans="1:26" ht="12.75">
+    <row r="179">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -5424,7 +5714,7 @@
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
-    <row r="180" spans="1:26" ht="12.75">
+    <row r="180">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5447,7 +5737,7 @@
       <c r="Y180" s="5"/>
       <c r="Z180" s="5"/>
     </row>
-    <row r="181" spans="1:26" ht="12.75">
+    <row r="181">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -5470,7 +5760,7 @@
       <c r="Y181" s="5"/>
       <c r="Z181" s="5"/>
     </row>
-    <row r="182" spans="1:26" ht="12.75">
+    <row r="182">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -5493,7 +5783,7 @@
       <c r="Y182" s="5"/>
       <c r="Z182" s="5"/>
     </row>
-    <row r="183" spans="1:26" ht="12.75">
+    <row r="183">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -5516,7 +5806,7 @@
       <c r="Y183" s="5"/>
       <c r="Z183" s="5"/>
     </row>
-    <row r="184" spans="1:26" ht="12.75">
+    <row r="184">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -5539,7 +5829,7 @@
       <c r="Y184" s="5"/>
       <c r="Z184" s="5"/>
     </row>
-    <row r="185" spans="1:26" ht="12.75">
+    <row r="185">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -5562,7 +5852,7 @@
       <c r="Y185" s="5"/>
       <c r="Z185" s="5"/>
     </row>
-    <row r="186" spans="1:26" ht="12.75">
+    <row r="186">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -5585,7 +5875,7 @@
       <c r="Y186" s="5"/>
       <c r="Z186" s="5"/>
     </row>
-    <row r="187" spans="1:26" ht="12.75">
+    <row r="187">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -5608,7 +5898,7 @@
       <c r="Y187" s="5"/>
       <c r="Z187" s="5"/>
     </row>
-    <row r="188" spans="1:26" ht="12.75">
+    <row r="188">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -5631,7 +5921,7 @@
       <c r="Y188" s="5"/>
       <c r="Z188" s="5"/>
     </row>
-    <row r="189" spans="1:26" ht="12.75">
+    <row r="189">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -5654,7 +5944,7 @@
       <c r="Y189" s="5"/>
       <c r="Z189" s="5"/>
     </row>
-    <row r="190" spans="1:26" ht="12.75">
+    <row r="190">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -5677,7 +5967,7 @@
       <c r="Y190" s="5"/>
       <c r="Z190" s="5"/>
     </row>
-    <row r="191" spans="1:26" ht="12.75">
+    <row r="191">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -5700,7 +5990,7 @@
       <c r="Y191" s="5"/>
       <c r="Z191" s="5"/>
     </row>
-    <row r="192" spans="1:26" ht="12.75">
+    <row r="192">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -5723,7 +6013,7 @@
       <c r="Y192" s="5"/>
       <c r="Z192" s="5"/>
     </row>
-    <row r="193" spans="1:26" ht="12.75">
+    <row r="193">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -5746,7 +6036,7 @@
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
-    <row r="194" spans="1:26" ht="12.75">
+    <row r="194">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5769,7 +6059,7 @@
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
-    <row r="195" spans="1:26" ht="12.75">
+    <row r="195">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -5792,7 +6082,7 @@
       <c r="Y195" s="5"/>
       <c r="Z195" s="5"/>
     </row>
-    <row r="196" spans="1:26" ht="12.75">
+    <row r="196">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -5815,7 +6105,7 @@
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
     </row>
-    <row r="197" spans="1:26" ht="12.75">
+    <row r="197">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -5838,7 +6128,7 @@
       <c r="Y197" s="5"/>
       <c r="Z197" s="5"/>
     </row>
-    <row r="198" spans="1:26" ht="12.75">
+    <row r="198">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -5861,7 +6151,7 @@
       <c r="Y198" s="5"/>
       <c r="Z198" s="5"/>
     </row>
-    <row r="199" spans="1:26" ht="12.75">
+    <row r="199">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -5884,7 +6174,7 @@
       <c r="Y199" s="5"/>
       <c r="Z199" s="5"/>
     </row>
-    <row r="200" spans="1:26" ht="12.75">
+    <row r="200">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -5907,7 +6197,7 @@
       <c r="Y200" s="5"/>
       <c r="Z200" s="5"/>
     </row>
-    <row r="201" spans="1:26" ht="12.75">
+    <row r="201">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -5930,7 +6220,7 @@
       <c r="Y201" s="5"/>
       <c r="Z201" s="5"/>
     </row>
-    <row r="202" spans="1:26" ht="12.75">
+    <row r="202">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -5953,7 +6243,7 @@
       <c r="Y202" s="5"/>
       <c r="Z202" s="5"/>
     </row>
-    <row r="203" spans="1:26" ht="12.75">
+    <row r="203">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -5976,7 +6266,7 @@
       <c r="Y203" s="5"/>
       <c r="Z203" s="5"/>
     </row>
-    <row r="204" spans="1:26" ht="12.75">
+    <row r="204">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -5999,7 +6289,7 @@
       <c r="Y204" s="5"/>
       <c r="Z204" s="5"/>
     </row>
-    <row r="205" spans="1:26" ht="12.75">
+    <row r="205">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -6022,7 +6312,7 @@
       <c r="Y205" s="5"/>
       <c r="Z205" s="5"/>
     </row>
-    <row r="206" spans="1:26" ht="12.75">
+    <row r="206">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -6045,7 +6335,7 @@
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
     </row>
-    <row r="207" spans="1:26" ht="12.75">
+    <row r="207">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -6068,7 +6358,7 @@
       <c r="Y207" s="5"/>
       <c r="Z207" s="5"/>
     </row>
-    <row r="208" spans="1:26" ht="12.75">
+    <row r="208">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -6091,7 +6381,7 @@
       <c r="Y208" s="5"/>
       <c r="Z208" s="5"/>
     </row>
-    <row r="209" spans="1:26" ht="12.75">
+    <row r="209">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -6114,7 +6404,7 @@
       <c r="Y209" s="5"/>
       <c r="Z209" s="5"/>
     </row>
-    <row r="210" spans="1:26" ht="12.75">
+    <row r="210">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -6137,7 +6427,7 @@
       <c r="Y210" s="5"/>
       <c r="Z210" s="5"/>
     </row>
-    <row r="211" spans="1:26" ht="12.75">
+    <row r="211">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -6160,7 +6450,7 @@
       <c r="Y211" s="5"/>
       <c r="Z211" s="5"/>
     </row>
-    <row r="212" spans="1:26" ht="12.75">
+    <row r="212">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -6183,7 +6473,7 @@
       <c r="Y212" s="5"/>
       <c r="Z212" s="5"/>
     </row>
-    <row r="213" spans="1:26" ht="12.75">
+    <row r="213">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -6206,7 +6496,7 @@
       <c r="Y213" s="5"/>
       <c r="Z213" s="5"/>
     </row>
-    <row r="214" spans="1:26" ht="12.75">
+    <row r="214">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -6229,7 +6519,7 @@
       <c r="Y214" s="5"/>
       <c r="Z214" s="5"/>
     </row>
-    <row r="215" spans="1:26" ht="12.75">
+    <row r="215">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -6252,7 +6542,7 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="216" spans="1:26" ht="12.75">
+    <row r="216">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -6275,7 +6565,7 @@
       <c r="Y216" s="5"/>
       <c r="Z216" s="5"/>
     </row>
-    <row r="217" spans="1:26" ht="12.75">
+    <row r="217">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -6298,7 +6588,7 @@
       <c r="Y217" s="5"/>
       <c r="Z217" s="5"/>
     </row>
-    <row r="218" spans="1:26" ht="12.75">
+    <row r="218">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -6321,7 +6611,7 @@
       <c r="Y218" s="5"/>
       <c r="Z218" s="5"/>
     </row>
-    <row r="219" spans="1:26" ht="12.75">
+    <row r="219">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -6344,7 +6634,7 @@
       <c r="Y219" s="5"/>
       <c r="Z219" s="5"/>
     </row>
-    <row r="220" spans="1:26" ht="12.75">
+    <row r="220">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -6367,7 +6657,7 @@
       <c r="Y220" s="5"/>
       <c r="Z220" s="5"/>
     </row>
-    <row r="221" spans="1:26" ht="12.75">
+    <row r="221">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -6390,7 +6680,7 @@
       <c r="Y221" s="5"/>
       <c r="Z221" s="5"/>
     </row>
-    <row r="222" spans="1:26" ht="12.75">
+    <row r="222">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -6413,7 +6703,7 @@
       <c r="Y222" s="5"/>
       <c r="Z222" s="5"/>
     </row>
-    <row r="223" spans="1:26" ht="12.75">
+    <row r="223">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -6436,7 +6726,7 @@
       <c r="Y223" s="5"/>
       <c r="Z223" s="5"/>
     </row>
-    <row r="224" spans="1:26" ht="12.75">
+    <row r="224">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -6459,7 +6749,7 @@
       <c r="Y224" s="5"/>
       <c r="Z224" s="5"/>
     </row>
-    <row r="225" spans="1:26" ht="12.75">
+    <row r="225">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -6482,7 +6772,7 @@
       <c r="Y225" s="5"/>
       <c r="Z225" s="5"/>
     </row>
-    <row r="226" spans="1:26" ht="12.75">
+    <row r="226">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -6505,7 +6795,7 @@
       <c r="Y226" s="5"/>
       <c r="Z226" s="5"/>
     </row>
-    <row r="227" spans="1:26" ht="12.75">
+    <row r="227">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -6528,7 +6818,7 @@
       <c r="Y227" s="5"/>
       <c r="Z227" s="5"/>
     </row>
-    <row r="228" spans="1:26" ht="12.75">
+    <row r="228">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -6551,7 +6841,7 @@
       <c r="Y228" s="5"/>
       <c r="Z228" s="5"/>
     </row>
-    <row r="229" spans="1:26" ht="12.75">
+    <row r="229">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -6574,7 +6864,7 @@
       <c r="Y229" s="5"/>
       <c r="Z229" s="5"/>
     </row>
-    <row r="230" spans="1:26" ht="12.75">
+    <row r="230">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -6597,7 +6887,7 @@
       <c r="Y230" s="5"/>
       <c r="Z230" s="5"/>
     </row>
-    <row r="231" spans="1:26" ht="12.75">
+    <row r="231">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -6620,7 +6910,7 @@
       <c r="Y231" s="5"/>
       <c r="Z231" s="5"/>
     </row>
-    <row r="232" spans="1:26" ht="12.75">
+    <row r="232">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -6643,7 +6933,7 @@
       <c r="Y232" s="5"/>
       <c r="Z232" s="5"/>
     </row>
-    <row r="233" spans="1:26" ht="12.75">
+    <row r="233">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -6666,7 +6956,7 @@
       <c r="Y233" s="5"/>
       <c r="Z233" s="5"/>
     </row>
-    <row r="234" spans="1:26" ht="12.75">
+    <row r="234">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
@@ -6689,7 +6979,7 @@
       <c r="Y234" s="5"/>
       <c r="Z234" s="5"/>
     </row>
-    <row r="235" spans="1:26" ht="12.75">
+    <row r="235">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
@@ -6712,7 +7002,7 @@
       <c r="Y235" s="5"/>
       <c r="Z235" s="5"/>
     </row>
-    <row r="236" spans="1:26" ht="12.75">
+    <row r="236">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
@@ -6735,7 +7025,7 @@
       <c r="Y236" s="5"/>
       <c r="Z236" s="5"/>
     </row>
-    <row r="237" spans="1:26" ht="12.75">
+    <row r="237">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
@@ -6758,7 +7048,7 @@
       <c r="Y237" s="5"/>
       <c r="Z237" s="5"/>
     </row>
-    <row r="238" spans="1:26" ht="12.75">
+    <row r="238">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
@@ -6781,7 +7071,7 @@
       <c r="Y238" s="5"/>
       <c r="Z238" s="5"/>
     </row>
-    <row r="239" spans="1:26" ht="12.75">
+    <row r="239">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -6804,7 +7094,7 @@
       <c r="Y239" s="5"/>
       <c r="Z239" s="5"/>
     </row>
-    <row r="240" spans="1:26" ht="12.75">
+    <row r="240">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
@@ -6827,7 +7117,7 @@
       <c r="Y240" s="5"/>
       <c r="Z240" s="5"/>
     </row>
-    <row r="241" spans="1:26" ht="12.75">
+    <row r="241">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
@@ -6850,7 +7140,7 @@
       <c r="Y241" s="5"/>
       <c r="Z241" s="5"/>
     </row>
-    <row r="242" spans="1:26" ht="12.75">
+    <row r="242">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
@@ -6873,7 +7163,7 @@
       <c r="Y242" s="5"/>
       <c r="Z242" s="5"/>
     </row>
-    <row r="243" spans="1:26" ht="12.75">
+    <row r="243">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
@@ -6896,7 +7186,7 @@
       <c r="Y243" s="5"/>
       <c r="Z243" s="5"/>
     </row>
-    <row r="244" spans="1:26" ht="12.75">
+    <row r="244">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
@@ -6919,7 +7209,7 @@
       <c r="Y244" s="5"/>
       <c r="Z244" s="5"/>
     </row>
-    <row r="245" spans="1:26" ht="12.75">
+    <row r="245">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
@@ -6942,7 +7232,7 @@
       <c r="Y245" s="5"/>
       <c r="Z245" s="5"/>
     </row>
-    <row r="246" spans="1:26" ht="12.75">
+    <row r="246">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
@@ -6965,7 +7255,7 @@
       <c r="Y246" s="5"/>
       <c r="Z246" s="5"/>
     </row>
-    <row r="247" spans="1:26" ht="12.75">
+    <row r="247">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
@@ -6988,7 +7278,7 @@
       <c r="Y247" s="5"/>
       <c r="Z247" s="5"/>
     </row>
-    <row r="248" spans="1:26" ht="12.75">
+    <row r="248">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
@@ -7011,7 +7301,7 @@
       <c r="Y248" s="5"/>
       <c r="Z248" s="5"/>
     </row>
-    <row r="249" spans="1:26" ht="12.75">
+    <row r="249">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
@@ -7034,7 +7324,7 @@
       <c r="Y249" s="5"/>
       <c r="Z249" s="5"/>
     </row>
-    <row r="250" spans="1:26" ht="12.75">
+    <row r="250">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
@@ -7057,7 +7347,7 @@
       <c r="Y250" s="5"/>
       <c r="Z250" s="5"/>
     </row>
-    <row r="251" spans="1:26" ht="12.75">
+    <row r="251">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
@@ -7080,7 +7370,7 @@
       <c r="Y251" s="5"/>
       <c r="Z251" s="5"/>
     </row>
-    <row r="252" spans="1:26" ht="12.75">
+    <row r="252">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
@@ -7103,7 +7393,7 @@
       <c r="Y252" s="5"/>
       <c r="Z252" s="5"/>
     </row>
-    <row r="253" spans="1:26" ht="12.75">
+    <row r="253">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
@@ -7126,7 +7416,7 @@
       <c r="Y253" s="5"/>
       <c r="Z253" s="5"/>
     </row>
-    <row r="254" spans="1:26" ht="12.75">
+    <row r="254">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
@@ -7149,7 +7439,7 @@
       <c r="Y254" s="5"/>
       <c r="Z254" s="5"/>
     </row>
-    <row r="255" spans="1:26" ht="12.75">
+    <row r="255">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
@@ -7172,7 +7462,7 @@
       <c r="Y255" s="5"/>
       <c r="Z255" s="5"/>
     </row>
-    <row r="256" spans="1:26" ht="12.75">
+    <row r="256">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
@@ -7195,7 +7485,7 @@
       <c r="Y256" s="5"/>
       <c r="Z256" s="5"/>
     </row>
-    <row r="257" spans="1:26" ht="12.75">
+    <row r="257">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
@@ -7218,7 +7508,7 @@
       <c r="Y257" s="5"/>
       <c r="Z257" s="5"/>
     </row>
-    <row r="258" spans="1:26" ht="12.75">
+    <row r="258">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
@@ -7241,7 +7531,7 @@
       <c r="Y258" s="5"/>
       <c r="Z258" s="5"/>
     </row>
-    <row r="259" spans="1:26" ht="12.75">
+    <row r="259">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
@@ -7264,7 +7554,7 @@
       <c r="Y259" s="5"/>
       <c r="Z259" s="5"/>
     </row>
-    <row r="260" spans="1:26" ht="12.75">
+    <row r="260">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
@@ -7287,7 +7577,7 @@
       <c r="Y260" s="5"/>
       <c r="Z260" s="5"/>
     </row>
-    <row r="261" spans="1:26" ht="12.75">
+    <row r="261">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
@@ -7310,7 +7600,7 @@
       <c r="Y261" s="5"/>
       <c r="Z261" s="5"/>
     </row>
-    <row r="262" spans="1:26" ht="12.75">
+    <row r="262">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
@@ -7333,7 +7623,7 @@
       <c r="Y262" s="5"/>
       <c r="Z262" s="5"/>
     </row>
-    <row r="263" spans="1:26" ht="12.75">
+    <row r="263">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
@@ -7356,7 +7646,7 @@
       <c r="Y263" s="5"/>
       <c r="Z263" s="5"/>
     </row>
-    <row r="264" spans="1:26" ht="12.75">
+    <row r="264">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
@@ -7379,7 +7669,7 @@
       <c r="Y264" s="5"/>
       <c r="Z264" s="5"/>
     </row>
-    <row r="265" spans="1:26" ht="12.75">
+    <row r="265">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
@@ -7402,7 +7692,7 @@
       <c r="Y265" s="5"/>
       <c r="Z265" s="5"/>
     </row>
-    <row r="266" spans="1:26" ht="12.75">
+    <row r="266">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
@@ -7425,7 +7715,7 @@
       <c r="Y266" s="5"/>
       <c r="Z266" s="5"/>
     </row>
-    <row r="267" spans="1:26" ht="12.75">
+    <row r="267">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
@@ -7448,7 +7738,7 @@
       <c r="Y267" s="5"/>
       <c r="Z267" s="5"/>
     </row>
-    <row r="268" spans="1:26" ht="12.75">
+    <row r="268">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
@@ -7471,7 +7761,7 @@
       <c r="Y268" s="5"/>
       <c r="Z268" s="5"/>
     </row>
-    <row r="269" spans="1:26" ht="12.75">
+    <row r="269">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
@@ -7494,7 +7784,7 @@
       <c r="Y269" s="5"/>
       <c r="Z269" s="5"/>
     </row>
-    <row r="270" spans="1:26" ht="12.75">
+    <row r="270">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
@@ -7517,7 +7807,7 @@
       <c r="Y270" s="5"/>
       <c r="Z270" s="5"/>
     </row>
-    <row r="271" spans="1:26" ht="12.75">
+    <row r="271">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
@@ -7540,7 +7830,7 @@
       <c r="Y271" s="5"/>
       <c r="Z271" s="5"/>
     </row>
-    <row r="272" spans="1:26" ht="12.75">
+    <row r="272">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
@@ -7563,7 +7853,7 @@
       <c r="Y272" s="5"/>
       <c r="Z272" s="5"/>
     </row>
-    <row r="273" spans="1:26" ht="12.75">
+    <row r="273">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
@@ -7586,7 +7876,7 @@
       <c r="Y273" s="5"/>
       <c r="Z273" s="5"/>
     </row>
-    <row r="274" spans="1:26" ht="12.75">
+    <row r="274">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
@@ -7609,7 +7899,7 @@
       <c r="Y274" s="5"/>
       <c r="Z274" s="5"/>
     </row>
-    <row r="275" spans="1:26" ht="12.75">
+    <row r="275">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
@@ -7632,7 +7922,7 @@
       <c r="Y275" s="5"/>
       <c r="Z275" s="5"/>
     </row>
-    <row r="276" spans="1:26" ht="12.75">
+    <row r="276">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
@@ -7655,7 +7945,7 @@
       <c r="Y276" s="5"/>
       <c r="Z276" s="5"/>
     </row>
-    <row r="277" spans="1:26" ht="12.75">
+    <row r="277">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
@@ -7678,7 +7968,7 @@
       <c r="Y277" s="5"/>
       <c r="Z277" s="5"/>
     </row>
-    <row r="278" spans="1:26" ht="12.75">
+    <row r="278">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
@@ -7701,7 +7991,7 @@
       <c r="Y278" s="5"/>
       <c r="Z278" s="5"/>
     </row>
-    <row r="279" spans="1:26" ht="12.75">
+    <row r="279">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
@@ -7724,7 +8014,7 @@
       <c r="Y279" s="5"/>
       <c r="Z279" s="5"/>
     </row>
-    <row r="280" spans="1:26" ht="12.75">
+    <row r="280">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
@@ -7747,7 +8037,7 @@
       <c r="Y280" s="5"/>
       <c r="Z280" s="5"/>
     </row>
-    <row r="281" spans="1:26" ht="12.75">
+    <row r="281">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
@@ -7770,7 +8060,7 @@
       <c r="Y281" s="5"/>
       <c r="Z281" s="5"/>
     </row>
-    <row r="282" spans="1:26" ht="12.75">
+    <row r="282">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
@@ -7793,7 +8083,7 @@
       <c r="Y282" s="5"/>
       <c r="Z282" s="5"/>
     </row>
-    <row r="283" spans="1:26" ht="12.75">
+    <row r="283">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
@@ -7816,7 +8106,7 @@
       <c r="Y283" s="5"/>
       <c r="Z283" s="5"/>
     </row>
-    <row r="284" spans="1:26" ht="12.75">
+    <row r="284">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
@@ -7839,7 +8129,7 @@
       <c r="Y284" s="5"/>
       <c r="Z284" s="5"/>
     </row>
-    <row r="285" spans="1:26" ht="12.75">
+    <row r="285">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
@@ -7862,7 +8152,7 @@
       <c r="Y285" s="5"/>
       <c r="Z285" s="5"/>
     </row>
-    <row r="286" spans="1:26" ht="12.75">
+    <row r="286">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
@@ -7885,7 +8175,7 @@
       <c r="Y286" s="5"/>
       <c r="Z286" s="5"/>
     </row>
-    <row r="287" spans="1:26" ht="12.75">
+    <row r="287">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
@@ -7908,7 +8198,7 @@
       <c r="Y287" s="5"/>
       <c r="Z287" s="5"/>
     </row>
-    <row r="288" spans="1:26" ht="12.75">
+    <row r="288">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
@@ -7931,7 +8221,7 @@
       <c r="Y288" s="5"/>
       <c r="Z288" s="5"/>
     </row>
-    <row r="289" spans="1:26" ht="12.75">
+    <row r="289">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
@@ -7954,7 +8244,7 @@
       <c r="Y289" s="5"/>
       <c r="Z289" s="5"/>
     </row>
-    <row r="290" spans="1:26" ht="12.75">
+    <row r="290">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
@@ -7977,7 +8267,7 @@
       <c r="Y290" s="5"/>
       <c r="Z290" s="5"/>
     </row>
-    <row r="291" spans="1:26" ht="12.75">
+    <row r="291">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
@@ -8000,7 +8290,7 @@
       <c r="Y291" s="5"/>
       <c r="Z291" s="5"/>
     </row>
-    <row r="292" spans="1:26" ht="12.75">
+    <row r="292">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
@@ -8023,7 +8313,7 @@
       <c r="Y292" s="5"/>
       <c r="Z292" s="5"/>
     </row>
-    <row r="293" spans="1:26" ht="12.75">
+    <row r="293">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
@@ -8046,7 +8336,7 @@
       <c r="Y293" s="5"/>
       <c r="Z293" s="5"/>
     </row>
-    <row r="294" spans="1:26" ht="12.75">
+    <row r="294">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
@@ -8069,7 +8359,7 @@
       <c r="Y294" s="5"/>
       <c r="Z294" s="5"/>
     </row>
-    <row r="295" spans="1:26" ht="12.75">
+    <row r="295">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
@@ -8092,7 +8382,7 @@
       <c r="Y295" s="5"/>
       <c r="Z295" s="5"/>
     </row>
-    <row r="296" spans="1:26" ht="12.75">
+    <row r="296">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
@@ -8115,7 +8405,7 @@
       <c r="Y296" s="5"/>
       <c r="Z296" s="5"/>
     </row>
-    <row r="297" spans="1:26" ht="12.75">
+    <row r="297">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
@@ -8138,7 +8428,7 @@
       <c r="Y297" s="5"/>
       <c r="Z297" s="5"/>
     </row>
-    <row r="298" spans="1:26" ht="12.75">
+    <row r="298">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
@@ -8161,7 +8451,7 @@
       <c r="Y298" s="5"/>
       <c r="Z298" s="5"/>
     </row>
-    <row r="299" spans="1:26" ht="12.75">
+    <row r="299">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
@@ -8184,7 +8474,7 @@
       <c r="Y299" s="5"/>
       <c r="Z299" s="5"/>
     </row>
-    <row r="300" spans="1:26" ht="12.75">
+    <row r="300">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
@@ -8207,7 +8497,7 @@
       <c r="Y300" s="5"/>
       <c r="Z300" s="5"/>
     </row>
-    <row r="301" spans="1:26" ht="12.75">
+    <row r="301">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
@@ -8230,7 +8520,7 @@
       <c r="Y301" s="5"/>
       <c r="Z301" s="5"/>
     </row>
-    <row r="302" spans="1:26" ht="12.75">
+    <row r="302">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
@@ -8253,7 +8543,7 @@
       <c r="Y302" s="5"/>
       <c r="Z302" s="5"/>
     </row>
-    <row r="303" spans="1:26" ht="12.75">
+    <row r="303">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
@@ -8276,7 +8566,7 @@
       <c r="Y303" s="5"/>
       <c r="Z303" s="5"/>
     </row>
-    <row r="304" spans="1:26" ht="12.75">
+    <row r="304">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
@@ -8299,7 +8589,7 @@
       <c r="Y304" s="5"/>
       <c r="Z304" s="5"/>
     </row>
-    <row r="305" spans="1:26" ht="12.75">
+    <row r="305">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
@@ -8322,7 +8612,7 @@
       <c r="Y305" s="5"/>
       <c r="Z305" s="5"/>
     </row>
-    <row r="306" spans="1:26" ht="12.75">
+    <row r="306">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
@@ -8345,7 +8635,7 @@
       <c r="Y306" s="5"/>
       <c r="Z306" s="5"/>
     </row>
-    <row r="307" spans="1:26" ht="12.75">
+    <row r="307">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
@@ -8368,7 +8658,7 @@
       <c r="Y307" s="5"/>
       <c r="Z307" s="5"/>
     </row>
-    <row r="308" spans="1:26" ht="12.75">
+    <row r="308">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
@@ -8391,7 +8681,7 @@
       <c r="Y308" s="5"/>
       <c r="Z308" s="5"/>
     </row>
-    <row r="309" spans="1:26" ht="12.75">
+    <row r="309">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
@@ -8414,7 +8704,7 @@
       <c r="Y309" s="5"/>
       <c r="Z309" s="5"/>
     </row>
-    <row r="310" spans="1:26" ht="12.75">
+    <row r="310">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
@@ -8437,7 +8727,7 @@
       <c r="Y310" s="5"/>
       <c r="Z310" s="5"/>
     </row>
-    <row r="311" spans="1:26" ht="12.75">
+    <row r="311">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
@@ -8460,7 +8750,7 @@
       <c r="Y311" s="5"/>
       <c r="Z311" s="5"/>
     </row>
-    <row r="312" spans="1:26" ht="12.75">
+    <row r="312">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
@@ -8483,7 +8773,7 @@
       <c r="Y312" s="5"/>
       <c r="Z312" s="5"/>
     </row>
-    <row r="313" spans="1:26" ht="12.75">
+    <row r="313">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
@@ -8506,7 +8796,7 @@
       <c r="Y313" s="5"/>
       <c r="Z313" s="5"/>
     </row>
-    <row r="314" spans="1:26" ht="12.75">
+    <row r="314">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
@@ -8529,7 +8819,7 @@
       <c r="Y314" s="5"/>
       <c r="Z314" s="5"/>
     </row>
-    <row r="315" spans="1:26" ht="12.75">
+    <row r="315">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
@@ -8552,7 +8842,7 @@
       <c r="Y315" s="5"/>
       <c r="Z315" s="5"/>
     </row>
-    <row r="316" spans="1:26" ht="12.75">
+    <row r="316">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
@@ -8575,7 +8865,7 @@
       <c r="Y316" s="5"/>
       <c r="Z316" s="5"/>
     </row>
-    <row r="317" spans="1:26" ht="12.75">
+    <row r="317">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
@@ -8598,7 +8888,7 @@
       <c r="Y317" s="5"/>
       <c r="Z317" s="5"/>
     </row>
-    <row r="318" spans="1:26" ht="12.75">
+    <row r="318">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
@@ -8621,7 +8911,7 @@
       <c r="Y318" s="5"/>
       <c r="Z318" s="5"/>
     </row>
-    <row r="319" spans="1:26" ht="12.75">
+    <row r="319">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
@@ -8644,7 +8934,7 @@
       <c r="Y319" s="5"/>
       <c r="Z319" s="5"/>
     </row>
-    <row r="320" spans="1:26" ht="12.75">
+    <row r="320">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
@@ -8667,7 +8957,7 @@
       <c r="Y320" s="5"/>
       <c r="Z320" s="5"/>
     </row>
-    <row r="321" spans="1:26" ht="12.75">
+    <row r="321">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
@@ -8690,7 +8980,7 @@
       <c r="Y321" s="5"/>
       <c r="Z321" s="5"/>
     </row>
-    <row r="322" spans="1:26" ht="12.75">
+    <row r="322">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
@@ -8713,7 +9003,7 @@
       <c r="Y322" s="5"/>
       <c r="Z322" s="5"/>
     </row>
-    <row r="323" spans="1:26" ht="12.75">
+    <row r="323">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
@@ -8736,7 +9026,7 @@
       <c r="Y323" s="5"/>
       <c r="Z323" s="5"/>
     </row>
-    <row r="324" spans="1:26" ht="12.75">
+    <row r="324">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
@@ -8759,7 +9049,7 @@
       <c r="Y324" s="5"/>
       <c r="Z324" s="5"/>
     </row>
-    <row r="325" spans="1:26" ht="12.75">
+    <row r="325">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
@@ -8782,7 +9072,7 @@
       <c r="Y325" s="5"/>
       <c r="Z325" s="5"/>
     </row>
-    <row r="326" spans="1:26" ht="12.75">
+    <row r="326">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
@@ -8805,7 +9095,7 @@
       <c r="Y326" s="5"/>
       <c r="Z326" s="5"/>
     </row>
-    <row r="327" spans="1:26" ht="12.75">
+    <row r="327">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
@@ -8828,7 +9118,7 @@
       <c r="Y327" s="5"/>
       <c r="Z327" s="5"/>
     </row>
-    <row r="328" spans="1:26" ht="12.75">
+    <row r="328">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
@@ -8851,7 +9141,7 @@
       <c r="Y328" s="5"/>
       <c r="Z328" s="5"/>
     </row>
-    <row r="329" spans="1:26" ht="12.75">
+    <row r="329">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
@@ -8874,7 +9164,7 @@
       <c r="Y329" s="5"/>
       <c r="Z329" s="5"/>
     </row>
-    <row r="330" spans="1:26" ht="12.75">
+    <row r="330">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
@@ -8897,7 +9187,7 @@
       <c r="Y330" s="5"/>
       <c r="Z330" s="5"/>
     </row>
-    <row r="331" spans="1:26" ht="12.75">
+    <row r="331">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
@@ -8920,7 +9210,7 @@
       <c r="Y331" s="5"/>
       <c r="Z331" s="5"/>
     </row>
-    <row r="332" spans="1:26" ht="12.75">
+    <row r="332">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
@@ -8943,7 +9233,7 @@
       <c r="Y332" s="5"/>
       <c r="Z332" s="5"/>
     </row>
-    <row r="333" spans="1:26" ht="12.75">
+    <row r="333">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
@@ -8966,7 +9256,7 @@
       <c r="Y333" s="5"/>
       <c r="Z333" s="5"/>
     </row>
-    <row r="334" spans="1:26" ht="12.75">
+    <row r="334">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
@@ -8989,7 +9279,7 @@
       <c r="Y334" s="5"/>
       <c r="Z334" s="5"/>
     </row>
-    <row r="335" spans="1:26" ht="12.75">
+    <row r="335">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
@@ -9012,7 +9302,7 @@
       <c r="Y335" s="5"/>
       <c r="Z335" s="5"/>
     </row>
-    <row r="336" spans="1:26" ht="12.75">
+    <row r="336">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
@@ -9035,7 +9325,7 @@
       <c r="Y336" s="5"/>
       <c r="Z336" s="5"/>
     </row>
-    <row r="337" spans="1:26" ht="12.75">
+    <row r="337">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
@@ -9058,7 +9348,7 @@
       <c r="Y337" s="5"/>
       <c r="Z337" s="5"/>
     </row>
-    <row r="338" spans="1:26" ht="12.75">
+    <row r="338">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
@@ -9081,7 +9371,7 @@
       <c r="Y338" s="5"/>
       <c r="Z338" s="5"/>
     </row>
-    <row r="339" spans="1:26" ht="12.75">
+    <row r="339">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
@@ -9104,7 +9394,7 @@
       <c r="Y339" s="5"/>
       <c r="Z339" s="5"/>
     </row>
-    <row r="340" spans="1:26" ht="12.75">
+    <row r="340">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
@@ -9127,7 +9417,7 @@
       <c r="Y340" s="5"/>
       <c r="Z340" s="5"/>
     </row>
-    <row r="341" spans="1:26" ht="12.75">
+    <row r="341">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
@@ -9150,7 +9440,7 @@
       <c r="Y341" s="5"/>
       <c r="Z341" s="5"/>
     </row>
-    <row r="342" spans="1:26" ht="12.75">
+    <row r="342">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
@@ -9173,7 +9463,7 @@
       <c r="Y342" s="5"/>
       <c r="Z342" s="5"/>
     </row>
-    <row r="343" spans="1:26" ht="12.75">
+    <row r="343">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -9196,7 +9486,7 @@
       <c r="Y343" s="5"/>
       <c r="Z343" s="5"/>
     </row>
-    <row r="344" spans="1:26" ht="12.75">
+    <row r="344">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
@@ -9219,7 +9509,7 @@
       <c r="Y344" s="5"/>
       <c r="Z344" s="5"/>
     </row>
-    <row r="345" spans="1:26" ht="12.75">
+    <row r="345">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
@@ -9242,7 +9532,7 @@
       <c r="Y345" s="5"/>
       <c r="Z345" s="5"/>
     </row>
-    <row r="346" spans="1:26" ht="12.75">
+    <row r="346">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
@@ -9265,7 +9555,7 @@
       <c r="Y346" s="5"/>
       <c r="Z346" s="5"/>
     </row>
-    <row r="347" spans="1:26" ht="12.75">
+    <row r="347">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
@@ -9288,7 +9578,7 @@
       <c r="Y347" s="5"/>
       <c r="Z347" s="5"/>
     </row>
-    <row r="348" spans="1:26" ht="12.75">
+    <row r="348">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
@@ -9311,7 +9601,7 @@
       <c r="Y348" s="5"/>
       <c r="Z348" s="5"/>
     </row>
-    <row r="349" spans="1:26" ht="12.75">
+    <row r="349">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
@@ -9334,7 +9624,7 @@
       <c r="Y349" s="5"/>
       <c r="Z349" s="5"/>
     </row>
-    <row r="350" spans="1:26" ht="12.75">
+    <row r="350">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
@@ -9357,7 +9647,7 @@
       <c r="Y350" s="5"/>
       <c r="Z350" s="5"/>
     </row>
-    <row r="351" spans="1:26" ht="12.75">
+    <row r="351">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
@@ -9380,7 +9670,7 @@
       <c r="Y351" s="5"/>
       <c r="Z351" s="5"/>
     </row>
-    <row r="352" spans="1:26" ht="12.75">
+    <row r="352">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
@@ -9403,7 +9693,7 @@
       <c r="Y352" s="5"/>
       <c r="Z352" s="5"/>
     </row>
-    <row r="353" spans="1:26" ht="12.75">
+    <row r="353">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
@@ -9426,7 +9716,7 @@
       <c r="Y353" s="5"/>
       <c r="Z353" s="5"/>
     </row>
-    <row r="354" spans="1:26" ht="12.75">
+    <row r="354">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
@@ -9449,7 +9739,7 @@
       <c r="Y354" s="5"/>
       <c r="Z354" s="5"/>
     </row>
-    <row r="355" spans="1:26" ht="12.75">
+    <row r="355">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
@@ -9472,7 +9762,7 @@
       <c r="Y355" s="5"/>
       <c r="Z355" s="5"/>
     </row>
-    <row r="356" spans="1:26" ht="12.75">
+    <row r="356">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
@@ -9495,7 +9785,7 @@
       <c r="Y356" s="5"/>
       <c r="Z356" s="5"/>
     </row>
-    <row r="357" spans="1:26" ht="12.75">
+    <row r="357">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
@@ -9518,7 +9808,7 @@
       <c r="Y357" s="5"/>
       <c r="Z357" s="5"/>
     </row>
-    <row r="358" spans="1:26" ht="12.75">
+    <row r="358">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
@@ -9541,7 +9831,7 @@
       <c r="Y358" s="5"/>
       <c r="Z358" s="5"/>
     </row>
-    <row r="359" spans="1:26" ht="12.75">
+    <row r="359">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
@@ -9564,7 +9854,7 @@
       <c r="Y359" s="5"/>
       <c r="Z359" s="5"/>
     </row>
-    <row r="360" spans="1:26" ht="12.75">
+    <row r="360">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
@@ -9587,7 +9877,7 @@
       <c r="Y360" s="5"/>
       <c r="Z360" s="5"/>
     </row>
-    <row r="361" spans="1:26" ht="12.75">
+    <row r="361">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
@@ -9610,7 +9900,7 @@
       <c r="Y361" s="5"/>
       <c r="Z361" s="5"/>
     </row>
-    <row r="362" spans="1:26" ht="12.75">
+    <row r="362">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
@@ -9633,7 +9923,7 @@
       <c r="Y362" s="5"/>
       <c r="Z362" s="5"/>
     </row>
-    <row r="363" spans="1:26" ht="12.75">
+    <row r="363">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
@@ -9656,7 +9946,7 @@
       <c r="Y363" s="5"/>
       <c r="Z363" s="5"/>
     </row>
-    <row r="364" spans="1:26" ht="12.75">
+    <row r="364">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
@@ -9679,7 +9969,7 @@
       <c r="Y364" s="5"/>
       <c r="Z364" s="5"/>
     </row>
-    <row r="365" spans="1:26" ht="12.75">
+    <row r="365">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
@@ -9702,7 +9992,7 @@
       <c r="Y365" s="5"/>
       <c r="Z365" s="5"/>
     </row>
-    <row r="366" spans="1:26" ht="12.75">
+    <row r="366">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
@@ -9725,7 +10015,7 @@
       <c r="Y366" s="5"/>
       <c r="Z366" s="5"/>
     </row>
-    <row r="367" spans="1:26" ht="12.75">
+    <row r="367">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
@@ -9748,7 +10038,7 @@
       <c r="Y367" s="5"/>
       <c r="Z367" s="5"/>
     </row>
-    <row r="368" spans="1:26" ht="12.75">
+    <row r="368">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
@@ -9771,7 +10061,7 @@
       <c r="Y368" s="5"/>
       <c r="Z368" s="5"/>
     </row>
-    <row r="369" spans="1:26" ht="12.75">
+    <row r="369">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
@@ -9794,7 +10084,7 @@
       <c r="Y369" s="5"/>
       <c r="Z369" s="5"/>
     </row>
-    <row r="370" spans="1:26" ht="12.75">
+    <row r="370">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
@@ -9817,7 +10107,7 @@
       <c r="Y370" s="5"/>
       <c r="Z370" s="5"/>
     </row>
-    <row r="371" spans="1:26" ht="12.75">
+    <row r="371">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
@@ -9840,7 +10130,7 @@
       <c r="Y371" s="5"/>
       <c r="Z371" s="5"/>
     </row>
-    <row r="372" spans="1:26" ht="12.75">
+    <row r="372">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
@@ -9863,7 +10153,7 @@
       <c r="Y372" s="5"/>
       <c r="Z372" s="5"/>
     </row>
-    <row r="373" spans="1:26" ht="12.75">
+    <row r="373">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
@@ -9886,7 +10176,7 @@
       <c r="Y373" s="5"/>
       <c r="Z373" s="5"/>
     </row>
-    <row r="374" spans="1:26" ht="12.75">
+    <row r="374">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
@@ -9909,7 +10199,7 @@
       <c r="Y374" s="5"/>
       <c r="Z374" s="5"/>
     </row>
-    <row r="375" spans="1:26" ht="12.75">
+    <row r="375">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
@@ -9932,7 +10222,7 @@
       <c r="Y375" s="5"/>
       <c r="Z375" s="5"/>
     </row>
-    <row r="376" spans="1:26" ht="12.75">
+    <row r="376">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
@@ -9955,7 +10245,7 @@
       <c r="Y376" s="5"/>
       <c r="Z376" s="5"/>
     </row>
-    <row r="377" spans="1:26" ht="12.75">
+    <row r="377">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
@@ -9978,7 +10268,7 @@
       <c r="Y377" s="5"/>
       <c r="Z377" s="5"/>
     </row>
-    <row r="378" spans="1:26" ht="12.75">
+    <row r="378">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
@@ -10001,7 +10291,7 @@
       <c r="Y378" s="5"/>
       <c r="Z378" s="5"/>
     </row>
-    <row r="379" spans="1:26" ht="12.75">
+    <row r="379">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
@@ -10024,7 +10314,7 @@
       <c r="Y379" s="5"/>
       <c r="Z379" s="5"/>
     </row>
-    <row r="380" spans="1:26" ht="12.75">
+    <row r="380">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
@@ -10047,7 +10337,7 @@
       <c r="Y380" s="5"/>
       <c r="Z380" s="5"/>
     </row>
-    <row r="381" spans="1:26" ht="12.75">
+    <row r="381">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
@@ -10070,7 +10360,7 @@
       <c r="Y381" s="5"/>
       <c r="Z381" s="5"/>
     </row>
-    <row r="382" spans="1:26" ht="12.75">
+    <row r="382">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
@@ -10093,7 +10383,7 @@
       <c r="Y382" s="5"/>
       <c r="Z382" s="5"/>
     </row>
-    <row r="383" spans="1:26" ht="12.75">
+    <row r="383">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
@@ -10116,7 +10406,7 @@
       <c r="Y383" s="5"/>
       <c r="Z383" s="5"/>
     </row>
-    <row r="384" spans="1:26" ht="12.75">
+    <row r="384">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
@@ -10139,7 +10429,7 @@
       <c r="Y384" s="5"/>
       <c r="Z384" s="5"/>
     </row>
-    <row r="385" spans="1:26" ht="12.75">
+    <row r="385">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
@@ -10162,7 +10452,7 @@
       <c r="Y385" s="5"/>
       <c r="Z385" s="5"/>
     </row>
-    <row r="386" spans="1:26" ht="12.75">
+    <row r="386">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
@@ -10185,7 +10475,7 @@
       <c r="Y386" s="5"/>
       <c r="Z386" s="5"/>
     </row>
-    <row r="387" spans="1:26" ht="12.75">
+    <row r="387">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
@@ -10208,7 +10498,7 @@
       <c r="Y387" s="5"/>
       <c r="Z387" s="5"/>
     </row>
-    <row r="388" spans="1:26" ht="12.75">
+    <row r="388">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
@@ -10231,7 +10521,7 @@
       <c r="Y388" s="5"/>
       <c r="Z388" s="5"/>
     </row>
-    <row r="389" spans="1:26" ht="12.75">
+    <row r="389">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
@@ -10254,7 +10544,7 @@
       <c r="Y389" s="5"/>
       <c r="Z389" s="5"/>
     </row>
-    <row r="390" spans="1:26" ht="12.75">
+    <row r="390">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
@@ -10277,7 +10567,7 @@
       <c r="Y390" s="5"/>
       <c r="Z390" s="5"/>
     </row>
-    <row r="391" spans="1:26" ht="12.75">
+    <row r="391">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
@@ -10300,7 +10590,7 @@
       <c r="Y391" s="5"/>
       <c r="Z391" s="5"/>
     </row>
-    <row r="392" spans="1:26" ht="12.75">
+    <row r="392">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
@@ -10323,7 +10613,7 @@
       <c r="Y392" s="5"/>
       <c r="Z392" s="5"/>
     </row>
-    <row r="393" spans="1:26" ht="12.75">
+    <row r="393">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
@@ -10346,7 +10636,7 @@
       <c r="Y393" s="5"/>
       <c r="Z393" s="5"/>
     </row>
-    <row r="394" spans="1:26" ht="12.75">
+    <row r="394">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
@@ -10369,7 +10659,7 @@
       <c r="Y394" s="5"/>
       <c r="Z394" s="5"/>
     </row>
-    <row r="395" spans="1:26" ht="12.75">
+    <row r="395">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
@@ -10392,7 +10682,7 @@
       <c r="Y395" s="5"/>
       <c r="Z395" s="5"/>
     </row>
-    <row r="396" spans="1:26" ht="12.75">
+    <row r="396">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
@@ -10415,7 +10705,7 @@
       <c r="Y396" s="5"/>
       <c r="Z396" s="5"/>
     </row>
-    <row r="397" spans="1:26" ht="12.75">
+    <row r="397">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
@@ -10438,7 +10728,7 @@
       <c r="Y397" s="5"/>
       <c r="Z397" s="5"/>
     </row>
-    <row r="398" spans="1:26" ht="12.75">
+    <row r="398">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
@@ -10461,7 +10751,7 @@
       <c r="Y398" s="5"/>
       <c r="Z398" s="5"/>
     </row>
-    <row r="399" spans="1:26" ht="12.75">
+    <row r="399">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
@@ -10484,7 +10774,7 @@
       <c r="Y399" s="5"/>
       <c r="Z399" s="5"/>
     </row>
-    <row r="400" spans="1:26" ht="12.75">
+    <row r="400">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
@@ -10507,7 +10797,7 @@
       <c r="Y400" s="5"/>
       <c r="Z400" s="5"/>
     </row>
-    <row r="401" spans="1:26" ht="12.75">
+    <row r="401">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
@@ -10530,7 +10820,7 @@
       <c r="Y401" s="5"/>
       <c r="Z401" s="5"/>
     </row>
-    <row r="402" spans="1:26" ht="12.75">
+    <row r="402">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
@@ -10553,7 +10843,7 @@
       <c r="Y402" s="5"/>
       <c r="Z402" s="5"/>
     </row>
-    <row r="403" spans="1:26" ht="12.75">
+    <row r="403">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
@@ -10576,7 +10866,7 @@
       <c r="Y403" s="5"/>
       <c r="Z403" s="5"/>
     </row>
-    <row r="404" spans="1:26" ht="12.75">
+    <row r="404">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
@@ -10599,7 +10889,7 @@
       <c r="Y404" s="5"/>
       <c r="Z404" s="5"/>
     </row>
-    <row r="405" spans="1:26" ht="12.75">
+    <row r="405">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
@@ -10622,7 +10912,7 @@
       <c r="Y405" s="5"/>
       <c r="Z405" s="5"/>
     </row>
-    <row r="406" spans="1:26" ht="12.75">
+    <row r="406">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
@@ -10645,7 +10935,7 @@
       <c r="Y406" s="5"/>
       <c r="Z406" s="5"/>
     </row>
-    <row r="407" spans="1:26" ht="12.75">
+    <row r="407">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
@@ -10668,7 +10958,7 @@
       <c r="Y407" s="5"/>
       <c r="Z407" s="5"/>
     </row>
-    <row r="408" spans="1:26" ht="12.75">
+    <row r="408">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
@@ -10691,7 +10981,7 @@
       <c r="Y408" s="5"/>
       <c r="Z408" s="5"/>
     </row>
-    <row r="409" spans="1:26" ht="12.75">
+    <row r="409">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
@@ -10714,7 +11004,7 @@
       <c r="Y409" s="5"/>
       <c r="Z409" s="5"/>
     </row>
-    <row r="410" spans="1:26" ht="12.75">
+    <row r="410">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
@@ -10737,7 +11027,7 @@
       <c r="Y410" s="5"/>
       <c r="Z410" s="5"/>
     </row>
-    <row r="411" spans="1:26" ht="12.75">
+    <row r="411">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
@@ -10760,7 +11050,7 @@
       <c r="Y411" s="5"/>
       <c r="Z411" s="5"/>
     </row>
-    <row r="412" spans="1:26" ht="12.75">
+    <row r="412">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
@@ -10783,7 +11073,7 @@
       <c r="Y412" s="5"/>
       <c r="Z412" s="5"/>
     </row>
-    <row r="413" spans="1:26" ht="12.75">
+    <row r="413">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
@@ -10806,7 +11096,7 @@
       <c r="Y413" s="5"/>
       <c r="Z413" s="5"/>
     </row>
-    <row r="414" spans="1:26" ht="12.75">
+    <row r="414">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
@@ -10829,7 +11119,7 @@
       <c r="Y414" s="5"/>
       <c r="Z414" s="5"/>
     </row>
-    <row r="415" spans="1:26" ht="12.75">
+    <row r="415">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
@@ -10852,7 +11142,7 @@
       <c r="Y415" s="5"/>
       <c r="Z415" s="5"/>
     </row>
-    <row r="416" spans="1:26" ht="12.75">
+    <row r="416">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
@@ -10875,7 +11165,7 @@
       <c r="Y416" s="5"/>
       <c r="Z416" s="5"/>
     </row>
-    <row r="417" spans="1:26" ht="12.75">
+    <row r="417">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
@@ -10898,7 +11188,7 @@
       <c r="Y417" s="5"/>
       <c r="Z417" s="5"/>
     </row>
-    <row r="418" spans="1:26" ht="12.75">
+    <row r="418">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
@@ -10921,7 +11211,7 @@
       <c r="Y418" s="5"/>
       <c r="Z418" s="5"/>
     </row>
-    <row r="419" spans="1:26" ht="12.75">
+    <row r="419">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
@@ -10944,7 +11234,7 @@
       <c r="Y419" s="5"/>
       <c r="Z419" s="5"/>
     </row>
-    <row r="420" spans="1:26" ht="12.75">
+    <row r="420">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
@@ -10967,7 +11257,7 @@
       <c r="Y420" s="5"/>
       <c r="Z420" s="5"/>
     </row>
-    <row r="421" spans="1:26" ht="12.75">
+    <row r="421">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
@@ -10990,7 +11280,7 @@
       <c r="Y421" s="5"/>
       <c r="Z421" s="5"/>
     </row>
-    <row r="422" spans="1:26" ht="12.75">
+    <row r="422">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
@@ -11013,7 +11303,7 @@
       <c r="Y422" s="5"/>
       <c r="Z422" s="5"/>
     </row>
-    <row r="423" spans="1:26" ht="12.75">
+    <row r="423">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
@@ -11036,7 +11326,7 @@
       <c r="Y423" s="5"/>
       <c r="Z423" s="5"/>
     </row>
-    <row r="424" spans="1:26" ht="12.75">
+    <row r="424">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
@@ -11059,7 +11349,7 @@
       <c r="Y424" s="5"/>
       <c r="Z424" s="5"/>
     </row>
-    <row r="425" spans="1:26" ht="12.75">
+    <row r="425">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
@@ -11082,7 +11372,7 @@
       <c r="Y425" s="5"/>
       <c r="Z425" s="5"/>
     </row>
-    <row r="426" spans="1:26" ht="12.75">
+    <row r="426">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
@@ -11105,7 +11395,7 @@
       <c r="Y426" s="5"/>
       <c r="Z426" s="5"/>
     </row>
-    <row r="427" spans="1:26" ht="12.75">
+    <row r="427">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
@@ -11128,7 +11418,7 @@
       <c r="Y427" s="5"/>
       <c r="Z427" s="5"/>
     </row>
-    <row r="428" spans="1:26" ht="12.75">
+    <row r="428">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
@@ -11151,7 +11441,7 @@
       <c r="Y428" s="5"/>
       <c r="Z428" s="5"/>
     </row>
-    <row r="429" spans="1:26" ht="12.75">
+    <row r="429">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
@@ -11174,7 +11464,7 @@
       <c r="Y429" s="5"/>
       <c r="Z429" s="5"/>
     </row>
-    <row r="430" spans="1:26" ht="12.75">
+    <row r="430">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
@@ -11197,7 +11487,7 @@
       <c r="Y430" s="5"/>
       <c r="Z430" s="5"/>
     </row>
-    <row r="431" spans="1:26" ht="12.75">
+    <row r="431">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
@@ -11220,7 +11510,7 @@
       <c r="Y431" s="5"/>
       <c r="Z431" s="5"/>
     </row>
-    <row r="432" spans="1:26" ht="12.75">
+    <row r="432">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
@@ -11243,7 +11533,7 @@
       <c r="Y432" s="5"/>
       <c r="Z432" s="5"/>
     </row>
-    <row r="433" spans="1:26" ht="12.75">
+    <row r="433">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
@@ -11266,7 +11556,7 @@
       <c r="Y433" s="5"/>
       <c r="Z433" s="5"/>
     </row>
-    <row r="434" spans="1:26" ht="12.75">
+    <row r="434">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
@@ -11289,7 +11579,7 @@
       <c r="Y434" s="5"/>
       <c r="Z434" s="5"/>
     </row>
-    <row r="435" spans="1:26" ht="12.75">
+    <row r="435">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
@@ -11312,7 +11602,7 @@
       <c r="Y435" s="5"/>
       <c r="Z435" s="5"/>
     </row>
-    <row r="436" spans="1:26" ht="12.75">
+    <row r="436">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
@@ -11335,7 +11625,7 @@
       <c r="Y436" s="5"/>
       <c r="Z436" s="5"/>
     </row>
-    <row r="437" spans="1:26" ht="12.75">
+    <row r="437">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
@@ -11358,7 +11648,7 @@
       <c r="Y437" s="5"/>
       <c r="Z437" s="5"/>
     </row>
-    <row r="438" spans="1:26" ht="12.75">
+    <row r="438">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
@@ -11381,7 +11671,7 @@
       <c r="Y438" s="5"/>
       <c r="Z438" s="5"/>
     </row>
-    <row r="439" spans="1:26" ht="12.75">
+    <row r="439">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
@@ -11404,7 +11694,7 @@
       <c r="Y439" s="5"/>
       <c r="Z439" s="5"/>
     </row>
-    <row r="440" spans="1:26" ht="12.75">
+    <row r="440">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
@@ -11427,7 +11717,7 @@
       <c r="Y440" s="5"/>
       <c r="Z440" s="5"/>
     </row>
-    <row r="441" spans="1:26" ht="12.75">
+    <row r="441">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
@@ -11450,7 +11740,7 @@
       <c r="Y441" s="5"/>
       <c r="Z441" s="5"/>
     </row>
-    <row r="442" spans="1:26" ht="12.75">
+    <row r="442">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
@@ -11473,7 +11763,7 @@
       <c r="Y442" s="5"/>
       <c r="Z442" s="5"/>
     </row>
-    <row r="443" spans="1:26" ht="12.75">
+    <row r="443">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
@@ -11496,7 +11786,7 @@
       <c r="Y443" s="5"/>
       <c r="Z443" s="5"/>
     </row>
-    <row r="444" spans="1:26" ht="12.75">
+    <row r="444">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
@@ -11519,7 +11809,7 @@
       <c r="Y444" s="5"/>
       <c r="Z444" s="5"/>
     </row>
-    <row r="445" spans="1:26" ht="12.75">
+    <row r="445">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
@@ -11542,7 +11832,7 @@
       <c r="Y445" s="5"/>
       <c r="Z445" s="5"/>
     </row>
-    <row r="446" spans="1:26" ht="12.75">
+    <row r="446">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
@@ -11565,7 +11855,7 @@
       <c r="Y446" s="5"/>
       <c r="Z446" s="5"/>
     </row>
-    <row r="447" spans="1:26" ht="12.75">
+    <row r="447">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
@@ -11588,7 +11878,7 @@
       <c r="Y447" s="5"/>
       <c r="Z447" s="5"/>
     </row>
-    <row r="448" spans="1:26" ht="12.75">
+    <row r="448">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
@@ -11611,7 +11901,7 @@
       <c r="Y448" s="5"/>
       <c r="Z448" s="5"/>
     </row>
-    <row r="449" spans="1:26" ht="12.75">
+    <row r="449">
       <c r="A449" s="5"/>
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
@@ -11634,7 +11924,7 @@
       <c r="Y449" s="5"/>
       <c r="Z449" s="5"/>
     </row>
-    <row r="450" spans="1:26" ht="12.75">
+    <row r="450">
       <c r="A450" s="5"/>
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
@@ -11657,7 +11947,7 @@
       <c r="Y450" s="5"/>
       <c r="Z450" s="5"/>
     </row>
-    <row r="451" spans="1:26" ht="12.75">
+    <row r="451">
       <c r="A451" s="5"/>
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
@@ -11680,7 +11970,7 @@
       <c r="Y451" s="5"/>
       <c r="Z451" s="5"/>
     </row>
-    <row r="452" spans="1:26" ht="12.75">
+    <row r="452">
       <c r="A452" s="5"/>
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
@@ -11703,7 +11993,7 @@
       <c r="Y452" s="5"/>
       <c r="Z452" s="5"/>
     </row>
-    <row r="453" spans="1:26" ht="12.75">
+    <row r="453">
       <c r="A453" s="5"/>
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
@@ -11726,7 +12016,7 @@
       <c r="Y453" s="5"/>
       <c r="Z453" s="5"/>
     </row>
-    <row r="454" spans="1:26" ht="12.75">
+    <row r="454">
       <c r="A454" s="5"/>
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
@@ -11749,7 +12039,7 @@
       <c r="Y454" s="5"/>
       <c r="Z454" s="5"/>
     </row>
-    <row r="455" spans="1:26" ht="12.75">
+    <row r="455">
       <c r="A455" s="5"/>
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
@@ -11772,7 +12062,7 @@
       <c r="Y455" s="5"/>
       <c r="Z455" s="5"/>
     </row>
-    <row r="456" spans="1:26" ht="12.75">
+    <row r="456">
       <c r="A456" s="5"/>
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
@@ -11795,7 +12085,7 @@
       <c r="Y456" s="5"/>
       <c r="Z456" s="5"/>
     </row>
-    <row r="457" spans="1:26" ht="12.75">
+    <row r="457">
       <c r="A457" s="5"/>
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
@@ -11818,7 +12108,7 @@
       <c r="Y457" s="5"/>
       <c r="Z457" s="5"/>
     </row>
-    <row r="458" spans="1:26" ht="12.75">
+    <row r="458">
       <c r="A458" s="5"/>
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
@@ -11841,7 +12131,7 @@
       <c r="Y458" s="5"/>
       <c r="Z458" s="5"/>
     </row>
-    <row r="459" spans="1:26" ht="12.75">
+    <row r="459">
       <c r="A459" s="5"/>
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
@@ -11864,7 +12154,7 @@
       <c r="Y459" s="5"/>
       <c r="Z459" s="5"/>
     </row>
-    <row r="460" spans="1:26" ht="12.75">
+    <row r="460">
       <c r="A460" s="5"/>
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
@@ -11887,7 +12177,7 @@
       <c r="Y460" s="5"/>
       <c r="Z460" s="5"/>
     </row>
-    <row r="461" spans="1:26" ht="12.75">
+    <row r="461">
       <c r="A461" s="5"/>
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
@@ -11910,7 +12200,7 @@
       <c r="Y461" s="5"/>
       <c r="Z461" s="5"/>
     </row>
-    <row r="462" spans="1:26" ht="12.75">
+    <row r="462">
       <c r="A462" s="5"/>
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
@@ -11933,7 +12223,7 @@
       <c r="Y462" s="5"/>
       <c r="Z462" s="5"/>
     </row>
-    <row r="463" spans="1:26" ht="12.75">
+    <row r="463">
       <c r="A463" s="5"/>
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
@@ -11956,7 +12246,7 @@
       <c r="Y463" s="5"/>
       <c r="Z463" s="5"/>
     </row>
-    <row r="464" spans="1:26" ht="12.75">
+    <row r="464">
       <c r="A464" s="5"/>
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
@@ -11979,7 +12269,7 @@
       <c r="Y464" s="5"/>
       <c r="Z464" s="5"/>
     </row>
-    <row r="465" spans="1:26" ht="12.75">
+    <row r="465">
       <c r="A465" s="5"/>
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
@@ -12002,7 +12292,7 @@
       <c r="Y465" s="5"/>
       <c r="Z465" s="5"/>
     </row>
-    <row r="466" spans="1:26" ht="12.75">
+    <row r="466">
       <c r="A466" s="5"/>
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
@@ -12025,7 +12315,7 @@
       <c r="Y466" s="5"/>
       <c r="Z466" s="5"/>
     </row>
-    <row r="467" spans="1:26" ht="12.75">
+    <row r="467">
       <c r="A467" s="5"/>
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
@@ -12048,7 +12338,7 @@
       <c r="Y467" s="5"/>
       <c r="Z467" s="5"/>
     </row>
-    <row r="468" spans="1:26" ht="12.75">
+    <row r="468">
       <c r="A468" s="5"/>
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
@@ -12071,7 +12361,7 @@
       <c r="Y468" s="5"/>
       <c r="Z468" s="5"/>
     </row>
-    <row r="469" spans="1:26" ht="12.75">
+    <row r="469">
       <c r="A469" s="5"/>
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
@@ -12094,7 +12384,7 @@
       <c r="Y469" s="5"/>
       <c r="Z469" s="5"/>
     </row>
-    <row r="470" spans="1:26" ht="12.75">
+    <row r="470">
       <c r="A470" s="5"/>
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
@@ -12117,7 +12407,7 @@
       <c r="Y470" s="5"/>
       <c r="Z470" s="5"/>
     </row>
-    <row r="471" spans="1:26" ht="12.75">
+    <row r="471">
       <c r="A471" s="5"/>
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
@@ -12140,7 +12430,7 @@
       <c r="Y471" s="5"/>
       <c r="Z471" s="5"/>
     </row>
-    <row r="472" spans="1:26" ht="12.75">
+    <row r="472">
       <c r="A472" s="5"/>
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
@@ -12163,7 +12453,7 @@
       <c r="Y472" s="5"/>
       <c r="Z472" s="5"/>
     </row>
-    <row r="473" spans="1:26" ht="12.75">
+    <row r="473">
       <c r="A473" s="5"/>
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
@@ -12186,7 +12476,7 @@
       <c r="Y473" s="5"/>
       <c r="Z473" s="5"/>
     </row>
-    <row r="474" spans="1:26" ht="12.75">
+    <row r="474">
       <c r="A474" s="5"/>
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
@@ -12209,7 +12499,7 @@
       <c r="Y474" s="5"/>
       <c r="Z474" s="5"/>
     </row>
-    <row r="475" spans="1:26" ht="12.75">
+    <row r="475">
       <c r="A475" s="5"/>
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
@@ -12232,7 +12522,7 @@
       <c r="Y475" s="5"/>
       <c r="Z475" s="5"/>
     </row>
-    <row r="476" spans="1:26" ht="12.75">
+    <row r="476">
       <c r="A476" s="5"/>
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
@@ -12255,7 +12545,7 @@
       <c r="Y476" s="5"/>
       <c r="Z476" s="5"/>
     </row>
-    <row r="477" spans="1:26" ht="12.75">
+    <row r="477">
       <c r="A477" s="5"/>
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
@@ -12278,7 +12568,7 @@
       <c r="Y477" s="5"/>
       <c r="Z477" s="5"/>
     </row>
-    <row r="478" spans="1:26" ht="12.75">
+    <row r="478">
       <c r="A478" s="5"/>
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
@@ -12301,7 +12591,7 @@
       <c r="Y478" s="5"/>
       <c r="Z478" s="5"/>
     </row>
-    <row r="479" spans="1:26" ht="12.75">
+    <row r="479">
       <c r="A479" s="5"/>
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
@@ -12324,7 +12614,7 @@
       <c r="Y479" s="5"/>
       <c r="Z479" s="5"/>
     </row>
-    <row r="480" spans="1:26" ht="12.75">
+    <row r="480">
       <c r="A480" s="5"/>
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
@@ -12347,7 +12637,7 @@
       <c r="Y480" s="5"/>
       <c r="Z480" s="5"/>
     </row>
-    <row r="481" spans="1:26" ht="12.75">
+    <row r="481">
       <c r="A481" s="5"/>
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
@@ -12370,7 +12660,7 @@
       <c r="Y481" s="5"/>
       <c r="Z481" s="5"/>
     </row>
-    <row r="482" spans="1:26" ht="12.75">
+    <row r="482">
       <c r="A482" s="5"/>
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
@@ -12393,7 +12683,7 @@
       <c r="Y482" s="5"/>
       <c r="Z482" s="5"/>
     </row>
-    <row r="483" spans="1:26" ht="12.75">
+    <row r="483">
       <c r="A483" s="5"/>
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
@@ -12416,7 +12706,7 @@
       <c r="Y483" s="5"/>
       <c r="Z483" s="5"/>
     </row>
-    <row r="484" spans="1:26" ht="12.75">
+    <row r="484">
       <c r="A484" s="5"/>
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
@@ -12439,7 +12729,7 @@
       <c r="Y484" s="5"/>
       <c r="Z484" s="5"/>
     </row>
-    <row r="485" spans="1:26" ht="12.75">
+    <row r="485">
       <c r="A485" s="5"/>
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
@@ -12462,7 +12752,7 @@
       <c r="Y485" s="5"/>
       <c r="Z485" s="5"/>
     </row>
-    <row r="486" spans="1:26" ht="12.75">
+    <row r="486">
       <c r="A486" s="5"/>
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
@@ -12485,7 +12775,7 @@
       <c r="Y486" s="5"/>
       <c r="Z486" s="5"/>
     </row>
-    <row r="487" spans="1:26" ht="12.75">
+    <row r="487">
       <c r="A487" s="5"/>
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
@@ -12508,7 +12798,7 @@
       <c r="Y487" s="5"/>
       <c r="Z487" s="5"/>
     </row>
-    <row r="488" spans="1:26" ht="12.75">
+    <row r="488">
       <c r="A488" s="5"/>
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
@@ -12531,7 +12821,7 @@
       <c r="Y488" s="5"/>
       <c r="Z488" s="5"/>
     </row>
-    <row r="489" spans="1:26" ht="12.75">
+    <row r="489">
       <c r="A489" s="5"/>
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
@@ -12554,7 +12844,7 @@
       <c r="Y489" s="5"/>
       <c r="Z489" s="5"/>
     </row>
-    <row r="490" spans="1:26" ht="12.75">
+    <row r="490">
       <c r="A490" s="5"/>
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
@@ -12577,7 +12867,7 @@
       <c r="Y490" s="5"/>
       <c r="Z490" s="5"/>
     </row>
-    <row r="491" spans="1:26" ht="12.75">
+    <row r="491">
       <c r="A491" s="5"/>
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
@@ -12600,7 +12890,7 @@
       <c r="Y491" s="5"/>
       <c r="Z491" s="5"/>
     </row>
-    <row r="492" spans="1:26" ht="12.75">
+    <row r="492">
       <c r="A492" s="5"/>
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
@@ -12623,7 +12913,7 @@
       <c r="Y492" s="5"/>
       <c r="Z492" s="5"/>
     </row>
-    <row r="493" spans="1:26" ht="12.75">
+    <row r="493">
       <c r="A493" s="5"/>
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
@@ -12646,7 +12936,7 @@
       <c r="Y493" s="5"/>
       <c r="Z493" s="5"/>
     </row>
-    <row r="494" spans="1:26" ht="12.75">
+    <row r="494">
       <c r="A494" s="5"/>
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
@@ -12669,7 +12959,7 @@
       <c r="Y494" s="5"/>
       <c r="Z494" s="5"/>
     </row>
-    <row r="495" spans="1:26" ht="12.75">
+    <row r="495">
       <c r="A495" s="5"/>
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
@@ -12692,7 +12982,7 @@
       <c r="Y495" s="5"/>
       <c r="Z495" s="5"/>
     </row>
-    <row r="496" spans="1:26" ht="12.75">
+    <row r="496">
       <c r="A496" s="5"/>
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
@@ -12715,7 +13005,7 @@
       <c r="Y496" s="5"/>
       <c r="Z496" s="5"/>
     </row>
-    <row r="497" spans="1:26" ht="12.75">
+    <row r="497">
       <c r="A497" s="5"/>
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
@@ -12738,7 +13028,7 @@
       <c r="Y497" s="5"/>
       <c r="Z497" s="5"/>
     </row>
-    <row r="498" spans="1:26" ht="12.75">
+    <row r="498">
       <c r="A498" s="5"/>
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
@@ -12761,7 +13051,7 @@
       <c r="Y498" s="5"/>
       <c r="Z498" s="5"/>
     </row>
-    <row r="499" spans="1:26" ht="12.75">
+    <row r="499">
       <c r="A499" s="5"/>
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
@@ -12784,7 +13074,7 @@
       <c r="Y499" s="5"/>
       <c r="Z499" s="5"/>
     </row>
-    <row r="500" spans="1:26" ht="12.75">
+    <row r="500">
       <c r="A500" s="5"/>
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
@@ -12807,7 +13097,7 @@
       <c r="Y500" s="5"/>
       <c r="Z500" s="5"/>
     </row>
-    <row r="501" spans="1:26" ht="12.75">
+    <row r="501">
       <c r="A501" s="5"/>
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
@@ -12830,7 +13120,7 @@
       <c r="Y501" s="5"/>
       <c r="Z501" s="5"/>
     </row>
-    <row r="502" spans="1:26" ht="12.75">
+    <row r="502">
       <c r="A502" s="5"/>
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
@@ -12853,7 +13143,7 @@
       <c r="Y502" s="5"/>
       <c r="Z502" s="5"/>
     </row>
-    <row r="503" spans="1:26" ht="12.75">
+    <row r="503">
       <c r="A503" s="5"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -12876,7 +13166,7 @@
       <c r="Y503" s="5"/>
       <c r="Z503" s="5"/>
     </row>
-    <row r="504" spans="1:26" ht="12.75">
+    <row r="504">
       <c r="A504" s="5"/>
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
@@ -12899,7 +13189,7 @@
       <c r="Y504" s="5"/>
       <c r="Z504" s="5"/>
     </row>
-    <row r="505" spans="1:26" ht="12.75">
+    <row r="505">
       <c r="A505" s="5"/>
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
@@ -12922,7 +13212,7 @@
       <c r="Y505" s="5"/>
       <c r="Z505" s="5"/>
     </row>
-    <row r="506" spans="1:26" ht="12.75">
+    <row r="506">
       <c r="A506" s="5"/>
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
@@ -12945,7 +13235,7 @@
       <c r="Y506" s="5"/>
       <c r="Z506" s="5"/>
     </row>
-    <row r="507" spans="1:26" ht="12.75">
+    <row r="507">
       <c r="A507" s="5"/>
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
@@ -12968,7 +13258,7 @@
       <c r="Y507" s="5"/>
       <c r="Z507" s="5"/>
     </row>
-    <row r="508" spans="1:26" ht="12.75">
+    <row r="508">
       <c r="A508" s="5"/>
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
@@ -12991,7 +13281,7 @@
       <c r="Y508" s="5"/>
       <c r="Z508" s="5"/>
     </row>
-    <row r="509" spans="1:26" ht="12.75">
+    <row r="509">
       <c r="A509" s="5"/>
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
@@ -13014,7 +13304,7 @@
       <c r="Y509" s="5"/>
       <c r="Z509" s="5"/>
     </row>
-    <row r="510" spans="1:26" ht="12.75">
+    <row r="510">
       <c r="A510" s="5"/>
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
@@ -13037,7 +13327,7 @@
       <c r="Y510" s="5"/>
       <c r="Z510" s="5"/>
     </row>
-    <row r="511" spans="1:26" ht="12.75">
+    <row r="511">
       <c r="A511" s="5"/>
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
@@ -13060,7 +13350,7 @@
       <c r="Y511" s="5"/>
       <c r="Z511" s="5"/>
     </row>
-    <row r="512" spans="1:26" ht="12.75">
+    <row r="512">
       <c r="A512" s="5"/>
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
@@ -13083,7 +13373,7 @@
       <c r="Y512" s="5"/>
       <c r="Z512" s="5"/>
     </row>
-    <row r="513" spans="1:26" ht="12.75">
+    <row r="513">
       <c r="A513" s="5"/>
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
@@ -13106,7 +13396,7 @@
       <c r="Y513" s="5"/>
       <c r="Z513" s="5"/>
     </row>
-    <row r="514" spans="1:26" ht="12.75">
+    <row r="514">
       <c r="A514" s="5"/>
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
@@ -13129,7 +13419,7 @@
       <c r="Y514" s="5"/>
       <c r="Z514" s="5"/>
     </row>
-    <row r="515" spans="1:26" ht="12.75">
+    <row r="515">
       <c r="A515" s="5"/>
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
@@ -13152,7 +13442,7 @@
       <c r="Y515" s="5"/>
       <c r="Z515" s="5"/>
     </row>
-    <row r="516" spans="1:26" ht="12.75">
+    <row r="516">
       <c r="A516" s="5"/>
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
@@ -13175,7 +13465,7 @@
       <c r="Y516" s="5"/>
       <c r="Z516" s="5"/>
     </row>
-    <row r="517" spans="1:26" ht="12.75">
+    <row r="517">
       <c r="A517" s="5"/>
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
@@ -13198,7 +13488,7 @@
       <c r="Y517" s="5"/>
       <c r="Z517" s="5"/>
     </row>
-    <row r="518" spans="1:26" ht="12.75">
+    <row r="518">
       <c r="A518" s="5"/>
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
@@ -13221,7 +13511,7 @@
       <c r="Y518" s="5"/>
       <c r="Z518" s="5"/>
     </row>
-    <row r="519" spans="1:26" ht="12.75">
+    <row r="519">
       <c r="A519" s="5"/>
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
@@ -13244,7 +13534,7 @@
       <c r="Y519" s="5"/>
       <c r="Z519" s="5"/>
     </row>
-    <row r="520" spans="1:26" ht="12.75">
+    <row r="520">
       <c r="A520" s="5"/>
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
@@ -13267,7 +13557,7 @@
       <c r="Y520" s="5"/>
       <c r="Z520" s="5"/>
     </row>
-    <row r="521" spans="1:26" ht="12.75">
+    <row r="521">
       <c r="A521" s="5"/>
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
@@ -13290,7 +13580,7 @@
       <c r="Y521" s="5"/>
       <c r="Z521" s="5"/>
     </row>
-    <row r="522" spans="1:26" ht="12.75">
+    <row r="522">
       <c r="A522" s="5"/>
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
@@ -13313,7 +13603,7 @@
       <c r="Y522" s="5"/>
       <c r="Z522" s="5"/>
     </row>
-    <row r="523" spans="1:26" ht="12.75">
+    <row r="523">
       <c r="A523" s="5"/>
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
@@ -13336,7 +13626,7 @@
       <c r="Y523" s="5"/>
       <c r="Z523" s="5"/>
     </row>
-    <row r="524" spans="1:26" ht="12.75">
+    <row r="524">
       <c r="A524" s="5"/>
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
@@ -13359,7 +13649,7 @@
       <c r="Y524" s="5"/>
       <c r="Z524" s="5"/>
     </row>
-    <row r="525" spans="1:26" ht="12.75">
+    <row r="525">
       <c r="A525" s="5"/>
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
@@ -13382,7 +13672,7 @@
       <c r="Y525" s="5"/>
       <c r="Z525" s="5"/>
     </row>
-    <row r="526" spans="1:26" ht="12.75">
+    <row r="526">
       <c r="A526" s="5"/>
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
@@ -13405,7 +13695,7 @@
       <c r="Y526" s="5"/>
       <c r="Z526" s="5"/>
     </row>
-    <row r="527" spans="1:26" ht="12.75">
+    <row r="527">
       <c r="A527" s="5"/>
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
@@ -13428,7 +13718,7 @@
       <c r="Y527" s="5"/>
       <c r="Z527" s="5"/>
     </row>
-    <row r="528" spans="1:26" ht="12.75">
+    <row r="528">
       <c r="A528" s="5"/>
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
@@ -13451,7 +13741,7 @@
       <c r="Y528" s="5"/>
       <c r="Z528" s="5"/>
     </row>
-    <row r="529" spans="1:26" ht="12.75">
+    <row r="529">
       <c r="A529" s="5"/>
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
@@ -13474,7 +13764,7 @@
       <c r="Y529" s="5"/>
       <c r="Z529" s="5"/>
     </row>
-    <row r="530" spans="1:26" ht="12.75">
+    <row r="530">
       <c r="A530" s="5"/>
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
@@ -13497,7 +13787,7 @@
       <c r="Y530" s="5"/>
       <c r="Z530" s="5"/>
     </row>
-    <row r="531" spans="1:26" ht="12.75">
+    <row r="531">
       <c r="A531" s="5"/>
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
@@ -13520,7 +13810,7 @@
       <c r="Y531" s="5"/>
       <c r="Z531" s="5"/>
     </row>
-    <row r="532" spans="1:26" ht="12.75">
+    <row r="532">
       <c r="A532" s="5"/>
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
@@ -13543,7 +13833,7 @@
       <c r="Y532" s="5"/>
       <c r="Z532" s="5"/>
     </row>
-    <row r="533" spans="1:26" ht="12.75">
+    <row r="533">
       <c r="A533" s="5"/>
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
@@ -13566,7 +13856,7 @@
       <c r="Y533" s="5"/>
       <c r="Z533" s="5"/>
     </row>
-    <row r="534" spans="1:26" ht="12.75">
+    <row r="534">
       <c r="A534" s="5"/>
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
@@ -13589,7 +13879,7 @@
       <c r="Y534" s="5"/>
       <c r="Z534" s="5"/>
     </row>
-    <row r="535" spans="1:26" ht="12.75">
+    <row r="535">
       <c r="A535" s="5"/>
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
@@ -13612,7 +13902,7 @@
       <c r="Y535" s="5"/>
       <c r="Z535" s="5"/>
     </row>
-    <row r="536" spans="1:26" ht="12.75">
+    <row r="536">
       <c r="A536" s="5"/>
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
@@ -13635,7 +13925,7 @@
       <c r="Y536" s="5"/>
       <c r="Z536" s="5"/>
     </row>
-    <row r="537" spans="1:26" ht="12.75">
+    <row r="537">
       <c r="A537" s="5"/>
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
@@ -13658,7 +13948,7 @@
       <c r="Y537" s="5"/>
       <c r="Z537" s="5"/>
     </row>
-    <row r="538" spans="1:26" ht="12.75">
+    <row r="538">
       <c r="A538" s="5"/>
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
@@ -13681,7 +13971,7 @@
       <c r="Y538" s="5"/>
       <c r="Z538" s="5"/>
     </row>
-    <row r="539" spans="1:26" ht="12.75">
+    <row r="539">
       <c r="A539" s="5"/>
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
@@ -13704,7 +13994,7 @@
       <c r="Y539" s="5"/>
       <c r="Z539" s="5"/>
     </row>
-    <row r="540" spans="1:26" ht="12.75">
+    <row r="540">
       <c r="A540" s="5"/>
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
@@ -13727,7 +14017,7 @@
       <c r="Y540" s="5"/>
       <c r="Z540" s="5"/>
     </row>
-    <row r="541" spans="1:26" ht="12.75">
+    <row r="541">
       <c r="A541" s="5"/>
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
@@ -13750,7 +14040,7 @@
       <c r="Y541" s="5"/>
       <c r="Z541" s="5"/>
     </row>
-    <row r="542" spans="1:26" ht="12.75">
+    <row r="542">
       <c r="A542" s="5"/>
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
@@ -13773,7 +14063,7 @@
       <c r="Y542" s="5"/>
       <c r="Z542" s="5"/>
     </row>
-    <row r="543" spans="1:26" ht="12.75">
+    <row r="543">
       <c r="A543" s="5"/>
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
@@ -13796,7 +14086,7 @@
       <c r="Y543" s="5"/>
       <c r="Z543" s="5"/>
     </row>
-    <row r="544" spans="1:26" ht="12.75">
+    <row r="544">
       <c r="A544" s="5"/>
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
@@ -13819,7 +14109,7 @@
       <c r="Y544" s="5"/>
       <c r="Z544" s="5"/>
     </row>
-    <row r="545" spans="1:26" ht="12.75">
+    <row r="545">
       <c r="A545" s="5"/>
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
@@ -13842,7 +14132,7 @@
       <c r="Y545" s="5"/>
       <c r="Z545" s="5"/>
     </row>
-    <row r="546" spans="1:26" ht="12.75">
+    <row r="546">
       <c r="A546" s="5"/>
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
@@ -13865,7 +14155,7 @@
       <c r="Y546" s="5"/>
       <c r="Z546" s="5"/>
     </row>
-    <row r="547" spans="1:26" ht="12.75">
+    <row r="547">
       <c r="A547" s="5"/>
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
@@ -13888,7 +14178,7 @@
       <c r="Y547" s="5"/>
       <c r="Z547" s="5"/>
     </row>
-    <row r="548" spans="1:26" ht="12.75">
+    <row r="548">
       <c r="A548" s="5"/>
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
@@ -13911,7 +14201,7 @@
       <c r="Y548" s="5"/>
       <c r="Z548" s="5"/>
     </row>
-    <row r="549" spans="1:26" ht="12.75">
+    <row r="549">
       <c r="A549" s="5"/>
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
@@ -13934,7 +14224,7 @@
       <c r="Y549" s="5"/>
       <c r="Z549" s="5"/>
     </row>
-    <row r="550" spans="1:26" ht="12.75">
+    <row r="550">
       <c r="A550" s="5"/>
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
@@ -13957,7 +14247,7 @@
       <c r="Y550" s="5"/>
       <c r="Z550" s="5"/>
     </row>
-    <row r="551" spans="1:26" ht="12.75">
+    <row r="551">
       <c r="A551" s="5"/>
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
@@ -13980,7 +14270,7 @@
       <c r="Y551" s="5"/>
       <c r="Z551" s="5"/>
     </row>
-    <row r="552" spans="1:26" ht="12.75">
+    <row r="552">
       <c r="A552" s="5"/>
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
@@ -14003,7 +14293,7 @@
       <c r="Y552" s="5"/>
       <c r="Z552" s="5"/>
     </row>
-    <row r="553" spans="1:26" ht="12.75">
+    <row r="553">
       <c r="A553" s="5"/>
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
@@ -14026,7 +14316,7 @@
       <c r="Y553" s="5"/>
       <c r="Z553" s="5"/>
     </row>
-    <row r="554" spans="1:26" ht="12.75">
+    <row r="554">
       <c r="A554" s="5"/>
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
@@ -14049,7 +14339,7 @@
       <c r="Y554" s="5"/>
       <c r="Z554" s="5"/>
     </row>
-    <row r="555" spans="1:26" ht="12.75">
+    <row r="555">
       <c r="A555" s="5"/>
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
@@ -14072,7 +14362,7 @@
       <c r="Y555" s="5"/>
       <c r="Z555" s="5"/>
     </row>
-    <row r="556" spans="1:26" ht="12.75">
+    <row r="556">
       <c r="A556" s="5"/>
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
@@ -14095,7 +14385,7 @@
       <c r="Y556" s="5"/>
       <c r="Z556" s="5"/>
     </row>
-    <row r="557" spans="1:26" ht="12.75">
+    <row r="557">
       <c r="A557" s="5"/>
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
@@ -14118,7 +14408,7 @@
       <c r="Y557" s="5"/>
       <c r="Z557" s="5"/>
     </row>
-    <row r="558" spans="1:26" ht="12.75">
+    <row r="558">
       <c r="A558" s="5"/>
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
@@ -14141,7 +14431,7 @@
       <c r="Y558" s="5"/>
       <c r="Z558" s="5"/>
     </row>
-    <row r="559" spans="1:26" ht="12.75">
+    <row r="559">
       <c r="A559" s="5"/>
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
@@ -14164,7 +14454,7 @@
       <c r="Y559" s="5"/>
       <c r="Z559" s="5"/>
     </row>
-    <row r="560" spans="1:26" ht="12.75">
+    <row r="560">
       <c r="A560" s="5"/>
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
@@ -14187,7 +14477,7 @@
       <c r="Y560" s="5"/>
       <c r="Z560" s="5"/>
     </row>
-    <row r="561" spans="1:26" ht="12.75">
+    <row r="561">
       <c r="A561" s="5"/>
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
@@ -14210,7 +14500,7 @@
       <c r="Y561" s="5"/>
       <c r="Z561" s="5"/>
     </row>
-    <row r="562" spans="1:26" ht="12.75">
+    <row r="562">
       <c r="A562" s="5"/>
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
@@ -14233,7 +14523,7 @@
       <c r="Y562" s="5"/>
       <c r="Z562" s="5"/>
     </row>
-    <row r="563" spans="1:26" ht="12.75">
+    <row r="563">
       <c r="A563" s="5"/>
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
@@ -14256,7 +14546,7 @@
       <c r="Y563" s="5"/>
       <c r="Z563" s="5"/>
     </row>
-    <row r="564" spans="1:26" ht="12.75">
+    <row r="564">
       <c r="A564" s="5"/>
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
@@ -14279,7 +14569,7 @@
       <c r="Y564" s="5"/>
       <c r="Z564" s="5"/>
     </row>
-    <row r="565" spans="1:26" ht="12.75">
+    <row r="565">
       <c r="A565" s="5"/>
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
@@ -14302,7 +14592,7 @@
       <c r="Y565" s="5"/>
       <c r="Z565" s="5"/>
     </row>
-    <row r="566" spans="1:26" ht="12.75">
+    <row r="566">
       <c r="A566" s="5"/>
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
@@ -14325,7 +14615,7 @@
       <c r="Y566" s="5"/>
       <c r="Z566" s="5"/>
     </row>
-    <row r="567" spans="1:26" ht="12.75">
+    <row r="567">
       <c r="A567" s="5"/>
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
@@ -14348,7 +14638,7 @@
       <c r="Y567" s="5"/>
       <c r="Z567" s="5"/>
     </row>
-    <row r="568" spans="1:26" ht="12.75">
+    <row r="568">
       <c r="A568" s="5"/>
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
@@ -14371,7 +14661,7 @@
       <c r="Y568" s="5"/>
       <c r="Z568" s="5"/>
     </row>
-    <row r="569" spans="1:26" ht="12.75">
+    <row r="569">
       <c r="A569" s="5"/>
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
@@ -14394,7 +14684,7 @@
       <c r="Y569" s="5"/>
       <c r="Z569" s="5"/>
     </row>
-    <row r="570" spans="1:26" ht="12.75">
+    <row r="570">
       <c r="A570" s="5"/>
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
@@ -14417,7 +14707,7 @@
       <c r="Y570" s="5"/>
       <c r="Z570" s="5"/>
     </row>
-    <row r="571" spans="1:26" ht="12.75">
+    <row r="571">
       <c r="A571" s="5"/>
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
@@ -14440,7 +14730,7 @@
       <c r="Y571" s="5"/>
       <c r="Z571" s="5"/>
     </row>
-    <row r="572" spans="1:26" ht="12.75">
+    <row r="572">
       <c r="A572" s="5"/>
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
@@ -14463,7 +14753,7 @@
       <c r="Y572" s="5"/>
       <c r="Z572" s="5"/>
     </row>
-    <row r="573" spans="1:26" ht="12.75">
+    <row r="573">
       <c r="A573" s="5"/>
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
@@ -14486,7 +14776,7 @@
       <c r="Y573" s="5"/>
       <c r="Z573" s="5"/>
     </row>
-    <row r="574" spans="1:26" ht="12.75">
+    <row r="574">
       <c r="A574" s="5"/>
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
@@ -14509,7 +14799,7 @@
       <c r="Y574" s="5"/>
       <c r="Z574" s="5"/>
     </row>
-    <row r="575" spans="1:26" ht="12.75">
+    <row r="575">
       <c r="A575" s="5"/>
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
@@ -14532,7 +14822,7 @@
       <c r="Y575" s="5"/>
       <c r="Z575" s="5"/>
     </row>
-    <row r="576" spans="1:26" ht="12.75">
+    <row r="576">
       <c r="A576" s="5"/>
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
@@ -14555,7 +14845,7 @@
       <c r="Y576" s="5"/>
       <c r="Z576" s="5"/>
     </row>
-    <row r="577" spans="1:26" ht="12.75">
+    <row r="577">
       <c r="A577" s="5"/>
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
@@ -14578,7 +14868,7 @@
       <c r="Y577" s="5"/>
       <c r="Z577" s="5"/>
     </row>
-    <row r="578" spans="1:26" ht="12.75">
+    <row r="578">
       <c r="A578" s="5"/>
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
@@ -14601,7 +14891,7 @@
       <c r="Y578" s="5"/>
       <c r="Z578" s="5"/>
     </row>
-    <row r="579" spans="1:26" ht="12.75">
+    <row r="579">
       <c r="A579" s="5"/>
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
@@ -14624,7 +14914,7 @@
       <c r="Y579" s="5"/>
       <c r="Z579" s="5"/>
     </row>
-    <row r="580" spans="1:26" ht="12.75">
+    <row r="580">
       <c r="A580" s="5"/>
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
@@ -14647,7 +14937,7 @@
       <c r="Y580" s="5"/>
       <c r="Z580" s="5"/>
     </row>
-    <row r="581" spans="1:26" ht="12.75">
+    <row r="581">
       <c r="A581" s="5"/>
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
@@ -14670,7 +14960,7 @@
       <c r="Y581" s="5"/>
       <c r="Z581" s="5"/>
     </row>
-    <row r="582" spans="1:26" ht="12.75">
+    <row r="582">
       <c r="A582" s="5"/>
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
@@ -14693,7 +14983,7 @@
       <c r="Y582" s="5"/>
       <c r="Z582" s="5"/>
     </row>
-    <row r="583" spans="1:26" ht="12.75">
+    <row r="583">
       <c r="A583" s="5"/>
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
@@ -14716,7 +15006,7 @@
       <c r="Y583" s="5"/>
       <c r="Z583" s="5"/>
     </row>
-    <row r="584" spans="1:26" ht="12.75">
+    <row r="584">
       <c r="A584" s="5"/>
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
@@ -14739,7 +15029,7 @@
       <c r="Y584" s="5"/>
       <c r="Z584" s="5"/>
     </row>
-    <row r="585" spans="1:26" ht="12.75">
+    <row r="585">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
@@ -14762,7 +15052,7 @@
       <c r="Y585" s="5"/>
       <c r="Z585" s="5"/>
     </row>
-    <row r="586" spans="1:26" ht="12.75">
+    <row r="586">
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
@@ -14785,7 +15075,7 @@
       <c r="Y586" s="5"/>
       <c r="Z586" s="5"/>
     </row>
-    <row r="587" spans="1:26" ht="12.75">
+    <row r="587">
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
@@ -14808,7 +15098,7 @@
       <c r="Y587" s="5"/>
       <c r="Z587" s="5"/>
     </row>
-    <row r="588" spans="1:26" ht="12.75">
+    <row r="588">
       <c r="A588" s="5"/>
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
@@ -14831,7 +15121,7 @@
       <c r="Y588" s="5"/>
       <c r="Z588" s="5"/>
     </row>
-    <row r="589" spans="1:26" ht="12.75">
+    <row r="589">
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
@@ -14854,7 +15144,7 @@
       <c r="Y589" s="5"/>
       <c r="Z589" s="5"/>
     </row>
-    <row r="590" spans="1:26" ht="12.75">
+    <row r="590">
       <c r="A590" s="5"/>
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
@@ -14877,7 +15167,7 @@
       <c r="Y590" s="5"/>
       <c r="Z590" s="5"/>
     </row>
-    <row r="591" spans="1:26" ht="12.75">
+    <row r="591">
       <c r="A591" s="5"/>
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
@@ -14900,7 +15190,7 @@
       <c r="Y591" s="5"/>
       <c r="Z591" s="5"/>
     </row>
-    <row r="592" spans="1:26" ht="12.75">
+    <row r="592">
       <c r="A592" s="5"/>
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
@@ -14923,7 +15213,7 @@
       <c r="Y592" s="5"/>
       <c r="Z592" s="5"/>
     </row>
-    <row r="593" spans="1:26" ht="12.75">
+    <row r="593">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
@@ -14946,7 +15236,7 @@
       <c r="Y593" s="5"/>
       <c r="Z593" s="5"/>
     </row>
-    <row r="594" spans="1:26" ht="12.75">
+    <row r="594">
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
@@ -14969,7 +15259,7 @@
       <c r="Y594" s="5"/>
       <c r="Z594" s="5"/>
     </row>
-    <row r="595" spans="1:26" ht="12.75">
+    <row r="595">
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
@@ -14992,7 +15282,7 @@
       <c r="Y595" s="5"/>
       <c r="Z595" s="5"/>
     </row>
-    <row r="596" spans="1:26" ht="12.75">
+    <row r="596">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
@@ -15015,7 +15305,7 @@
       <c r="Y596" s="5"/>
       <c r="Z596" s="5"/>
     </row>
-    <row r="597" spans="1:26" ht="12.75">
+    <row r="597">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
@@ -15038,7 +15328,7 @@
       <c r="Y597" s="5"/>
       <c r="Z597" s="5"/>
     </row>
-    <row r="598" spans="1:26" ht="12.75">
+    <row r="598">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
@@ -15061,7 +15351,7 @@
       <c r="Y598" s="5"/>
       <c r="Z598" s="5"/>
     </row>
-    <row r="599" spans="1:26" ht="12.75">
+    <row r="599">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
@@ -15084,7 +15374,7 @@
       <c r="Y599" s="5"/>
       <c r="Z599" s="5"/>
     </row>
-    <row r="600" spans="1:26" ht="12.75">
+    <row r="600">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
@@ -15107,7 +15397,7 @@
       <c r="Y600" s="5"/>
       <c r="Z600" s="5"/>
     </row>
-    <row r="601" spans="1:26" ht="12.75">
+    <row r="601">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
@@ -15130,7 +15420,7 @@
       <c r="Y601" s="5"/>
       <c r="Z601" s="5"/>
     </row>
-    <row r="602" spans="1:26" ht="12.75">
+    <row r="602">
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
@@ -15153,7 +15443,7 @@
       <c r="Y602" s="5"/>
       <c r="Z602" s="5"/>
     </row>
-    <row r="603" spans="1:26" ht="12.75">
+    <row r="603">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
@@ -15176,7 +15466,7 @@
       <c r="Y603" s="5"/>
       <c r="Z603" s="5"/>
     </row>
-    <row r="604" spans="1:26" ht="12.75">
+    <row r="604">
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
@@ -15199,7 +15489,7 @@
       <c r="Y604" s="5"/>
       <c r="Z604" s="5"/>
     </row>
-    <row r="605" spans="1:26" ht="12.75">
+    <row r="605">
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
@@ -15222,7 +15512,7 @@
       <c r="Y605" s="5"/>
       <c r="Z605" s="5"/>
     </row>
-    <row r="606" spans="1:26" ht="12.75">
+    <row r="606">
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
@@ -15245,7 +15535,7 @@
       <c r="Y606" s="5"/>
       <c r="Z606" s="5"/>
     </row>
-    <row r="607" spans="1:26" ht="12.75">
+    <row r="607">
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
@@ -15268,7 +15558,7 @@
       <c r="Y607" s="5"/>
       <c r="Z607" s="5"/>
     </row>
-    <row r="608" spans="1:26" ht="12.75">
+    <row r="608">
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
@@ -15291,7 +15581,7 @@
       <c r="Y608" s="5"/>
       <c r="Z608" s="5"/>
     </row>
-    <row r="609" spans="1:26" ht="12.75">
+    <row r="609">
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
@@ -15314,7 +15604,7 @@
       <c r="Y609" s="5"/>
       <c r="Z609" s="5"/>
     </row>
-    <row r="610" spans="1:26" ht="12.75">
+    <row r="610">
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
@@ -15337,7 +15627,7 @@
       <c r="Y610" s="5"/>
       <c r="Z610" s="5"/>
     </row>
-    <row r="611" spans="1:26" ht="12.75">
+    <row r="611">
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
@@ -15360,7 +15650,7 @@
       <c r="Y611" s="5"/>
       <c r="Z611" s="5"/>
     </row>
-    <row r="612" spans="1:26" ht="12.75">
+    <row r="612">
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
@@ -15383,7 +15673,7 @@
       <c r="Y612" s="5"/>
       <c r="Z612" s="5"/>
     </row>
-    <row r="613" spans="1:26" ht="12.75">
+    <row r="613">
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
@@ -15406,7 +15696,7 @@
       <c r="Y613" s="5"/>
       <c r="Z613" s="5"/>
     </row>
-    <row r="614" spans="1:26" ht="12.75">
+    <row r="614">
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
@@ -15429,7 +15719,7 @@
       <c r="Y614" s="5"/>
       <c r="Z614" s="5"/>
     </row>
-    <row r="615" spans="1:26" ht="12.75">
+    <row r="615">
       <c r="A615" s="5"/>
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
@@ -15452,7 +15742,7 @@
       <c r="Y615" s="5"/>
       <c r="Z615" s="5"/>
     </row>
-    <row r="616" spans="1:26" ht="12.75">
+    <row r="616">
       <c r="A616" s="5"/>
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
@@ -15475,7 +15765,7 @@
       <c r="Y616" s="5"/>
       <c r="Z616" s="5"/>
     </row>
-    <row r="617" spans="1:26" ht="12.75">
+    <row r="617">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
@@ -15498,7 +15788,7 @@
       <c r="Y617" s="5"/>
       <c r="Z617" s="5"/>
     </row>
-    <row r="618" spans="1:26" ht="12.75">
+    <row r="618">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
@@ -15521,7 +15811,7 @@
       <c r="Y618" s="5"/>
       <c r="Z618" s="5"/>
     </row>
-    <row r="619" spans="1:26" ht="12.75">
+    <row r="619">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
@@ -15544,7 +15834,7 @@
       <c r="Y619" s="5"/>
       <c r="Z619" s="5"/>
     </row>
-    <row r="620" spans="1:26" ht="12.75">
+    <row r="620">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
@@ -15567,7 +15857,7 @@
       <c r="Y620" s="5"/>
       <c r="Z620" s="5"/>
     </row>
-    <row r="621" spans="1:26" ht="12.75">
+    <row r="621">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
@@ -15590,7 +15880,7 @@
       <c r="Y621" s="5"/>
       <c r="Z621" s="5"/>
     </row>
-    <row r="622" spans="1:26" ht="12.75">
+    <row r="622">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
@@ -15613,7 +15903,7 @@
       <c r="Y622" s="5"/>
       <c r="Z622" s="5"/>
     </row>
-    <row r="623" spans="1:26" ht="12.75">
+    <row r="623">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
@@ -15636,7 +15926,7 @@
       <c r="Y623" s="5"/>
       <c r="Z623" s="5"/>
     </row>
-    <row r="624" spans="1:26" ht="12.75">
+    <row r="624">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
@@ -15659,7 +15949,7 @@
       <c r="Y624" s="5"/>
       <c r="Z624" s="5"/>
     </row>
-    <row r="625" spans="1:26" ht="12.75">
+    <row r="625">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
@@ -15682,7 +15972,7 @@
       <c r="Y625" s="5"/>
       <c r="Z625" s="5"/>
     </row>
-    <row r="626" spans="1:26" ht="12.75">
+    <row r="626">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
@@ -15705,7 +15995,7 @@
       <c r="Y626" s="5"/>
       <c r="Z626" s="5"/>
     </row>
-    <row r="627" spans="1:26" ht="12.75">
+    <row r="627">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
@@ -15728,7 +16018,7 @@
       <c r="Y627" s="5"/>
       <c r="Z627" s="5"/>
     </row>
-    <row r="628" spans="1:26" ht="12.75">
+    <row r="628">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
@@ -15751,7 +16041,7 @@
       <c r="Y628" s="5"/>
       <c r="Z628" s="5"/>
     </row>
-    <row r="629" spans="1:26" ht="12.75">
+    <row r="629">
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
@@ -15774,7 +16064,7 @@
       <c r="Y629" s="5"/>
       <c r="Z629" s="5"/>
     </row>
-    <row r="630" spans="1:26" ht="12.75">
+    <row r="630">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
@@ -15797,7 +16087,7 @@
       <c r="Y630" s="5"/>
       <c r="Z630" s="5"/>
     </row>
-    <row r="631" spans="1:26" ht="12.75">
+    <row r="631">
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
@@ -15820,7 +16110,7 @@
       <c r="Y631" s="5"/>
       <c r="Z631" s="5"/>
     </row>
-    <row r="632" spans="1:26" ht="12.75">
+    <row r="632">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
@@ -15843,7 +16133,7 @@
       <c r="Y632" s="5"/>
       <c r="Z632" s="5"/>
     </row>
-    <row r="633" spans="1:26" ht="12.75">
+    <row r="633">
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
@@ -15866,7 +16156,7 @@
       <c r="Y633" s="5"/>
       <c r="Z633" s="5"/>
     </row>
-    <row r="634" spans="1:26" ht="12.75">
+    <row r="634">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
@@ -15889,7 +16179,7 @@
       <c r="Y634" s="5"/>
       <c r="Z634" s="5"/>
     </row>
-    <row r="635" spans="1:26" ht="12.75">
+    <row r="635">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
@@ -15912,7 +16202,7 @@
       <c r="Y635" s="5"/>
       <c r="Z635" s="5"/>
     </row>
-    <row r="636" spans="1:26" ht="12.75">
+    <row r="636">
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
@@ -15935,7 +16225,7 @@
       <c r="Y636" s="5"/>
       <c r="Z636" s="5"/>
     </row>
-    <row r="637" spans="1:26" ht="12.75">
+    <row r="637">
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
@@ -15958,7 +16248,7 @@
       <c r="Y637" s="5"/>
       <c r="Z637" s="5"/>
     </row>
-    <row r="638" spans="1:26" ht="12.75">
+    <row r="638">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
@@ -15981,7 +16271,7 @@
       <c r="Y638" s="5"/>
       <c r="Z638" s="5"/>
     </row>
-    <row r="639" spans="1:26" ht="12.75">
+    <row r="639">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
@@ -16004,7 +16294,7 @@
       <c r="Y639" s="5"/>
       <c r="Z639" s="5"/>
     </row>
-    <row r="640" spans="1:26" ht="12.75">
+    <row r="640">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
@@ -16027,7 +16317,7 @@
       <c r="Y640" s="5"/>
       <c r="Z640" s="5"/>
     </row>
-    <row r="641" spans="1:26" ht="12.75">
+    <row r="641">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
@@ -16050,7 +16340,7 @@
       <c r="Y641" s="5"/>
       <c r="Z641" s="5"/>
     </row>
-    <row r="642" spans="1:26" ht="12.75">
+    <row r="642">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
@@ -16073,7 +16363,7 @@
       <c r="Y642" s="5"/>
       <c r="Z642" s="5"/>
     </row>
-    <row r="643" spans="1:26" ht="12.75">
+    <row r="643">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
@@ -16096,7 +16386,7 @@
       <c r="Y643" s="5"/>
       <c r="Z643" s="5"/>
     </row>
-    <row r="644" spans="1:26" ht="12.75">
+    <row r="644">
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
@@ -16119,7 +16409,7 @@
       <c r="Y644" s="5"/>
       <c r="Z644" s="5"/>
     </row>
-    <row r="645" spans="1:26" ht="12.75">
+    <row r="645">
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
@@ -16142,7 +16432,7 @@
       <c r="Y645" s="5"/>
       <c r="Z645" s="5"/>
     </row>
-    <row r="646" spans="1:26" ht="12.75">
+    <row r="646">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
@@ -16165,7 +16455,7 @@
       <c r="Y646" s="5"/>
       <c r="Z646" s="5"/>
     </row>
-    <row r="647" spans="1:26" ht="12.75">
+    <row r="647">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
@@ -16188,7 +16478,7 @@
       <c r="Y647" s="5"/>
       <c r="Z647" s="5"/>
     </row>
-    <row r="648" spans="1:26" ht="12.75">
+    <row r="648">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
@@ -16211,7 +16501,7 @@
       <c r="Y648" s="5"/>
       <c r="Z648" s="5"/>
     </row>
-    <row r="649" spans="1:26" ht="12.75">
+    <row r="649">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
@@ -16234,7 +16524,7 @@
       <c r="Y649" s="5"/>
       <c r="Z649" s="5"/>
     </row>
-    <row r="650" spans="1:26" ht="12.75">
+    <row r="650">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
@@ -16257,7 +16547,7 @@
       <c r="Y650" s="5"/>
       <c r="Z650" s="5"/>
     </row>
-    <row r="651" spans="1:26" ht="12.75">
+    <row r="651">
       <c r="A651" s="5"/>
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
@@ -16280,7 +16570,7 @@
       <c r="Y651" s="5"/>
       <c r="Z651" s="5"/>
     </row>
-    <row r="652" spans="1:26" ht="12.75">
+    <row r="652">
       <c r="A652" s="5"/>
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
@@ -16303,7 +16593,7 @@
       <c r="Y652" s="5"/>
       <c r="Z652" s="5"/>
     </row>
-    <row r="653" spans="1:26" ht="12.75">
+    <row r="653">
       <c r="A653" s="5"/>
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
@@ -16326,7 +16616,7 @@
       <c r="Y653" s="5"/>
       <c r="Z653" s="5"/>
     </row>
-    <row r="654" spans="1:26" ht="12.75">
+    <row r="654">
       <c r="A654" s="5"/>
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
@@ -16349,7 +16639,7 @@
       <c r="Y654" s="5"/>
       <c r="Z654" s="5"/>
     </row>
-    <row r="655" spans="1:26" ht="12.75">
+    <row r="655">
       <c r="A655" s="5"/>
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
@@ -16372,7 +16662,7 @@
       <c r="Y655" s="5"/>
       <c r="Z655" s="5"/>
     </row>
-    <row r="656" spans="1:26" ht="12.75">
+    <row r="656">
       <c r="A656" s="5"/>
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
@@ -16395,7 +16685,7 @@
       <c r="Y656" s="5"/>
       <c r="Z656" s="5"/>
     </row>
-    <row r="657" spans="1:26" ht="12.75">
+    <row r="657">
       <c r="A657" s="5"/>
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
@@ -16418,7 +16708,7 @@
       <c r="Y657" s="5"/>
       <c r="Z657" s="5"/>
     </row>
-    <row r="658" spans="1:26" ht="12.75">
+    <row r="658">
       <c r="A658" s="5"/>
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
@@ -16441,7 +16731,7 @@
       <c r="Y658" s="5"/>
       <c r="Z658" s="5"/>
     </row>
-    <row r="659" spans="1:26" ht="12.75">
+    <row r="659">
       <c r="A659" s="5"/>
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
@@ -16464,7 +16754,7 @@
       <c r="Y659" s="5"/>
       <c r="Z659" s="5"/>
     </row>
-    <row r="660" spans="1:26" ht="12.75">
+    <row r="660">
       <c r="A660" s="5"/>
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
@@ -16487,7 +16777,7 @@
       <c r="Y660" s="5"/>
       <c r="Z660" s="5"/>
     </row>
-    <row r="661" spans="1:26" ht="12.75">
+    <row r="661">
       <c r="A661" s="5"/>
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
@@ -16510,7 +16800,7 @@
       <c r="Y661" s="5"/>
       <c r="Z661" s="5"/>
     </row>
-    <row r="662" spans="1:26" ht="12.75">
+    <row r="662">
       <c r="A662" s="5"/>
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
@@ -16533,7 +16823,7 @@
       <c r="Y662" s="5"/>
       <c r="Z662" s="5"/>
     </row>
-    <row r="663" spans="1:26" ht="12.75">
+    <row r="663">
       <c r="A663" s="5"/>
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
@@ -16556,7 +16846,7 @@
       <c r="Y663" s="5"/>
       <c r="Z663" s="5"/>
     </row>
-    <row r="664" spans="1:26" ht="12.75">
+    <row r="664">
       <c r="A664" s="5"/>
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
@@ -16579,7 +16869,7 @@
       <c r="Y664" s="5"/>
       <c r="Z664" s="5"/>
     </row>
-    <row r="665" spans="1:26" ht="12.75">
+    <row r="665">
       <c r="A665" s="5"/>
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
@@ -16602,7 +16892,7 @@
       <c r="Y665" s="5"/>
       <c r="Z665" s="5"/>
     </row>
-    <row r="666" spans="1:26" ht="12.75">
+    <row r="666">
       <c r="A666" s="5"/>
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
@@ -16625,7 +16915,7 @@
       <c r="Y666" s="5"/>
       <c r="Z666" s="5"/>
     </row>
-    <row r="667" spans="1:26" ht="12.75">
+    <row r="667">
       <c r="A667" s="5"/>
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
@@ -16648,7 +16938,7 @@
       <c r="Y667" s="5"/>
       <c r="Z667" s="5"/>
     </row>
-    <row r="668" spans="1:26" ht="12.75">
+    <row r="668">
       <c r="A668" s="5"/>
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
@@ -16671,7 +16961,7 @@
       <c r="Y668" s="5"/>
       <c r="Z668" s="5"/>
     </row>
-    <row r="669" spans="1:26" ht="12.75">
+    <row r="669">
       <c r="A669" s="5"/>
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
@@ -16694,7 +16984,7 @@
       <c r="Y669" s="5"/>
       <c r="Z669" s="5"/>
     </row>
-    <row r="670" spans="1:26" ht="12.75">
+    <row r="670">
       <c r="A670" s="5"/>
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
@@ -16717,7 +17007,7 @@
       <c r="Y670" s="5"/>
       <c r="Z670" s="5"/>
     </row>
-    <row r="671" spans="1:26" ht="12.75">
+    <row r="671">
       <c r="A671" s="5"/>
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
@@ -16740,7 +17030,7 @@
       <c r="Y671" s="5"/>
       <c r="Z671" s="5"/>
     </row>
-    <row r="672" spans="1:26" ht="12.75">
+    <row r="672">
       <c r="A672" s="5"/>
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
@@ -16763,7 +17053,7 @@
       <c r="Y672" s="5"/>
       <c r="Z672" s="5"/>
     </row>
-    <row r="673" spans="1:26" ht="12.75">
+    <row r="673">
       <c r="A673" s="5"/>
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
@@ -16786,7 +17076,7 @@
       <c r="Y673" s="5"/>
       <c r="Z673" s="5"/>
     </row>
-    <row r="674" spans="1:26" ht="12.75">
+    <row r="674">
       <c r="A674" s="5"/>
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
@@ -16809,7 +17099,7 @@
       <c r="Y674" s="5"/>
       <c r="Z674" s="5"/>
     </row>
-    <row r="675" spans="1:26" ht="12.75">
+    <row r="675">
       <c r="A675" s="5"/>
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
@@ -16832,7 +17122,7 @@
       <c r="Y675" s="5"/>
       <c r="Z675" s="5"/>
     </row>
-    <row r="676" spans="1:26" ht="12.75">
+    <row r="676">
       <c r="A676" s="5"/>
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
@@ -16855,7 +17145,7 @@
       <c r="Y676" s="5"/>
       <c r="Z676" s="5"/>
     </row>
-    <row r="677" spans="1:26" ht="12.75">
+    <row r="677">
       <c r="A677" s="5"/>
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
@@ -16878,7 +17168,7 @@
       <c r="Y677" s="5"/>
       <c r="Z677" s="5"/>
     </row>
-    <row r="678" spans="1:26" ht="12.75">
+    <row r="678">
       <c r="A678" s="5"/>
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
@@ -16901,7 +17191,7 @@
       <c r="Y678" s="5"/>
       <c r="Z678" s="5"/>
     </row>
-    <row r="679" spans="1:26" ht="12.75">
+    <row r="679">
       <c r="A679" s="5"/>
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
@@ -16924,7 +17214,7 @@
       <c r="Y679" s="5"/>
       <c r="Z679" s="5"/>
     </row>
-    <row r="680" spans="1:26" ht="12.75">
+    <row r="680">
       <c r="A680" s="5"/>
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
@@ -16947,7 +17237,7 @@
       <c r="Y680" s="5"/>
       <c r="Z680" s="5"/>
     </row>
-    <row r="681" spans="1:26" ht="12.75">
+    <row r="681">
       <c r="A681" s="5"/>
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
@@ -16970,7 +17260,7 @@
       <c r="Y681" s="5"/>
       <c r="Z681" s="5"/>
     </row>
-    <row r="682" spans="1:26" ht="12.75">
+    <row r="682">
       <c r="A682" s="5"/>
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
@@ -16993,7 +17283,7 @@
       <c r="Y682" s="5"/>
       <c r="Z682" s="5"/>
     </row>
-    <row r="683" spans="1:26" ht="12.75">
+    <row r="683">
       <c r="A683" s="5"/>
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
@@ -17016,7 +17306,7 @@
       <c r="Y683" s="5"/>
       <c r="Z683" s="5"/>
     </row>
-    <row r="684" spans="1:26" ht="12.75">
+    <row r="684">
       <c r="A684" s="5"/>
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
@@ -17039,7 +17329,7 @@
       <c r="Y684" s="5"/>
       <c r="Z684" s="5"/>
     </row>
-    <row r="685" spans="1:26" ht="12.75">
+    <row r="685">
       <c r="A685" s="5"/>
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
@@ -17062,7 +17352,7 @@
       <c r="Y685" s="5"/>
       <c r="Z685" s="5"/>
     </row>
-    <row r="686" spans="1:26" ht="12.75">
+    <row r="686">
       <c r="A686" s="5"/>
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
@@ -17085,7 +17375,7 @@
       <c r="Y686" s="5"/>
       <c r="Z686" s="5"/>
     </row>
-    <row r="687" spans="1:26" ht="12.75">
+    <row r="687">
       <c r="A687" s="5"/>
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
@@ -17108,7 +17398,7 @@
       <c r="Y687" s="5"/>
       <c r="Z687" s="5"/>
     </row>
-    <row r="688" spans="1:26" ht="12.75">
+    <row r="688">
       <c r="A688" s="5"/>
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
@@ -17131,7 +17421,7 @@
       <c r="Y688" s="5"/>
       <c r="Z688" s="5"/>
     </row>
-    <row r="689" spans="1:26" ht="12.75">
+    <row r="689">
       <c r="A689" s="5"/>
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
@@ -17154,7 +17444,7 @@
       <c r="Y689" s="5"/>
       <c r="Z689" s="5"/>
     </row>
-    <row r="690" spans="1:26" ht="12.75">
+    <row r="690">
       <c r="A690" s="5"/>
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
@@ -17177,7 +17467,7 @@
       <c r="Y690" s="5"/>
       <c r="Z690" s="5"/>
     </row>
-    <row r="691" spans="1:26" ht="12.75">
+    <row r="691">
       <c r="A691" s="5"/>
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
@@ -17200,7 +17490,7 @@
       <c r="Y691" s="5"/>
       <c r="Z691" s="5"/>
     </row>
-    <row r="692" spans="1:26" ht="12.75">
+    <row r="692">
       <c r="A692" s="5"/>
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
@@ -17223,7 +17513,7 @@
       <c r="Y692" s="5"/>
       <c r="Z692" s="5"/>
     </row>
-    <row r="693" spans="1:26" ht="12.75">
+    <row r="693">
       <c r="A693" s="5"/>
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
@@ -17246,7 +17536,7 @@
       <c r="Y693" s="5"/>
       <c r="Z693" s="5"/>
     </row>
-    <row r="694" spans="1:26" ht="12.75">
+    <row r="694">
       <c r="A694" s="5"/>
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
@@ -17269,7 +17559,7 @@
       <c r="Y694" s="5"/>
       <c r="Z694" s="5"/>
     </row>
-    <row r="695" spans="1:26" ht="12.75">
+    <row r="695">
       <c r="A695" s="5"/>
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
@@ -17292,7 +17582,7 @@
       <c r="Y695" s="5"/>
       <c r="Z695" s="5"/>
     </row>
-    <row r="696" spans="1:26" ht="12.75">
+    <row r="696">
       <c r="A696" s="5"/>
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
@@ -17315,7 +17605,7 @@
       <c r="Y696" s="5"/>
       <c r="Z696" s="5"/>
     </row>
-    <row r="697" spans="1:26" ht="12.75">
+    <row r="697">
       <c r="A697" s="5"/>
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
@@ -17338,7 +17628,7 @@
       <c r="Y697" s="5"/>
       <c r="Z697" s="5"/>
     </row>
-    <row r="698" spans="1:26" ht="12.75">
+    <row r="698">
       <c r="A698" s="5"/>
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
@@ -17361,7 +17651,7 @@
       <c r="Y698" s="5"/>
       <c r="Z698" s="5"/>
     </row>
-    <row r="699" spans="1:26" ht="12.75">
+    <row r="699">
       <c r="A699" s="5"/>
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
@@ -17384,7 +17674,7 @@
       <c r="Y699" s="5"/>
       <c r="Z699" s="5"/>
     </row>
-    <row r="700" spans="1:26" ht="12.75">
+    <row r="700">
       <c r="A700" s="5"/>
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
@@ -17407,7 +17697,7 @@
       <c r="Y700" s="5"/>
       <c r="Z700" s="5"/>
     </row>
-    <row r="701" spans="1:26" ht="12.75">
+    <row r="701">
       <c r="A701" s="5"/>
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
@@ -17430,7 +17720,7 @@
       <c r="Y701" s="5"/>
       <c r="Z701" s="5"/>
     </row>
-    <row r="702" spans="1:26" ht="12.75">
+    <row r="702">
       <c r="A702" s="5"/>
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
@@ -17453,7 +17743,7 @@
       <c r="Y702" s="5"/>
       <c r="Z702" s="5"/>
     </row>
-    <row r="703" spans="1:26" ht="12.75">
+    <row r="703">
       <c r="A703" s="5"/>
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
@@ -17476,7 +17766,7 @@
       <c r="Y703" s="5"/>
       <c r="Z703" s="5"/>
     </row>
-    <row r="704" spans="1:26" ht="12.75">
+    <row r="704">
       <c r="A704" s="5"/>
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
@@ -17499,7 +17789,7 @@
       <c r="Y704" s="5"/>
       <c r="Z704" s="5"/>
     </row>
-    <row r="705" spans="1:26" ht="12.75">
+    <row r="705">
       <c r="A705" s="5"/>
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
@@ -17522,7 +17812,7 @@
       <c r="Y705" s="5"/>
       <c r="Z705" s="5"/>
     </row>
-    <row r="706" spans="1:26" ht="12.75">
+    <row r="706">
       <c r="A706" s="5"/>
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
@@ -17545,7 +17835,7 @@
       <c r="Y706" s="5"/>
       <c r="Z706" s="5"/>
     </row>
-    <row r="707" spans="1:26" ht="12.75">
+    <row r="707">
       <c r="A707" s="5"/>
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
@@ -17568,7 +17858,7 @@
       <c r="Y707" s="5"/>
       <c r="Z707" s="5"/>
     </row>
-    <row r="708" spans="1:26" ht="12.75">
+    <row r="708">
       <c r="A708" s="5"/>
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
@@ -17591,7 +17881,7 @@
       <c r="Y708" s="5"/>
       <c r="Z708" s="5"/>
     </row>
-    <row r="709" spans="1:26" ht="12.75">
+    <row r="709">
       <c r="A709" s="5"/>
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
@@ -17614,7 +17904,7 @@
       <c r="Y709" s="5"/>
       <c r="Z709" s="5"/>
     </row>
-    <row r="710" spans="1:26" ht="12.75">
+    <row r="710">
       <c r="A710" s="5"/>
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
@@ -17637,7 +17927,7 @@
       <c r="Y710" s="5"/>
       <c r="Z710" s="5"/>
     </row>
-    <row r="711" spans="1:26" ht="12.75">
+    <row r="711">
       <c r="A711" s="5"/>
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
@@ -17660,7 +17950,7 @@
       <c r="Y711" s="5"/>
       <c r="Z711" s="5"/>
     </row>
-    <row r="712" spans="1:26" ht="12.75">
+    <row r="712">
       <c r="A712" s="5"/>
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
@@ -17683,7 +17973,7 @@
       <c r="Y712" s="5"/>
       <c r="Z712" s="5"/>
     </row>
-    <row r="713" spans="1:26" ht="12.75">
+    <row r="713">
       <c r="A713" s="5"/>
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
@@ -17706,7 +17996,7 @@
       <c r="Y713" s="5"/>
       <c r="Z713" s="5"/>
     </row>
-    <row r="714" spans="1:26" ht="12.75">
+    <row r="714">
       <c r="A714" s="5"/>
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
@@ -17729,7 +18019,7 @@
       <c r="Y714" s="5"/>
       <c r="Z714" s="5"/>
     </row>
-    <row r="715" spans="1:26" ht="12.75">
+    <row r="715">
       <c r="A715" s="5"/>
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
@@ -17752,7 +18042,7 @@
       <c r="Y715" s="5"/>
       <c r="Z715" s="5"/>
     </row>
-    <row r="716" spans="1:26" ht="12.75">
+    <row r="716">
       <c r="A716" s="5"/>
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
@@ -17775,7 +18065,7 @@
       <c r="Y716" s="5"/>
       <c r="Z716" s="5"/>
     </row>
-    <row r="717" spans="1:26" ht="12.75">
+    <row r="717">
       <c r="A717" s="5"/>
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
@@ -17798,7 +18088,7 @@
       <c r="Y717" s="5"/>
       <c r="Z717" s="5"/>
     </row>
-    <row r="718" spans="1:26" ht="12.75">
+    <row r="718">
       <c r="A718" s="5"/>
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
@@ -17821,7 +18111,7 @@
       <c r="Y718" s="5"/>
       <c r="Z718" s="5"/>
     </row>
-    <row r="719" spans="1:26" ht="12.75">
+    <row r="719">
       <c r="A719" s="5"/>
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
@@ -17844,7 +18134,7 @@
       <c r="Y719" s="5"/>
       <c r="Z719" s="5"/>
     </row>
-    <row r="720" spans="1:26" ht="12.75">
+    <row r="720">
       <c r="A720" s="5"/>
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
@@ -17867,7 +18157,7 @@
       <c r="Y720" s="5"/>
       <c r="Z720" s="5"/>
     </row>
-    <row r="721" spans="1:26" ht="12.75">
+    <row r="721">
       <c r="A721" s="5"/>
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
@@ -17890,7 +18180,7 @@
       <c r="Y721" s="5"/>
       <c r="Z721" s="5"/>
     </row>
-    <row r="722" spans="1:26" ht="12.75">
+    <row r="722">
       <c r="A722" s="5"/>
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
@@ -17913,7 +18203,7 @@
       <c r="Y722" s="5"/>
       <c r="Z722" s="5"/>
     </row>
-    <row r="723" spans="1:26" ht="12.75">
+    <row r="723">
       <c r="A723" s="5"/>
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
@@ -17936,7 +18226,7 @@
       <c r="Y723" s="5"/>
       <c r="Z723" s="5"/>
     </row>
-    <row r="724" spans="1:26" ht="12.75">
+    <row r="724">
       <c r="A724" s="5"/>
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
@@ -17959,7 +18249,7 @@
       <c r="Y724" s="5"/>
       <c r="Z724" s="5"/>
     </row>
-    <row r="725" spans="1:26" ht="12.75">
+    <row r="725">
       <c r="A725" s="5"/>
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
@@ -17982,7 +18272,7 @@
       <c r="Y725" s="5"/>
       <c r="Z725" s="5"/>
     </row>
-    <row r="726" spans="1:26" ht="12.75">
+    <row r="726">
       <c r="A726" s="5"/>
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
@@ -18005,7 +18295,7 @@
       <c r="Y726" s="5"/>
       <c r="Z726" s="5"/>
     </row>
-    <row r="727" spans="1:26" ht="12.75">
+    <row r="727">
       <c r="A727" s="5"/>
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
@@ -18028,7 +18318,7 @@
       <c r="Y727" s="5"/>
       <c r="Z727" s="5"/>
     </row>
-    <row r="728" spans="1:26" ht="12.75">
+    <row r="728">
       <c r="A728" s="5"/>
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
@@ -18051,7 +18341,7 @@
       <c r="Y728" s="5"/>
       <c r="Z728" s="5"/>
     </row>
-    <row r="729" spans="1:26" ht="12.75">
+    <row r="729">
       <c r="A729" s="5"/>
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
@@ -18074,7 +18364,7 @@
       <c r="Y729" s="5"/>
       <c r="Z729" s="5"/>
     </row>
-    <row r="730" spans="1:26" ht="12.75">
+    <row r="730">
       <c r="A730" s="5"/>
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
@@ -18097,7 +18387,7 @@
       <c r="Y730" s="5"/>
       <c r="Z730" s="5"/>
     </row>
-    <row r="731" spans="1:26" ht="12.75">
+    <row r="731">
       <c r="A731" s="5"/>
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
@@ -18120,7 +18410,7 @@
       <c r="Y731" s="5"/>
       <c r="Z731" s="5"/>
     </row>
-    <row r="732" spans="1:26" ht="12.75">
+    <row r="732">
       <c r="A732" s="5"/>
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
@@ -18143,7 +18433,7 @@
       <c r="Y732" s="5"/>
       <c r="Z732" s="5"/>
     </row>
-    <row r="733" spans="1:26" ht="12.75">
+    <row r="733">
       <c r="A733" s="5"/>
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
@@ -18166,7 +18456,7 @@
       <c r="Y733" s="5"/>
       <c r="Z733" s="5"/>
     </row>
-    <row r="734" spans="1:26" ht="12.75">
+    <row r="734">
       <c r="A734" s="5"/>
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
@@ -18189,7 +18479,7 @@
       <c r="Y734" s="5"/>
       <c r="Z734" s="5"/>
     </row>
-    <row r="735" spans="1:26" ht="12.75">
+    <row r="735">
       <c r="A735" s="5"/>
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
@@ -18212,7 +18502,7 @@
       <c r="Y735" s="5"/>
       <c r="Z735" s="5"/>
     </row>
-    <row r="736" spans="1:26" ht="12.75">
+    <row r="736">
       <c r="A736" s="5"/>
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
@@ -18235,7 +18525,7 @@
       <c r="Y736" s="5"/>
       <c r="Z736" s="5"/>
     </row>
-    <row r="737" spans="1:26" ht="12.75">
+    <row r="737">
       <c r="A737" s="5"/>
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
@@ -18258,7 +18548,7 @@
       <c r="Y737" s="5"/>
       <c r="Z737" s="5"/>
     </row>
-    <row r="738" spans="1:26" ht="12.75">
+    <row r="738">
       <c r="A738" s="5"/>
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
@@ -18281,7 +18571,7 @@
       <c r="Y738" s="5"/>
       <c r="Z738" s="5"/>
     </row>
-    <row r="739" spans="1:26" ht="12.75">
+    <row r="739">
       <c r="A739" s="5"/>
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
@@ -18304,7 +18594,7 @@
       <c r="Y739" s="5"/>
       <c r="Z739" s="5"/>
     </row>
-    <row r="740" spans="1:26" ht="12.75">
+    <row r="740">
       <c r="A740" s="5"/>
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
@@ -18327,7 +18617,7 @@
       <c r="Y740" s="5"/>
       <c r="Z740" s="5"/>
     </row>
-    <row r="741" spans="1:26" ht="12.75">
+    <row r="741">
       <c r="A741" s="5"/>
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
@@ -18350,7 +18640,7 @@
       <c r="Y741" s="5"/>
       <c r="Z741" s="5"/>
     </row>
-    <row r="742" spans="1:26" ht="12.75">
+    <row r="742">
       <c r="A742" s="5"/>
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
@@ -18373,7 +18663,7 @@
       <c r="Y742" s="5"/>
       <c r="Z742" s="5"/>
     </row>
-    <row r="743" spans="1:26" ht="12.75">
+    <row r="743">
       <c r="A743" s="5"/>
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
@@ -18396,7 +18686,7 @@
       <c r="Y743" s="5"/>
       <c r="Z743" s="5"/>
     </row>
-    <row r="744" spans="1:26" ht="12.75">
+    <row r="744">
       <c r="A744" s="5"/>
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
@@ -18419,7 +18709,7 @@
       <c r="Y744" s="5"/>
       <c r="Z744" s="5"/>
     </row>
-    <row r="745" spans="1:26" ht="12.75">
+    <row r="745">
       <c r="A745" s="5"/>
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
@@ -18442,7 +18732,7 @@
       <c r="Y745" s="5"/>
       <c r="Z745" s="5"/>
     </row>
-    <row r="746" spans="1:26" ht="12.75">
+    <row r="746">
       <c r="A746" s="5"/>
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
@@ -18465,7 +18755,7 @@
       <c r="Y746" s="5"/>
       <c r="Z746" s="5"/>
     </row>
-    <row r="747" spans="1:26" ht="12.75">
+    <row r="747">
       <c r="A747" s="5"/>
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
@@ -18488,7 +18778,7 @@
       <c r="Y747" s="5"/>
       <c r="Z747" s="5"/>
     </row>
-    <row r="748" spans="1:26" ht="12.75">
+    <row r="748">
       <c r="A748" s="5"/>
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
@@ -18511,7 +18801,7 @@
       <c r="Y748" s="5"/>
       <c r="Z748" s="5"/>
     </row>
-    <row r="749" spans="1:26" ht="12.75">
+    <row r="749">
       <c r="A749" s="5"/>
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
@@ -18534,7 +18824,7 @@
       <c r="Y749" s="5"/>
       <c r="Z749" s="5"/>
     </row>
-    <row r="750" spans="1:26" ht="12.75">
+    <row r="750">
       <c r="A750" s="5"/>
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
@@ -18557,7 +18847,7 @@
       <c r="Y750" s="5"/>
       <c r="Z750" s="5"/>
     </row>
-    <row r="751" spans="1:26" ht="12.75">
+    <row r="751">
       <c r="A751" s="5"/>
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
@@ -18580,7 +18870,7 @@
       <c r="Y751" s="5"/>
       <c r="Z751" s="5"/>
     </row>
-    <row r="752" spans="1:26" ht="12.75">
+    <row r="752">
       <c r="A752" s="5"/>
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
@@ -18603,7 +18893,7 @@
       <c r="Y752" s="5"/>
       <c r="Z752" s="5"/>
     </row>
-    <row r="753" spans="1:26" ht="12.75">
+    <row r="753">
       <c r="A753" s="5"/>
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
@@ -18626,7 +18916,7 @@
       <c r="Y753" s="5"/>
       <c r="Z753" s="5"/>
     </row>
-    <row r="754" spans="1:26" ht="12.75">
+    <row r="754">
       <c r="A754" s="5"/>
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
@@ -18649,7 +18939,7 @@
       <c r="Y754" s="5"/>
       <c r="Z754" s="5"/>
     </row>
-    <row r="755" spans="1:26" ht="12.75">
+    <row r="755">
       <c r="A755" s="5"/>
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
@@ -18672,7 +18962,7 @@
       <c r="Y755" s="5"/>
       <c r="Z755" s="5"/>
     </row>
-    <row r="756" spans="1:26" ht="12.75">
+    <row r="756">
       <c r="A756" s="5"/>
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
@@ -18695,7 +18985,7 @@
       <c r="Y756" s="5"/>
       <c r="Z756" s="5"/>
     </row>
-    <row r="757" spans="1:26" ht="12.75">
+    <row r="757">
       <c r="A757" s="5"/>
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
@@ -18718,7 +19008,7 @@
       <c r="Y757" s="5"/>
       <c r="Z757" s="5"/>
     </row>
-    <row r="758" spans="1:26" ht="12.75">
+    <row r="758">
       <c r="A758" s="5"/>
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
@@ -18741,7 +19031,7 @@
       <c r="Y758" s="5"/>
       <c r="Z758" s="5"/>
     </row>
-    <row r="759" spans="1:26" ht="12.75">
+    <row r="759">
       <c r="A759" s="5"/>
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
@@ -18764,7 +19054,7 @@
       <c r="Y759" s="5"/>
       <c r="Z759" s="5"/>
     </row>
-    <row r="760" spans="1:26" ht="12.75">
+    <row r="760">
       <c r="A760" s="5"/>
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
@@ -18787,7 +19077,7 @@
       <c r="Y760" s="5"/>
       <c r="Z760" s="5"/>
     </row>
-    <row r="761" spans="1:26" ht="12.75">
+    <row r="761">
       <c r="A761" s="5"/>
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
@@ -18810,7 +19100,7 @@
       <c r="Y761" s="5"/>
       <c r="Z761" s="5"/>
     </row>
-    <row r="762" spans="1:26" ht="12.75">
+    <row r="762">
       <c r="A762" s="5"/>
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
@@ -18833,7 +19123,7 @@
       <c r="Y762" s="5"/>
       <c r="Z762" s="5"/>
     </row>
-    <row r="763" spans="1:26" ht="12.75">
+    <row r="763">
       <c r="A763" s="5"/>
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
@@ -18856,7 +19146,7 @@
       <c r="Y763" s="5"/>
       <c r="Z763" s="5"/>
     </row>
-    <row r="764" spans="1:26" ht="12.75">
+    <row r="764">
       <c r="A764" s="5"/>
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
@@ -18879,7 +19169,7 @@
       <c r="Y764" s="5"/>
       <c r="Z764" s="5"/>
     </row>
-    <row r="765" spans="1:26" ht="12.75">
+    <row r="765">
       <c r="A765" s="5"/>
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
@@ -18902,7 +19192,7 @@
       <c r="Y765" s="5"/>
       <c r="Z765" s="5"/>
     </row>
-    <row r="766" spans="1:26" ht="12.75">
+    <row r="766">
       <c r="A766" s="5"/>
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
@@ -18925,7 +19215,7 @@
       <c r="Y766" s="5"/>
       <c r="Z766" s="5"/>
     </row>
-    <row r="767" spans="1:26" ht="12.75">
+    <row r="767">
       <c r="A767" s="5"/>
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
@@ -18948,7 +19238,7 @@
       <c r="Y767" s="5"/>
       <c r="Z767" s="5"/>
     </row>
-    <row r="768" spans="1:26" ht="12.75">
+    <row r="768">
       <c r="A768" s="5"/>
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
@@ -18971,7 +19261,7 @@
       <c r="Y768" s="5"/>
       <c r="Z768" s="5"/>
     </row>
-    <row r="769" spans="1:26" ht="12.75">
+    <row r="769">
       <c r="A769" s="5"/>
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
@@ -18994,7 +19284,7 @@
       <c r="Y769" s="5"/>
       <c r="Z769" s="5"/>
     </row>
-    <row r="770" spans="1:26" ht="12.75">
+    <row r="770">
       <c r="A770" s="5"/>
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
@@ -19017,7 +19307,7 @@
       <c r="Y770" s="5"/>
       <c r="Z770" s="5"/>
     </row>
-    <row r="771" spans="1:26" ht="12.75">
+    <row r="771">
       <c r="A771" s="5"/>
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
@@ -19040,7 +19330,7 @@
       <c r="Y771" s="5"/>
       <c r="Z771" s="5"/>
     </row>
-    <row r="772" spans="1:26" ht="12.75">
+    <row r="772">
       <c r="A772" s="5"/>
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
@@ -19063,7 +19353,7 @@
       <c r="Y772" s="5"/>
       <c r="Z772" s="5"/>
     </row>
-    <row r="773" spans="1:26" ht="12.75">
+    <row r="773">
       <c r="A773" s="5"/>
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
@@ -19086,7 +19376,7 @@
       <c r="Y773" s="5"/>
       <c r="Z773" s="5"/>
     </row>
-    <row r="774" spans="1:26" ht="12.75">
+    <row r="774">
       <c r="A774" s="5"/>
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
@@ -19109,7 +19399,7 @@
       <c r="Y774" s="5"/>
       <c r="Z774" s="5"/>
     </row>
-    <row r="775" spans="1:26" ht="12.75">
+    <row r="775">
       <c r="A775" s="5"/>
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
@@ -19132,7 +19422,7 @@
       <c r="Y775" s="5"/>
       <c r="Z775" s="5"/>
     </row>
-    <row r="776" spans="1:26" ht="12.75">
+    <row r="776">
       <c r="A776" s="5"/>
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
@@ -19155,7 +19445,7 @@
       <c r="Y776" s="5"/>
       <c r="Z776" s="5"/>
     </row>
-    <row r="777" spans="1:26" ht="12.75">
+    <row r="777">
       <c r="A777" s="5"/>
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
@@ -19178,7 +19468,7 @@
       <c r="Y777" s="5"/>
       <c r="Z777" s="5"/>
     </row>
-    <row r="778" spans="1:26" ht="12.75">
+    <row r="778">
       <c r="A778" s="5"/>
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
@@ -19201,7 +19491,7 @@
       <c r="Y778" s="5"/>
       <c r="Z778" s="5"/>
     </row>
-    <row r="779" spans="1:26" ht="12.75">
+    <row r="779">
       <c r="A779" s="5"/>
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
@@ -19224,7 +19514,7 @@
       <c r="Y779" s="5"/>
       <c r="Z779" s="5"/>
     </row>
-    <row r="780" spans="1:26" ht="12.75">
+    <row r="780">
       <c r="A780" s="5"/>
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
@@ -19247,7 +19537,7 @@
       <c r="Y780" s="5"/>
       <c r="Z780" s="5"/>
     </row>
-    <row r="781" spans="1:26" ht="12.75">
+    <row r="781">
       <c r="A781" s="5"/>
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
@@ -19270,7 +19560,7 @@
       <c r="Y781" s="5"/>
       <c r="Z781" s="5"/>
     </row>
-    <row r="782" spans="1:26" ht="12.75">
+    <row r="782">
       <c r="A782" s="5"/>
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
@@ -19293,7 +19583,7 @@
       <c r="Y782" s="5"/>
       <c r="Z782" s="5"/>
     </row>
-    <row r="783" spans="1:26" ht="12.75">
+    <row r="783">
       <c r="A783" s="5"/>
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
@@ -19316,7 +19606,7 @@
       <c r="Y783" s="5"/>
       <c r="Z783" s="5"/>
     </row>
-    <row r="784" spans="1:26" ht="12.75">
+    <row r="784">
       <c r="A784" s="5"/>
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
@@ -19339,7 +19629,7 @@
       <c r="Y784" s="5"/>
       <c r="Z784" s="5"/>
     </row>
-    <row r="785" spans="1:26" ht="12.75">
+    <row r="785">
       <c r="A785" s="5"/>
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
@@ -19362,7 +19652,7 @@
       <c r="Y785" s="5"/>
       <c r="Z785" s="5"/>
     </row>
-    <row r="786" spans="1:26" ht="12.75">
+    <row r="786">
       <c r="A786" s="5"/>
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
@@ -19385,7 +19675,7 @@
       <c r="Y786" s="5"/>
       <c r="Z786" s="5"/>
     </row>
-    <row r="787" spans="1:26" ht="12.75">
+    <row r="787">
       <c r="A787" s="5"/>
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
@@ -19408,7 +19698,7 @@
       <c r="Y787" s="5"/>
       <c r="Z787" s="5"/>
     </row>
-    <row r="788" spans="1:26" ht="12.75">
+    <row r="788">
       <c r="A788" s="5"/>
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
@@ -19431,7 +19721,7 @@
       <c r="Y788" s="5"/>
       <c r="Z788" s="5"/>
     </row>
-    <row r="789" spans="1:26" ht="12.75">
+    <row r="789">
       <c r="A789" s="5"/>
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
@@ -19454,7 +19744,7 @@
       <c r="Y789" s="5"/>
       <c r="Z789" s="5"/>
     </row>
-    <row r="790" spans="1:26" ht="12.75">
+    <row r="790">
       <c r="A790" s="5"/>
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
@@ -19477,7 +19767,7 @@
       <c r="Y790" s="5"/>
       <c r="Z790" s="5"/>
     </row>
-    <row r="791" spans="1:26" ht="12.75">
+    <row r="791">
       <c r="A791" s="5"/>
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
@@ -19500,7 +19790,7 @@
       <c r="Y791" s="5"/>
       <c r="Z791" s="5"/>
     </row>
-    <row r="792" spans="1:26" ht="12.75">
+    <row r="792">
       <c r="A792" s="5"/>
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
@@ -19523,7 +19813,7 @@
       <c r="Y792" s="5"/>
       <c r="Z792" s="5"/>
     </row>
-    <row r="793" spans="1:26" ht="12.75">
+    <row r="793">
       <c r="A793" s="5"/>
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
@@ -19546,7 +19836,7 @@
       <c r="Y793" s="5"/>
       <c r="Z793" s="5"/>
     </row>
-    <row r="794" spans="1:26" ht="12.75">
+    <row r="794">
       <c r="A794" s="5"/>
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
@@ -19569,7 +19859,7 @@
       <c r="Y794" s="5"/>
       <c r="Z794" s="5"/>
     </row>
-    <row r="795" spans="1:26" ht="12.75">
+    <row r="795">
       <c r="A795" s="5"/>
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
@@ -19592,7 +19882,7 @@
       <c r="Y795" s="5"/>
       <c r="Z795" s="5"/>
     </row>
-    <row r="796" spans="1:26" ht="12.75">
+    <row r="796">
       <c r="A796" s="5"/>
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
@@ -19615,7 +19905,7 @@
       <c r="Y796" s="5"/>
       <c r="Z796" s="5"/>
     </row>
-    <row r="797" spans="1:26" ht="12.75">
+    <row r="797">
       <c r="A797" s="5"/>
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
@@ -19638,7 +19928,7 @@
       <c r="Y797" s="5"/>
       <c r="Z797" s="5"/>
     </row>
-    <row r="798" spans="1:26" ht="12.75">
+    <row r="798">
       <c r="A798" s="5"/>
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
@@ -19661,7 +19951,7 @@
       <c r="Y798" s="5"/>
       <c r="Z798" s="5"/>
     </row>
-    <row r="799" spans="1:26" ht="12.75">
+    <row r="799">
       <c r="A799" s="5"/>
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
@@ -19684,7 +19974,7 @@
       <c r="Y799" s="5"/>
       <c r="Z799" s="5"/>
     </row>
-    <row r="800" spans="1:26" ht="12.75">
+    <row r="800">
       <c r="A800" s="5"/>
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
@@ -19707,7 +19997,7 @@
       <c r="Y800" s="5"/>
       <c r="Z800" s="5"/>
     </row>
-    <row r="801" spans="1:26" ht="12.75">
+    <row r="801">
       <c r="A801" s="5"/>
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
@@ -19730,7 +20020,7 @@
       <c r="Y801" s="5"/>
       <c r="Z801" s="5"/>
     </row>
-    <row r="802" spans="1:26" ht="12.75">
+    <row r="802">
       <c r="A802" s="5"/>
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
@@ -19753,7 +20043,7 @@
       <c r="Y802" s="5"/>
       <c r="Z802" s="5"/>
     </row>
-    <row r="803" spans="1:26" ht="12.75">
+    <row r="803">
       <c r="A803" s="5"/>
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
@@ -19776,7 +20066,7 @@
       <c r="Y803" s="5"/>
       <c r="Z803" s="5"/>
     </row>
-    <row r="804" spans="1:26" ht="12.75">
+    <row r="804">
       <c r="A804" s="5"/>
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
@@ -19799,7 +20089,7 @@
       <c r="Y804" s="5"/>
       <c r="Z804" s="5"/>
     </row>
-    <row r="805" spans="1:26" ht="12.75">
+    <row r="805">
       <c r="A805" s="5"/>
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
@@ -19822,7 +20112,7 @@
       <c r="Y805" s="5"/>
       <c r="Z805" s="5"/>
     </row>
-    <row r="806" spans="1:26" ht="12.75">
+    <row r="806">
       <c r="A806" s="5"/>
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
@@ -19845,7 +20135,7 @@
       <c r="Y806" s="5"/>
       <c r="Z806" s="5"/>
     </row>
-    <row r="807" spans="1:26" ht="12.75">
+    <row r="807">
       <c r="A807" s="5"/>
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
@@ -19868,7 +20158,7 @@
       <c r="Y807" s="5"/>
       <c r="Z807" s="5"/>
     </row>
-    <row r="808" spans="1:26" ht="12.75">
+    <row r="808">
       <c r="A808" s="5"/>
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
@@ -19891,7 +20181,7 @@
       <c r="Y808" s="5"/>
       <c r="Z808" s="5"/>
     </row>
-    <row r="809" spans="1:26" ht="12.75">
+    <row r="809">
       <c r="A809" s="5"/>
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
@@ -19914,7 +20204,7 @@
       <c r="Y809" s="5"/>
       <c r="Z809" s="5"/>
     </row>
-    <row r="810" spans="1:26" ht="12.75">
+    <row r="810">
       <c r="A810" s="5"/>
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
@@ -19937,7 +20227,7 @@
       <c r="Y810" s="5"/>
       <c r="Z810" s="5"/>
     </row>
-    <row r="811" spans="1:26" ht="12.75">
+    <row r="811">
       <c r="A811" s="5"/>
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
@@ -19960,7 +20250,7 @@
       <c r="Y811" s="5"/>
       <c r="Z811" s="5"/>
     </row>
-    <row r="812" spans="1:26" ht="12.75">
+    <row r="812">
       <c r="A812" s="5"/>
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
@@ -19983,7 +20273,7 @@
       <c r="Y812" s="5"/>
       <c r="Z812" s="5"/>
     </row>
-    <row r="813" spans="1:26" ht="12.75">
+    <row r="813">
       <c r="A813" s="5"/>
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
@@ -20006,7 +20296,7 @@
       <c r="Y813" s="5"/>
       <c r="Z813" s="5"/>
     </row>
-    <row r="814" spans="1:26" ht="12.75">
+    <row r="814">
       <c r="A814" s="5"/>
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
@@ -20029,7 +20319,7 @@
       <c r="Y814" s="5"/>
       <c r="Z814" s="5"/>
     </row>
-    <row r="815" spans="1:26" ht="12.75">
+    <row r="815">
       <c r="A815" s="5"/>
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
@@ -20052,7 +20342,7 @@
       <c r="Y815" s="5"/>
       <c r="Z815" s="5"/>
     </row>
-    <row r="816" spans="1:26" ht="12.75">
+    <row r="816">
       <c r="A816" s="5"/>
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
@@ -20075,7 +20365,7 @@
       <c r="Y816" s="5"/>
       <c r="Z816" s="5"/>
     </row>
-    <row r="817" spans="1:26" ht="12.75">
+    <row r="817">
       <c r="A817" s="5"/>
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
@@ -20098,7 +20388,7 @@
       <c r="Y817" s="5"/>
       <c r="Z817" s="5"/>
     </row>
-    <row r="818" spans="1:26" ht="12.75">
+    <row r="818">
       <c r="A818" s="5"/>
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
@@ -20121,7 +20411,7 @@
       <c r="Y818" s="5"/>
       <c r="Z818" s="5"/>
     </row>
-    <row r="819" spans="1:26" ht="12.75">
+    <row r="819">
       <c r="A819" s="5"/>
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
@@ -20144,7 +20434,7 @@
       <c r="Y819" s="5"/>
       <c r="Z819" s="5"/>
     </row>
-    <row r="820" spans="1:26" ht="12.75">
+    <row r="820">
       <c r="A820" s="5"/>
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
@@ -20167,7 +20457,7 @@
       <c r="Y820" s="5"/>
       <c r="Z820" s="5"/>
     </row>
-    <row r="821" spans="1:26" ht="12.75">
+    <row r="821">
       <c r="A821" s="5"/>
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
@@ -20190,7 +20480,7 @@
       <c r="Y821" s="5"/>
       <c r="Z821" s="5"/>
     </row>
-    <row r="822" spans="1:26" ht="12.75">
+    <row r="822">
       <c r="A822" s="5"/>
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
@@ -20213,7 +20503,7 @@
       <c r="Y822" s="5"/>
       <c r="Z822" s="5"/>
     </row>
-    <row r="823" spans="1:26" ht="12.75">
+    <row r="823">
       <c r="A823" s="5"/>
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
@@ -20236,7 +20526,7 @@
       <c r="Y823" s="5"/>
       <c r="Z823" s="5"/>
     </row>
-    <row r="824" spans="1:26" ht="12.75">
+    <row r="824">
       <c r="A824" s="5"/>
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
@@ -20259,7 +20549,7 @@
       <c r="Y824" s="5"/>
       <c r="Z824" s="5"/>
     </row>
-    <row r="825" spans="1:26" ht="12.75">
+    <row r="825">
       <c r="A825" s="5"/>
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
@@ -20282,7 +20572,7 @@
       <c r="Y825" s="5"/>
       <c r="Z825" s="5"/>
     </row>
-    <row r="826" spans="1:26" ht="12.75">
+    <row r="826">
       <c r="A826" s="5"/>
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
@@ -20305,7 +20595,7 @@
       <c r="Y826" s="5"/>
       <c r="Z826" s="5"/>
     </row>
-    <row r="827" spans="1:26" ht="12.75">
+    <row r="827">
       <c r="A827" s="5"/>
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
@@ -20328,7 +20618,7 @@
       <c r="Y827" s="5"/>
       <c r="Z827" s="5"/>
     </row>
-    <row r="828" spans="1:26" ht="12.75">
+    <row r="828">
       <c r="A828" s="5"/>
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
@@ -20351,7 +20641,7 @@
       <c r="Y828" s="5"/>
       <c r="Z828" s="5"/>
     </row>
-    <row r="829" spans="1:26" ht="12.75">
+    <row r="829">
       <c r="A829" s="5"/>
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
@@ -20374,7 +20664,7 @@
       <c r="Y829" s="5"/>
       <c r="Z829" s="5"/>
     </row>
-    <row r="830" spans="1:26" ht="12.75">
+    <row r="830">
       <c r="A830" s="5"/>
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
@@ -20397,7 +20687,7 @@
       <c r="Y830" s="5"/>
       <c r="Z830" s="5"/>
     </row>
-    <row r="831" spans="1:26" ht="12.75">
+    <row r="831">
       <c r="A831" s="5"/>
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
@@ -20420,7 +20710,7 @@
       <c r="Y831" s="5"/>
       <c r="Z831" s="5"/>
     </row>
-    <row r="832" spans="1:26" ht="12.75">
+    <row r="832">
       <c r="A832" s="5"/>
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
@@ -20443,7 +20733,7 @@
       <c r="Y832" s="5"/>
       <c r="Z832" s="5"/>
     </row>
-    <row r="833" spans="1:26" ht="12.75">
+    <row r="833">
       <c r="A833" s="5"/>
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
@@ -20466,7 +20756,7 @@
       <c r="Y833" s="5"/>
       <c r="Z833" s="5"/>
     </row>
-    <row r="834" spans="1:26" ht="12.75">
+    <row r="834">
       <c r="A834" s="5"/>
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
@@ -20489,7 +20779,7 @@
       <c r="Y834" s="5"/>
       <c r="Z834" s="5"/>
     </row>
-    <row r="835" spans="1:26" ht="12.75">
+    <row r="835">
       <c r="A835" s="5"/>
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
@@ -20512,7 +20802,7 @@
       <c r="Y835" s="5"/>
       <c r="Z835" s="5"/>
     </row>
-    <row r="836" spans="1:26" ht="12.75">
+    <row r="836">
       <c r="A836" s="5"/>
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
@@ -20535,7 +20825,7 @@
       <c r="Y836" s="5"/>
       <c r="Z836" s="5"/>
     </row>
-    <row r="837" spans="1:26" ht="12.75">
+    <row r="837">
       <c r="A837" s="5"/>
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
@@ -20558,7 +20848,7 @@
       <c r="Y837" s="5"/>
       <c r="Z837" s="5"/>
     </row>
-    <row r="838" spans="1:26" ht="12.75">
+    <row r="838">
       <c r="A838" s="5"/>
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
@@ -20581,7 +20871,7 @@
       <c r="Y838" s="5"/>
       <c r="Z838" s="5"/>
     </row>
-    <row r="839" spans="1:26" ht="12.75">
+    <row r="839">
       <c r="A839" s="5"/>
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
@@ -20604,7 +20894,7 @@
       <c r="Y839" s="5"/>
       <c r="Z839" s="5"/>
     </row>
-    <row r="840" spans="1:26" ht="12.75">
+    <row r="840">
       <c r="A840" s="5"/>
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
@@ -20627,7 +20917,7 @@
       <c r="Y840" s="5"/>
       <c r="Z840" s="5"/>
     </row>
-    <row r="841" spans="1:26" ht="12.75">
+    <row r="841">
       <c r="A841" s="5"/>
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
@@ -20650,7 +20940,7 @@
       <c r="Y841" s="5"/>
       <c r="Z841" s="5"/>
     </row>
-    <row r="842" spans="1:26" ht="12.75">
+    <row r="842">
       <c r="A842" s="5"/>
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
@@ -20673,7 +20963,7 @@
       <c r="Y842" s="5"/>
       <c r="Z842" s="5"/>
     </row>
-    <row r="843" spans="1:26" ht="12.75">
+    <row r="843">
       <c r="A843" s="5"/>
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
@@ -20696,7 +20986,7 @@
       <c r="Y843" s="5"/>
       <c r="Z843" s="5"/>
     </row>
-    <row r="844" spans="1:26" ht="12.75">
+    <row r="844">
       <c r="A844" s="5"/>
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
@@ -20719,7 +21009,7 @@
       <c r="Y844" s="5"/>
       <c r="Z844" s="5"/>
     </row>
-    <row r="845" spans="1:26" ht="12.75">
+    <row r="845">
       <c r="A845" s="5"/>
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
@@ -20742,7 +21032,7 @@
       <c r="Y845" s="5"/>
       <c r="Z845" s="5"/>
     </row>
-    <row r="846" spans="1:26" ht="12.75">
+    <row r="846">
       <c r="A846" s="5"/>
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
@@ -20765,7 +21055,7 @@
       <c r="Y846" s="5"/>
       <c r="Z846" s="5"/>
     </row>
-    <row r="847" spans="1:26" ht="12.75">
+    <row r="847">
       <c r="A847" s="5"/>
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
@@ -20788,7 +21078,7 @@
       <c r="Y847" s="5"/>
       <c r="Z847" s="5"/>
     </row>
-    <row r="848" spans="1:26" ht="12.75">
+    <row r="848">
       <c r="A848" s="5"/>
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
@@ -20811,7 +21101,7 @@
       <c r="Y848" s="5"/>
       <c r="Z848" s="5"/>
     </row>
-    <row r="849" spans="1:26" ht="12.75">
+    <row r="849">
       <c r="A849" s="5"/>
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
@@ -20834,7 +21124,7 @@
       <c r="Y849" s="5"/>
       <c r="Z849" s="5"/>
     </row>
-    <row r="850" spans="1:26" ht="12.75">
+    <row r="850">
       <c r="A850" s="5"/>
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
@@ -20857,7 +21147,7 @@
       <c r="Y850" s="5"/>
       <c r="Z850" s="5"/>
     </row>
-    <row r="851" spans="1:26" ht="12.75">
+    <row r="851">
       <c r="A851" s="5"/>
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
@@ -20880,7 +21170,7 @@
       <c r="Y851" s="5"/>
       <c r="Z851" s="5"/>
     </row>
-    <row r="852" spans="1:26" ht="12.75">
+    <row r="852">
       <c r="A852" s="5"/>
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
@@ -20903,7 +21193,7 @@
       <c r="Y852" s="5"/>
       <c r="Z852" s="5"/>
     </row>
-    <row r="853" spans="1:26" ht="12.75">
+    <row r="853">
       <c r="A853" s="5"/>
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
@@ -20926,7 +21216,7 @@
       <c r="Y853" s="5"/>
       <c r="Z853" s="5"/>
     </row>
-    <row r="854" spans="1:26" ht="12.75">
+    <row r="854">
       <c r="A854" s="5"/>
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
@@ -20949,7 +21239,7 @@
       <c r="Y854" s="5"/>
       <c r="Z854" s="5"/>
     </row>
-    <row r="855" spans="1:26" ht="12.75">
+    <row r="855">
       <c r="A855" s="5"/>
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
@@ -20972,7 +21262,7 @@
       <c r="Y855" s="5"/>
       <c r="Z855" s="5"/>
     </row>
-    <row r="856" spans="1:26" ht="12.75">
+    <row r="856">
       <c r="A856" s="5"/>
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
@@ -20995,7 +21285,7 @@
       <c r="Y856" s="5"/>
       <c r="Z856" s="5"/>
     </row>
-    <row r="857" spans="1:26" ht="12.75">
+    <row r="857">
       <c r="A857" s="5"/>
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
@@ -21018,7 +21308,7 @@
       <c r="Y857" s="5"/>
       <c r="Z857" s="5"/>
     </row>
-    <row r="858" spans="1:26" ht="12.75">
+    <row r="858">
       <c r="A858" s="5"/>
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
@@ -21041,7 +21331,7 @@
       <c r="Y858" s="5"/>
       <c r="Z858" s="5"/>
     </row>
-    <row r="859" spans="1:26" ht="12.75">
+    <row r="859">
       <c r="A859" s="5"/>
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
@@ -21064,7 +21354,7 @@
       <c r="Y859" s="5"/>
       <c r="Z859" s="5"/>
     </row>
-    <row r="860" spans="1:26" ht="12.75">
+    <row r="860">
       <c r="A860" s="5"/>
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
@@ -21087,7 +21377,7 @@
       <c r="Y860" s="5"/>
       <c r="Z860" s="5"/>
     </row>
-    <row r="861" spans="1:26" ht="12.75">
+    <row r="861">
       <c r="A861" s="5"/>
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
@@ -21110,7 +21400,7 @@
       <c r="Y861" s="5"/>
       <c r="Z861" s="5"/>
     </row>
-    <row r="862" spans="1:26" ht="12.75">
+    <row r="862">
       <c r="A862" s="5"/>
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
@@ -21133,7 +21423,7 @@
       <c r="Y862" s="5"/>
       <c r="Z862" s="5"/>
     </row>
-    <row r="863" spans="1:26" ht="12.75">
+    <row r="863">
       <c r="A863" s="5"/>
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
@@ -21156,7 +21446,7 @@
       <c r="Y863" s="5"/>
       <c r="Z863" s="5"/>
     </row>
-    <row r="864" spans="1:26" ht="12.75">
+    <row r="864">
       <c r="A864" s="5"/>
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
@@ -21179,7 +21469,7 @@
       <c r="Y864" s="5"/>
       <c r="Z864" s="5"/>
     </row>
-    <row r="865" spans="1:26" ht="12.75">
+    <row r="865">
       <c r="A865" s="5"/>
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
@@ -21202,7 +21492,7 @@
       <c r="Y865" s="5"/>
       <c r="Z865" s="5"/>
     </row>
-    <row r="866" spans="1:26" ht="12.75">
+    <row r="866">
       <c r="A866" s="5"/>
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
@@ -21225,7 +21515,7 @@
       <c r="Y866" s="5"/>
       <c r="Z866" s="5"/>
     </row>
-    <row r="867" spans="1:26" ht="12.75">
+    <row r="867">
       <c r="A867" s="5"/>
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
@@ -21248,7 +21538,7 @@
       <c r="Y867" s="5"/>
       <c r="Z867" s="5"/>
     </row>
-    <row r="868" spans="1:26" ht="12.75">
+    <row r="868">
       <c r="A868" s="5"/>
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
@@ -21271,7 +21561,7 @@
       <c r="Y868" s="5"/>
       <c r="Z868" s="5"/>
     </row>
-    <row r="869" spans="1:26" ht="12.75">
+    <row r="869">
       <c r="A869" s="5"/>
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
@@ -21294,7 +21584,7 @@
       <c r="Y869" s="5"/>
       <c r="Z869" s="5"/>
     </row>
-    <row r="870" spans="1:26" ht="12.75">
+    <row r="870">
       <c r="A870" s="5"/>
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
@@ -21317,7 +21607,7 @@
       <c r="Y870" s="5"/>
       <c r="Z870" s="5"/>
     </row>
-    <row r="871" spans="1:26" ht="12.75">
+    <row r="871">
       <c r="A871" s="5"/>
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
@@ -21340,7 +21630,7 @@
       <c r="Y871" s="5"/>
       <c r="Z871" s="5"/>
     </row>
-    <row r="872" spans="1:26" ht="12.75">
+    <row r="872">
       <c r="A872" s="5"/>
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
@@ -21363,7 +21653,7 @@
       <c r="Y872" s="5"/>
       <c r="Z872" s="5"/>
     </row>
-    <row r="873" spans="1:26" ht="12.75">
+    <row r="873">
       <c r="A873" s="5"/>
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
@@ -21386,7 +21676,7 @@
       <c r="Y873" s="5"/>
       <c r="Z873" s="5"/>
     </row>
-    <row r="874" spans="1:26" ht="12.75">
+    <row r="874">
       <c r="A874" s="5"/>
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
@@ -21409,7 +21699,7 @@
       <c r="Y874" s="5"/>
       <c r="Z874" s="5"/>
     </row>
-    <row r="875" spans="1:26" ht="12.75">
+    <row r="875">
       <c r="A875" s="5"/>
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
@@ -21432,7 +21722,7 @@
       <c r="Y875" s="5"/>
       <c r="Z875" s="5"/>
     </row>
-    <row r="876" spans="1:26" ht="12.75">
+    <row r="876">
       <c r="A876" s="5"/>
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
@@ -21455,7 +21745,7 @@
       <c r="Y876" s="5"/>
       <c r="Z876" s="5"/>
     </row>
-    <row r="877" spans="1:26" ht="12.75">
+    <row r="877">
       <c r="A877" s="5"/>
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
@@ -21478,7 +21768,7 @@
       <c r="Y877" s="5"/>
       <c r="Z877" s="5"/>
     </row>
-    <row r="878" spans="1:26" ht="12.75">
+    <row r="878">
       <c r="A878" s="5"/>
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
@@ -21501,7 +21791,7 @@
       <c r="Y878" s="5"/>
       <c r="Z878" s="5"/>
     </row>
-    <row r="879" spans="1:26" ht="12.75">
+    <row r="879">
       <c r="A879" s="5"/>
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
@@ -21524,7 +21814,7 @@
       <c r="Y879" s="5"/>
       <c r="Z879" s="5"/>
     </row>
-    <row r="880" spans="1:26" ht="12.75">
+    <row r="880">
       <c r="A880" s="5"/>
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
@@ -21547,7 +21837,7 @@
       <c r="Y880" s="5"/>
       <c r="Z880" s="5"/>
     </row>
-    <row r="881" spans="1:26" ht="12.75">
+    <row r="881">
       <c r="A881" s="5"/>
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
@@ -21570,7 +21860,7 @@
       <c r="Y881" s="5"/>
       <c r="Z881" s="5"/>
     </row>
-    <row r="882" spans="1:26" ht="12.75">
+    <row r="882">
       <c r="A882" s="5"/>
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
@@ -21593,7 +21883,7 @@
       <c r="Y882" s="5"/>
       <c r="Z882" s="5"/>
     </row>
-    <row r="883" spans="1:26" ht="12.75">
+    <row r="883">
       <c r="A883" s="5"/>
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
@@ -21616,7 +21906,7 @@
       <c r="Y883" s="5"/>
       <c r="Z883" s="5"/>
     </row>
-    <row r="884" spans="1:26" ht="12.75">
+    <row r="884">
       <c r="A884" s="5"/>
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
@@ -21639,7 +21929,7 @@
       <c r="Y884" s="5"/>
       <c r="Z884" s="5"/>
     </row>
-    <row r="885" spans="1:26" ht="12.75">
+    <row r="885">
       <c r="A885" s="5"/>
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
@@ -21662,7 +21952,7 @@
       <c r="Y885" s="5"/>
       <c r="Z885" s="5"/>
     </row>
-    <row r="886" spans="1:26" ht="12.75">
+    <row r="886">
       <c r="A886" s="5"/>
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
@@ -21685,7 +21975,7 @@
       <c r="Y886" s="5"/>
       <c r="Z886" s="5"/>
     </row>
-    <row r="887" spans="1:26" ht="12.75">
+    <row r="887">
       <c r="A887" s="5"/>
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
@@ -21708,7 +21998,7 @@
       <c r="Y887" s="5"/>
       <c r="Z887" s="5"/>
     </row>
-    <row r="888" spans="1:26" ht="12.75">
+    <row r="888">
       <c r="A888" s="5"/>
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
@@ -21731,7 +22021,7 @@
       <c r="Y888" s="5"/>
       <c r="Z888" s="5"/>
     </row>
-    <row r="889" spans="1:26" ht="12.75">
+    <row r="889">
       <c r="A889" s="5"/>
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
@@ -21754,7 +22044,7 @@
       <c r="Y889" s="5"/>
       <c r="Z889" s="5"/>
     </row>
-    <row r="890" spans="1:26" ht="12.75">
+    <row r="890">
       <c r="A890" s="5"/>
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
@@ -21777,7 +22067,7 @@
       <c r="Y890" s="5"/>
       <c r="Z890" s="5"/>
     </row>
-    <row r="891" spans="1:26" ht="12.75">
+    <row r="891">
       <c r="A891" s="5"/>
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
@@ -21800,7 +22090,7 @@
       <c r="Y891" s="5"/>
       <c r="Z891" s="5"/>
     </row>
-    <row r="892" spans="1:26" ht="12.75">
+    <row r="892">
       <c r="A892" s="5"/>
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
@@ -21823,7 +22113,7 @@
       <c r="Y892" s="5"/>
       <c r="Z892" s="5"/>
     </row>
-    <row r="893" spans="1:26" ht="12.75">
+    <row r="893">
       <c r="A893" s="5"/>
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
@@ -21846,7 +22136,7 @@
       <c r="Y893" s="5"/>
       <c r="Z893" s="5"/>
     </row>
-    <row r="894" spans="1:26" ht="12.75">
+    <row r="894">
       <c r="A894" s="5"/>
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
@@ -21869,7 +22159,7 @@
       <c r="Y894" s="5"/>
       <c r="Z894" s="5"/>
     </row>
-    <row r="895" spans="1:26" ht="12.75">
+    <row r="895">
       <c r="A895" s="5"/>
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
@@ -21892,7 +22182,7 @@
       <c r="Y895" s="5"/>
       <c r="Z895" s="5"/>
     </row>
-    <row r="896" spans="1:26" ht="12.75">
+    <row r="896">
       <c r="A896" s="5"/>
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
@@ -21915,7 +22205,7 @@
       <c r="Y896" s="5"/>
       <c r="Z896" s="5"/>
     </row>
-    <row r="897" spans="1:26" ht="12.75">
+    <row r="897">
       <c r="A897" s="5"/>
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
@@ -21938,7 +22228,7 @@
       <c r="Y897" s="5"/>
       <c r="Z897" s="5"/>
     </row>
-    <row r="898" spans="1:26" ht="12.75">
+    <row r="898">
       <c r="A898" s="5"/>
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
@@ -21961,7 +22251,7 @@
       <c r="Y898" s="5"/>
       <c r="Z898" s="5"/>
     </row>
-    <row r="899" spans="1:26" ht="12.75">
+    <row r="899">
       <c r="A899" s="5"/>
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
@@ -21984,7 +22274,7 @@
       <c r="Y899" s="5"/>
       <c r="Z899" s="5"/>
     </row>
-    <row r="900" spans="1:26" ht="12.75">
+    <row r="900">
       <c r="A900" s="5"/>
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
@@ -22007,7 +22297,7 @@
       <c r="Y900" s="5"/>
       <c r="Z900" s="5"/>
     </row>
-    <row r="901" spans="1:26" ht="12.75">
+    <row r="901">
       <c r="A901" s="5"/>
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
@@ -22030,7 +22320,7 @@
       <c r="Y901" s="5"/>
       <c r="Z901" s="5"/>
     </row>
-    <row r="902" spans="1:26" ht="12.75">
+    <row r="902">
       <c r="A902" s="5"/>
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
@@ -22053,7 +22343,7 @@
       <c r="Y902" s="5"/>
       <c r="Z902" s="5"/>
     </row>
-    <row r="903" spans="1:26" ht="12.75">
+    <row r="903">
       <c r="A903" s="5"/>
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
@@ -22076,7 +22366,7 @@
       <c r="Y903" s="5"/>
       <c r="Z903" s="5"/>
     </row>
-    <row r="904" spans="1:26" ht="12.75">
+    <row r="904">
       <c r="A904" s="5"/>
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
@@ -22099,7 +22389,7 @@
       <c r="Y904" s="5"/>
       <c r="Z904" s="5"/>
     </row>
-    <row r="905" spans="1:26" ht="12.75">
+    <row r="905">
       <c r="A905" s="5"/>
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
@@ -22122,7 +22412,7 @@
       <c r="Y905" s="5"/>
       <c r="Z905" s="5"/>
     </row>
-    <row r="906" spans="1:26" ht="12.75">
+    <row r="906">
       <c r="A906" s="5"/>
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
@@ -22145,7 +22435,7 @@
       <c r="Y906" s="5"/>
       <c r="Z906" s="5"/>
     </row>
-    <row r="907" spans="1:26" ht="12.75">
+    <row r="907">
       <c r="A907" s="5"/>
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
@@ -22168,7 +22458,7 @@
       <c r="Y907" s="5"/>
       <c r="Z907" s="5"/>
     </row>
-    <row r="908" spans="1:26" ht="12.75">
+    <row r="908">
       <c r="A908" s="5"/>
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
@@ -22191,7 +22481,7 @@
       <c r="Y908" s="5"/>
       <c r="Z908" s="5"/>
     </row>
-    <row r="909" spans="1:26" ht="12.75">
+    <row r="909">
       <c r="A909" s="5"/>
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
@@ -22214,7 +22504,7 @@
       <c r="Y909" s="5"/>
       <c r="Z909" s="5"/>
     </row>
-    <row r="910" spans="1:26" ht="12.75">
+    <row r="910">
       <c r="A910" s="5"/>
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
@@ -22237,7 +22527,7 @@
       <c r="Y910" s="5"/>
       <c r="Z910" s="5"/>
     </row>
-    <row r="911" spans="1:26" ht="12.75">
+    <row r="911">
       <c r="A911" s="5"/>
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
@@ -22260,7 +22550,7 @@
       <c r="Y911" s="5"/>
       <c r="Z911" s="5"/>
     </row>
-    <row r="912" spans="1:26" ht="12.75">
+    <row r="912">
       <c r="A912" s="5"/>
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
@@ -22283,7 +22573,7 @@
       <c r="Y912" s="5"/>
       <c r="Z912" s="5"/>
     </row>
-    <row r="913" spans="1:26" ht="12.75">
+    <row r="913">
       <c r="A913" s="5"/>
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
@@ -22306,7 +22596,7 @@
       <c r="Y913" s="5"/>
       <c r="Z913" s="5"/>
     </row>
-    <row r="914" spans="1:26" ht="12.75">
+    <row r="914">
       <c r="A914" s="5"/>
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
@@ -22329,7 +22619,7 @@
       <c r="Y914" s="5"/>
       <c r="Z914" s="5"/>
     </row>
-    <row r="915" spans="1:26" ht="12.75">
+    <row r="915">
       <c r="A915" s="5"/>
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
@@ -22352,7 +22642,7 @@
       <c r="Y915" s="5"/>
       <c r="Z915" s="5"/>
     </row>
-    <row r="916" spans="1:26" ht="12.75">
+    <row r="916">
       <c r="A916" s="5"/>
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
@@ -22375,7 +22665,7 @@
       <c r="Y916" s="5"/>
       <c r="Z916" s="5"/>
     </row>
-    <row r="917" spans="1:26" ht="12.75">
+    <row r="917">
       <c r="A917" s="5"/>
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
@@ -22398,7 +22688,7 @@
       <c r="Y917" s="5"/>
       <c r="Z917" s="5"/>
     </row>
-    <row r="918" spans="1:26" ht="12.75">
+    <row r="918">
       <c r="A918" s="5"/>
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
@@ -22421,7 +22711,7 @@
       <c r="Y918" s="5"/>
       <c r="Z918" s="5"/>
     </row>
-    <row r="919" spans="1:26" ht="12.75">
+    <row r="919">
       <c r="A919" s="5"/>
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
@@ -22444,7 +22734,7 @@
       <c r="Y919" s="5"/>
       <c r="Z919" s="5"/>
     </row>
-    <row r="920" spans="1:26" ht="12.75">
+    <row r="920">
       <c r="A920" s="5"/>
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
@@ -22467,7 +22757,7 @@
       <c r="Y920" s="5"/>
       <c r="Z920" s="5"/>
     </row>
-    <row r="921" spans="1:26" ht="12.75">
+    <row r="921">
       <c r="A921" s="5"/>
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
@@ -22490,7 +22780,7 @@
       <c r="Y921" s="5"/>
       <c r="Z921" s="5"/>
     </row>
-    <row r="922" spans="1:26" ht="12.75">
+    <row r="922">
       <c r="A922" s="5"/>
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
@@ -22513,7 +22803,7 @@
       <c r="Y922" s="5"/>
       <c r="Z922" s="5"/>
     </row>
-    <row r="923" spans="1:26" ht="12.75">
+    <row r="923">
       <c r="A923" s="5"/>
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
@@ -22536,7 +22826,7 @@
       <c r="Y923" s="5"/>
       <c r="Z923" s="5"/>
     </row>
-    <row r="924" spans="1:26" ht="12.75">
+    <row r="924">
       <c r="A924" s="5"/>
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
@@ -22559,7 +22849,7 @@
       <c r="Y924" s="5"/>
       <c r="Z924" s="5"/>
     </row>
-    <row r="925" spans="1:26" ht="12.75">
+    <row r="925">
       <c r="A925" s="5"/>
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
@@ -22582,7 +22872,7 @@
       <c r="Y925" s="5"/>
       <c r="Z925" s="5"/>
     </row>
-    <row r="926" spans="1:26" ht="12.75">
+    <row r="926">
       <c r="A926" s="5"/>
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
@@ -22605,7 +22895,7 @@
       <c r="Y926" s="5"/>
       <c r="Z926" s="5"/>
     </row>
-    <row r="927" spans="1:26" ht="12.75">
+    <row r="927">
       <c r="A927" s="5"/>
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
@@ -22628,7 +22918,7 @@
       <c r="Y927" s="5"/>
       <c r="Z927" s="5"/>
     </row>
-    <row r="928" spans="1:26" ht="12.75">
+    <row r="928">
       <c r="A928" s="5"/>
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
@@ -22651,7 +22941,7 @@
       <c r="Y928" s="5"/>
       <c r="Z928" s="5"/>
     </row>
-    <row r="929" spans="1:26" ht="12.75">
+    <row r="929">
       <c r="A929" s="5"/>
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
@@ -22674,7 +22964,7 @@
       <c r="Y929" s="5"/>
       <c r="Z929" s="5"/>
     </row>
-    <row r="930" spans="1:26" ht="12.75">
+    <row r="930">
       <c r="A930" s="5"/>
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
@@ -22697,7 +22987,7 @@
       <c r="Y930" s="5"/>
       <c r="Z930" s="5"/>
     </row>
-    <row r="931" spans="1:26" ht="12.75">
+    <row r="931">
       <c r="A931" s="5"/>
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
@@ -22720,7 +23010,7 @@
       <c r="Y931" s="5"/>
       <c r="Z931" s="5"/>
     </row>
-    <row r="932" spans="1:26" ht="12.75">
+    <row r="932">
       <c r="A932" s="5"/>
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
@@ -22743,7 +23033,7 @@
       <c r="Y932" s="5"/>
       <c r="Z932" s="5"/>
     </row>
-    <row r="933" spans="1:26" ht="12.75">
+    <row r="933">
       <c r="A933" s="5"/>
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
@@ -22766,7 +23056,7 @@
       <c r="Y933" s="5"/>
       <c r="Z933" s="5"/>
     </row>
-    <row r="934" spans="1:26" ht="12.75">
+    <row r="934">
       <c r="A934" s="5"/>
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
@@ -22789,7 +23079,7 @@
       <c r="Y934" s="5"/>
       <c r="Z934" s="5"/>
     </row>
-    <row r="935" spans="1:26" ht="12.75">
+    <row r="935">
       <c r="A935" s="5"/>
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
@@ -22812,7 +23102,7 @@
       <c r="Y935" s="5"/>
       <c r="Z935" s="5"/>
     </row>
-    <row r="936" spans="1:26" ht="12.75">
+    <row r="936">
       <c r="A936" s="5"/>
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
@@ -22835,7 +23125,7 @@
       <c r="Y936" s="5"/>
       <c r="Z936" s="5"/>
     </row>
-    <row r="937" spans="1:26" ht="12.75">
+    <row r="937">
       <c r="A937" s="5"/>
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
@@ -22858,7 +23148,7 @@
       <c r="Y937" s="5"/>
       <c r="Z937" s="5"/>
     </row>
-    <row r="938" spans="1:26" ht="12.75">
+    <row r="938">
       <c r="A938" s="5"/>
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
@@ -22881,7 +23171,7 @@
       <c r="Y938" s="5"/>
       <c r="Z938" s="5"/>
     </row>
-    <row r="939" spans="1:26" ht="12.75">
+    <row r="939">
       <c r="A939" s="5"/>
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
@@ -22904,7 +23194,7 @@
       <c r="Y939" s="5"/>
       <c r="Z939" s="5"/>
     </row>
-    <row r="940" spans="1:26" ht="12.75">
+    <row r="940">
       <c r="A940" s="5"/>
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
@@ -22927,7 +23217,7 @@
       <c r="Y940" s="5"/>
       <c r="Z940" s="5"/>
     </row>
-    <row r="941" spans="1:26" ht="12.75">
+    <row r="941">
       <c r="A941" s="5"/>
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
@@ -22950,7 +23240,7 @@
       <c r="Y941" s="5"/>
       <c r="Z941" s="5"/>
     </row>
-    <row r="942" spans="1:26" ht="12.75">
+    <row r="942">
       <c r="A942" s="5"/>
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
@@ -22973,7 +23263,7 @@
       <c r="Y942" s="5"/>
       <c r="Z942" s="5"/>
     </row>
-    <row r="943" spans="1:26" ht="12.75">
+    <row r="943">
       <c r="A943" s="5"/>
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
@@ -22996,7 +23286,7 @@
       <c r="Y943" s="5"/>
       <c r="Z943" s="5"/>
     </row>
-    <row r="944" spans="1:26" ht="12.75">
+    <row r="944">
       <c r="A944" s="5"/>
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
@@ -23019,7 +23309,7 @@
       <c r="Y944" s="5"/>
       <c r="Z944" s="5"/>
     </row>
-    <row r="945" spans="1:26" ht="12.75">
+    <row r="945">
       <c r="A945" s="5"/>
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
@@ -23042,7 +23332,7 @@
       <c r="Y945" s="5"/>
       <c r="Z945" s="5"/>
     </row>
-    <row r="946" spans="1:26" ht="12.75">
+    <row r="946">
       <c r="A946" s="5"/>
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
@@ -23065,7 +23355,7 @@
       <c r="Y946" s="5"/>
       <c r="Z946" s="5"/>
     </row>
-    <row r="947" spans="1:26" ht="12.75">
+    <row r="947">
       <c r="A947" s="5"/>
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
@@ -23088,7 +23378,7 @@
       <c r="Y947" s="5"/>
       <c r="Z947" s="5"/>
     </row>
-    <row r="948" spans="1:26" ht="12.75">
+    <row r="948">
       <c r="A948" s="5"/>
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
@@ -23111,7 +23401,7 @@
       <c r="Y948" s="5"/>
       <c r="Z948" s="5"/>
     </row>
-    <row r="949" spans="1:26" ht="12.75">
+    <row r="949">
       <c r="A949" s="5"/>
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
@@ -23134,7 +23424,7 @@
       <c r="Y949" s="5"/>
       <c r="Z949" s="5"/>
     </row>
-    <row r="950" spans="1:26" ht="12.75">
+    <row r="950">
       <c r="A950" s="5"/>
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
@@ -23157,7 +23447,7 @@
       <c r="Y950" s="5"/>
       <c r="Z950" s="5"/>
     </row>
-    <row r="951" spans="1:26" ht="12.75">
+    <row r="951">
       <c r="A951" s="5"/>
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
@@ -23180,7 +23470,7 @@
       <c r="Y951" s="5"/>
       <c r="Z951" s="5"/>
     </row>
-    <row r="952" spans="1:26" ht="12.75">
+    <row r="952">
       <c r="A952" s="5"/>
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
@@ -23203,7 +23493,7 @@
       <c r="Y952" s="5"/>
       <c r="Z952" s="5"/>
     </row>
-    <row r="953" spans="1:26" ht="12.75">
+    <row r="953">
       <c r="A953" s="5"/>
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
@@ -23226,7 +23516,7 @@
       <c r="Y953" s="5"/>
       <c r="Z953" s="5"/>
     </row>
-    <row r="954" spans="1:26" ht="12.75">
+    <row r="954">
       <c r="A954" s="5"/>
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
@@ -23249,7 +23539,7 @@
       <c r="Y954" s="5"/>
       <c r="Z954" s="5"/>
     </row>
-    <row r="955" spans="1:26" ht="12.75">
+    <row r="955">
       <c r="A955" s="5"/>
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
@@ -23272,7 +23562,7 @@
       <c r="Y955" s="5"/>
       <c r="Z955" s="5"/>
     </row>
-    <row r="956" spans="1:26" ht="12.75">
+    <row r="956">
       <c r="A956" s="5"/>
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
@@ -23295,7 +23585,7 @@
       <c r="Y956" s="5"/>
       <c r="Z956" s="5"/>
     </row>
-    <row r="957" spans="1:26" ht="12.75">
+    <row r="957">
       <c r="A957" s="5"/>
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
@@ -23318,7 +23608,7 @@
       <c r="Y957" s="5"/>
       <c r="Z957" s="5"/>
     </row>
-    <row r="958" spans="1:26" ht="12.75">
+    <row r="958">
       <c r="A958" s="5"/>
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
@@ -23341,7 +23631,7 @@
       <c r="Y958" s="5"/>
       <c r="Z958" s="5"/>
     </row>
-    <row r="959" spans="1:26" ht="12.75">
+    <row r="959">
       <c r="A959" s="5"/>
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
@@ -23364,7 +23654,7 @@
       <c r="Y959" s="5"/>
       <c r="Z959" s="5"/>
     </row>
-    <row r="960" spans="1:26" ht="12.75">
+    <row r="960">
       <c r="A960" s="5"/>
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
@@ -23387,7 +23677,7 @@
       <c r="Y960" s="5"/>
       <c r="Z960" s="5"/>
     </row>
-    <row r="961" spans="1:26" ht="12.75">
+    <row r="961">
       <c r="A961" s="5"/>
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
@@ -23410,7 +23700,7 @@
       <c r="Y961" s="5"/>
       <c r="Z961" s="5"/>
     </row>
-    <row r="962" spans="1:26" ht="12.75">
+    <row r="962">
       <c r="A962" s="5"/>
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
@@ -23433,7 +23723,7 @@
       <c r="Y962" s="5"/>
       <c r="Z962" s="5"/>
     </row>
-    <row r="963" spans="1:26" ht="12.75">
+    <row r="963">
       <c r="A963" s="5"/>
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
@@ -23456,7 +23746,7 @@
       <c r="Y963" s="5"/>
       <c r="Z963" s="5"/>
     </row>
-    <row r="964" spans="1:26" ht="12.75">
+    <row r="964">
       <c r="A964" s="5"/>
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
@@ -23479,7 +23769,7 @@
       <c r="Y964" s="5"/>
       <c r="Z964" s="5"/>
     </row>
-    <row r="965" spans="1:26" ht="12.75">
+    <row r="965">
       <c r="A965" s="5"/>
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
@@ -23502,7 +23792,7 @@
       <c r="Y965" s="5"/>
       <c r="Z965" s="5"/>
     </row>
-    <row r="966" spans="1:26" ht="12.75">
+    <row r="966">
       <c r="A966" s="5"/>
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
@@ -23525,7 +23815,7 @@
       <c r="Y966" s="5"/>
       <c r="Z966" s="5"/>
     </row>
-    <row r="967" spans="1:26" ht="12.75">
+    <row r="967">
       <c r="A967" s="5"/>
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
@@ -23548,7 +23838,7 @@
       <c r="Y967" s="5"/>
       <c r="Z967" s="5"/>
     </row>
-    <row r="968" spans="1:26" ht="12.75">
+    <row r="968">
       <c r="A968" s="5"/>
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
@@ -23571,7 +23861,7 @@
       <c r="Y968" s="5"/>
       <c r="Z968" s="5"/>
     </row>
-    <row r="969" spans="1:26" ht="12.75">
+    <row r="969">
       <c r="A969" s="5"/>
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
@@ -23594,7 +23884,7 @@
       <c r="Y969" s="5"/>
       <c r="Z969" s="5"/>
     </row>
-    <row r="970" spans="1:26" ht="12.75">
+    <row r="970">
       <c r="A970" s="5"/>
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
@@ -23617,7 +23907,7 @@
       <c r="Y970" s="5"/>
       <c r="Z970" s="5"/>
     </row>
-    <row r="971" spans="1:26" ht="12.75">
+    <row r="971">
       <c r="A971" s="5"/>
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
@@ -23640,7 +23930,7 @@
       <c r="Y971" s="5"/>
       <c r="Z971" s="5"/>
     </row>
-    <row r="972" spans="1:26" ht="12.75">
+    <row r="972">
       <c r="A972" s="5"/>
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
@@ -23663,7 +23953,7 @@
       <c r="Y972" s="5"/>
       <c r="Z972" s="5"/>
     </row>
-    <row r="973" spans="1:26" ht="12.75">
+    <row r="973">
       <c r="A973" s="5"/>
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
@@ -23686,7 +23976,7 @@
       <c r="Y973" s="5"/>
       <c r="Z973" s="5"/>
     </row>
-    <row r="974" spans="1:26" ht="12.75">
+    <row r="974">
       <c r="A974" s="5"/>
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
@@ -23709,7 +23999,7 @@
       <c r="Y974" s="5"/>
       <c r="Z974" s="5"/>
     </row>
-    <row r="975" spans="1:26" ht="12.75">
+    <row r="975">
       <c r="A975" s="5"/>
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
@@ -23732,7 +24022,7 @@
       <c r="Y975" s="5"/>
       <c r="Z975" s="5"/>
     </row>
-    <row r="976" spans="1:26" ht="12.75">
+    <row r="976">
       <c r="A976" s="5"/>
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
@@ -23755,7 +24045,7 @@
       <c r="Y976" s="5"/>
       <c r="Z976" s="5"/>
     </row>
-    <row r="977" spans="1:26" ht="12.75">
+    <row r="977">
       <c r="A977" s="5"/>
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
@@ -23778,7 +24068,7 @@
       <c r="Y977" s="5"/>
       <c r="Z977" s="5"/>
     </row>
-    <row r="978" spans="1:26" ht="12.75">
+    <row r="978">
       <c r="A978" s="5"/>
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
@@ -23801,7 +24091,7 @@
       <c r="Y978" s="5"/>
       <c r="Z978" s="5"/>
     </row>
-    <row r="979" spans="1:26" ht="12.75">
+    <row r="979">
       <c r="A979" s="5"/>
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
@@ -23824,7 +24114,7 @@
       <c r="Y979" s="5"/>
       <c r="Z979" s="5"/>
     </row>
-    <row r="980" spans="1:26" ht="12.75">
+    <row r="980">
       <c r="A980" s="5"/>
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
@@ -23847,7 +24137,7 @@
       <c r="Y980" s="5"/>
       <c r="Z980" s="5"/>
     </row>
-    <row r="981" spans="1:26" ht="12.75">
+    <row r="981">
       <c r="A981" s="5"/>
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
@@ -23870,7 +24160,7 @@
       <c r="Y981" s="5"/>
       <c r="Z981" s="5"/>
     </row>
-    <row r="982" spans="1:26" ht="12.75">
+    <row r="982">
       <c r="A982" s="5"/>
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
@@ -23893,7 +24183,7 @@
       <c r="Y982" s="5"/>
       <c r="Z982" s="5"/>
     </row>
-    <row r="983" spans="1:26" ht="12.75">
+    <row r="983">
       <c r="A983" s="5"/>
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
@@ -23916,7 +24206,7 @@
       <c r="Y983" s="5"/>
       <c r="Z983" s="5"/>
     </row>
-    <row r="984" spans="1:26" ht="12.75">
+    <row r="984">
       <c r="A984" s="5"/>
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
@@ -23939,7 +24229,7 @@
       <c r="Y984" s="5"/>
       <c r="Z984" s="5"/>
     </row>
-    <row r="985" spans="1:26" ht="12.75">
+    <row r="985">
       <c r="A985" s="5"/>
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
@@ -23962,7 +24252,7 @@
       <c r="Y985" s="5"/>
       <c r="Z985" s="5"/>
     </row>
-    <row r="986" spans="1:26" ht="12.75">
+    <row r="986">
       <c r="A986" s="5"/>
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
@@ -23985,7 +24275,7 @@
       <c r="Y986" s="5"/>
       <c r="Z986" s="5"/>
     </row>
-    <row r="987" spans="1:26" ht="12.75">
+    <row r="987">
       <c r="A987" s="5"/>
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
@@ -24008,7 +24298,7 @@
       <c r="Y987" s="5"/>
       <c r="Z987" s="5"/>
     </row>
-    <row r="988" spans="1:26" ht="12.75">
+    <row r="988">
       <c r="A988" s="5"/>
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
@@ -24031,7 +24321,7 @@
       <c r="Y988" s="5"/>
       <c r="Z988" s="5"/>
     </row>
-    <row r="989" spans="1:26" ht="12.75">
+    <row r="989">
       <c r="A989" s="5"/>
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
@@ -24054,7 +24344,7 @@
       <c r="Y989" s="5"/>
       <c r="Z989" s="5"/>
     </row>
-    <row r="990" spans="1:26" ht="12.75">
+    <row r="990">
       <c r="A990" s="5"/>
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
@@ -24077,7 +24367,7 @@
       <c r="Y990" s="5"/>
       <c r="Z990" s="5"/>
     </row>
-    <row r="991" spans="1:26" ht="12.75">
+    <row r="991">
       <c r="A991" s="5"/>
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
@@ -24100,7 +24390,7 @@
       <c r="Y991" s="5"/>
       <c r="Z991" s="5"/>
     </row>
-    <row r="992" spans="1:26" ht="12.75">
+    <row r="992">
       <c r="A992" s="5"/>
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
@@ -24123,7 +24413,7 @@
       <c r="Y992" s="5"/>
       <c r="Z992" s="5"/>
     </row>
-    <row r="993" spans="1:26" ht="12.75">
+    <row r="993">
       <c r="A993" s="5"/>
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
@@ -24146,7 +24436,7 @@
       <c r="Y993" s="5"/>
       <c r="Z993" s="5"/>
     </row>
-    <row r="994" spans="1:26" ht="12.75">
+    <row r="994">
       <c r="A994" s="5"/>
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
@@ -24169,7 +24459,7 @@
       <c r="Y994" s="5"/>
       <c r="Z994" s="5"/>
     </row>
-    <row r="995" spans="1:26" ht="12.75">
+    <row r="995">
       <c r="A995" s="5"/>
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
@@ -24192,7 +24482,7 @@
       <c r="Y995" s="5"/>
       <c r="Z995" s="5"/>
     </row>
-    <row r="996" spans="1:26" ht="12.75">
+    <row r="996">
       <c r="A996" s="5"/>
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
@@ -24215,7 +24505,7 @@
       <c r="Y996" s="5"/>
       <c r="Z996" s="5"/>
     </row>
-    <row r="997" spans="1:26" ht="12.75">
+    <row r="997">
       <c r="A997" s="5"/>
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
@@ -24238,7 +24528,7 @@
       <c r="Y997" s="5"/>
       <c r="Z997" s="5"/>
     </row>
-    <row r="998" spans="1:26" ht="12.75">
+    <row r="998">
       <c r="A998" s="5"/>
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
@@ -24261,7 +24551,7 @@
       <c r="Y998" s="5"/>
       <c r="Z998" s="5"/>
     </row>
-    <row r="999" spans="1:26" ht="12.75">
+    <row r="999">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -24284,7 +24574,7 @@
       <c r="Y999" s="5"/>
       <c r="Z999" s="5"/>
     </row>
-    <row r="1000" spans="1:26" ht="12.75">
+    <row r="1000">
       <c r="A1000" s="5"/>
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
@@ -24309,9 +24599,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1"/>
-    <hyperlink ref="A19" r:id="rId2"/>
+    <hyperlink r:id="rId1" ref="B16"/>
+    <hyperlink r:id="rId2" ref="A19"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>